--- a/software/testing/CV/thread_kalman_pos/output.xlsx
+++ b/software/testing/CV/thread_kalman_pos/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SG3"/>
+  <dimension ref="A1:ALM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1934,1510 +1934,4510 @@
       <c r="SG1" s="1" t="n">
         <v>499</v>
       </c>
+      <c r="SH1" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="SI1" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="SJ1" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="SK1" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="SL1" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="SM1" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="SN1" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="SO1" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="SP1" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="SQ1" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="SR1" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="SS1" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="ST1" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="SU1" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="SV1" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="SW1" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="SX1" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="SY1" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="SZ1" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="TA1" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="TB1" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="TC1" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="TD1" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="TE1" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="TF1" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="TG1" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="TH1" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="TI1" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="TJ1" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="TK1" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="TL1" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="TM1" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="TN1" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="TO1" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="TP1" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="TQ1" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="TR1" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="TS1" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="TT1" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="TU1" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="TV1" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="TW1" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="TX1" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="TY1" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="TZ1" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="UA1" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="UB1" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="UC1" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="UD1" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="UE1" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="UF1" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="UG1" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="UH1" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="UI1" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="UJ1" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="UK1" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="UL1" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="UM1" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="UN1" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="UO1" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="UP1" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="UQ1" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="UR1" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="US1" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="UT1" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="UU1" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="UV1" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="UW1" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="UX1" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="UY1" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="UZ1" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="VA1" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="VB1" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="VC1" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="VD1" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="VE1" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="VF1" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="VG1" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="VH1" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="VI1" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="VJ1" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="VK1" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="VL1" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="VM1" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="VN1" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="VO1" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="VP1" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="VQ1" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="VR1" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="VS1" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="VT1" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="VU1" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="VV1" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="VW1" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="VX1" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="VY1" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="VZ1" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="WA1" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="WB1" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="WC1" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="WD1" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="WE1" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="WF1" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="WG1" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="WH1" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="WI1" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="WJ1" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="WK1" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="WL1" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="WM1" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="WN1" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="WO1" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="WP1" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="WQ1" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="WR1" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="WS1" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="WT1" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="WU1" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="WV1" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="WW1" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="WX1" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="WY1" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="WZ1" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="XA1" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="XB1" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="XC1" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="XD1" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="XE1" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="XF1" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="XG1" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="XH1" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="XI1" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="XJ1" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="XK1" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="XL1" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="XM1" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="XN1" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="XO1" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="XP1" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="XQ1" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="XR1" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="XS1" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="XT1" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="XU1" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="XV1" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="XW1" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="XX1" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="XY1" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="XZ1" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="YA1" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="YB1" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="YC1" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="YD1" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="YE1" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="YF1" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="YG1" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="YH1" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="YI1" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="YJ1" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="YK1" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="YL1" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="YM1" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="YN1" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="YO1" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="YP1" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="YQ1" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="YR1" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="YS1" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="YT1" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="YU1" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="YV1" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="YW1" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="YX1" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="YY1" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="YZ1" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="ZA1" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="ZB1" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="ZC1" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="ZD1" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="ZE1" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="ZF1" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="ZG1" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="ZH1" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="ZI1" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="ZJ1" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="ZK1" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="ZL1" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="ZM1" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="ZN1" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="ZO1" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="ZP1" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="ZQ1" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="ZR1" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="ZS1" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="ZT1" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="ZU1" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="ZV1" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="ZW1" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="ZX1" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="ZY1" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="ZZ1" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="AAA1" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="AAB1" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="AAC1" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="AAD1" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="AAE1" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="AAF1" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="AAG1" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="AAH1" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="AAI1" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="AAJ1" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="AAK1" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="AAL1" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="AAM1" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="AAN1" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="AAO1" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="AAP1" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="AAQ1" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="AAR1" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="AAS1" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="AAT1" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="AAU1" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="AAV1" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="AAW1" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="AAX1" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="AAY1" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="AAZ1" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="ABA1" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="ABB1" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="ABC1" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="ABD1" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="ABE1" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="ABF1" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="ABG1" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="ABH1" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="ABI1" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="ABJ1" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="ABK1" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="ABL1" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="ABM1" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="ABN1" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="ABO1" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="ABP1" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="ABQ1" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="ABR1" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="ABS1" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="ABT1" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="ABU1" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="ABV1" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="ABW1" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="ABX1" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="ABY1" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="ABZ1" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="ACA1" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="ACB1" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="ACC1" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="ACD1" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="ACE1" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="ACF1" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="ACG1" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="ACH1" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="ACI1" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="ACJ1" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="ACK1" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="ACL1" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="ACM1" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="ACN1" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="ACO1" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="ACP1" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="ACQ1" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="ACR1" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="ACS1" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="ACT1" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="ACU1" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="ACV1" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="ACW1" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="ACX1" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="ACY1" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="ACZ1" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="ADA1" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="ADB1" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="ADC1" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="ADD1" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="ADE1" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="ADF1" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="ADG1" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="ADH1" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="ADI1" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="ADJ1" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="ADK1" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="ADL1" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="ADM1" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="ADN1" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="ADO1" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="ADP1" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="ADQ1" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="ADR1" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="ADS1" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="ADT1" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="ADU1" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="ADV1" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="ADW1" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="ADX1" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="ADY1" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="ADZ1" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="AEA1" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="AEB1" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="AEC1" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="AED1" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="AEE1" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="AEF1" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="AEG1" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="AEH1" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="AEI1" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="AEJ1" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="AEK1" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="AEL1" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="AEM1" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="AEN1" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="AEO1" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="AEP1" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="AEQ1" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="AER1" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="AES1" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="AET1" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="AEU1" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="AEV1" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="AEW1" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="AEX1" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="AEY1" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="AEZ1" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="AFA1" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="AFB1" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="AFC1" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="AFD1" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="AFE1" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="AFF1" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="AFG1" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="AFH1" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="AFI1" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="AFJ1" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="AFK1" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="AFL1" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="AFM1" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="AFN1" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="AFO1" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="AFP1" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="AFQ1" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="AFR1" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="AFS1" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="AFT1" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="AFU1" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="AFV1" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="AFW1" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="AFX1" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="AFY1" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="AFZ1" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="AGA1" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="AGB1" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="AGC1" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="AGD1" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="AGE1" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="AGF1" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="AGG1" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="AGH1" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="AGI1" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="AGJ1" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="AGK1" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="AGL1" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="AGM1" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="AGN1" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="AGO1" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="AGP1" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="AGQ1" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="AGR1" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="AGS1" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="AGT1" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="AGU1" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="AGV1" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="AGW1" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="AGX1" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="AGY1" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="AGZ1" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="AHA1" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="AHB1" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="AHC1" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="AHD1" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="AHE1" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="AHF1" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="AHG1" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="AHH1" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="AHI1" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="AHJ1" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="AHK1" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="AHL1" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="AHM1" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="AHN1" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="AHO1" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="AHP1" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="AHQ1" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="AHR1" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="AHS1" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="AHT1" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="AHU1" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="AHV1" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="AHW1" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="AHX1" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="AHY1" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="AHZ1" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="AIA1" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="AIB1" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="AIC1" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="AID1" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="AIE1" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="AIF1" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="AIG1" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="AIH1" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="AII1" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="AIJ1" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="AIK1" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="AIL1" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="AIM1" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="AIN1" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="AIO1" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="AIP1" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="AIQ1" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="AIR1" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="AIS1" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="AIT1" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="AIU1" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="AIV1" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="AIW1" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="AIX1" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="AIY1" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="AIZ1" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="AJA1" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="AJB1" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="AJC1" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="AJD1" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="AJE1" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="AJF1" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="AJG1" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="AJH1" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="AJI1" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="AJJ1" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="AJK1" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="AJL1" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="AJM1" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="AJN1" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="AJO1" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJP1" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="AJQ1" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="AJR1" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="AJS1" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="AJT1" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="AJU1" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="AJV1" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="AJW1" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="AJX1" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="AJY1" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="AJZ1" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="AKA1" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="AKB1" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="AKC1" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="AKD1" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="AKE1" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="AKF1" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="AKG1" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="AKH1" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="AKI1" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="AKJ1" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="AKK1" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="AKL1" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="AKM1" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="AKN1" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="AKO1" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="AKP1" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="AKQ1" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="AKR1" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="AKS1" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="AKT1" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="AKU1" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="AKV1" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="AKW1" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="AKX1" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="AKY1" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="AKZ1" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="ALA1" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="ALB1" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="ALC1" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="ALD1" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="ALE1" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="ALF1" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="ALG1" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="ALH1" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="ALI1" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="ALJ1" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="ALK1" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="ALL1" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="ALM1" s="1" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.862139849523613</v>
+        <v>-53.8378937863742</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.647691313569584</v>
+        <v>-73.60623446551908</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.622351911134267</v>
+        <v>-85.45324678173597</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.336670474058884</v>
+        <v>-94.18378498437816</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.884687141783512</v>
+        <v>-100.897369868565</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.295305796797606</v>
+        <v>-105.1987212888968</v>
       </c>
       <c r="H2" t="n">
-        <v>-11.61205860885921</v>
+        <v>-107.1818978495102</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.47453431743917</v>
+        <v>-107.9190426684977</v>
       </c>
       <c r="J2" t="n">
-        <v>-14.92899540792226</v>
+        <v>-107.9049373609229</v>
       </c>
       <c r="K2" t="n">
-        <v>-16.04217735643778</v>
+        <v>-96.80120356208695</v>
       </c>
       <c r="L2" t="n">
-        <v>-16.88302556619006</v>
+        <v>-96.43539274369974</v>
       </c>
       <c r="M2" t="n">
-        <v>-17.51265268008963</v>
+        <v>-97.79052684558901</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.22486160585735</v>
+        <v>-98.77857045641645</v>
       </c>
       <c r="O2" t="n">
-        <v>-18.77043693944784</v>
+        <v>-99.55265708927153</v>
       </c>
       <c r="P2" t="n">
-        <v>-19.18745862937183</v>
+        <v>-100.2609784147431</v>
       </c>
       <c r="Q2" t="n">
-        <v>-19.29465342006081</v>
+        <v>-100.9231497519256</v>
       </c>
       <c r="R2" t="n">
-        <v>-19.35995134334026</v>
+        <v>-101.5020680103788</v>
       </c>
       <c r="S2" t="n">
-        <v>-19.39426886204148</v>
+        <v>-101.9185257695116</v>
       </c>
       <c r="T2" t="n">
-        <v>-19.40566834889272</v>
+        <v>-102.2132181064502</v>
       </c>
       <c r="U2" t="n">
-        <v>-20.68338640773541</v>
+        <v>-102.5116039930557</v>
       </c>
       <c r="V2" t="n">
-        <v>-21.764921601631</v>
+        <v>-102.7358129253868</v>
       </c>
       <c r="W2" t="n">
-        <v>-22.61830658119379</v>
+        <v>-102.6463459761393</v>
       </c>
       <c r="X2" t="n">
-        <v>-23.34432410252938</v>
+        <v>-102.8038149688694</v>
       </c>
       <c r="Y2" t="n">
-        <v>-23.96363828192569</v>
+        <v>-102.9331001892615</v>
       </c>
       <c r="Z2" t="n">
-        <v>-24.49317060561079</v>
+        <v>-102.7943933620783</v>
       </c>
       <c r="AA2" t="n">
-        <v>-25.08254021030099</v>
+        <v>-102.8720301235844</v>
       </c>
       <c r="AB2" t="n">
-        <v>-25.59166605586498</v>
+        <v>-102.9372256671576</v>
       </c>
       <c r="AC2" t="n">
-        <v>-26.03225972650707</v>
+        <v>-102.97510165907</v>
       </c>
       <c r="AD2" t="n">
-        <v>-26.38917598447518</v>
+        <v>-103.0074924209668</v>
       </c>
       <c r="AE2" t="n">
-        <v>-26.69821979100256</v>
+        <v>-103.0264783333673</v>
       </c>
       <c r="AF2" t="n">
-        <v>-26.96597491383259</v>
+        <v>-103.0251187510295</v>
       </c>
       <c r="AG2" t="n">
-        <v>-28.58445080944237</v>
+        <v>-103.0149098047453</v>
       </c>
       <c r="AH2" t="n">
-        <v>-30.03576138715155</v>
+        <v>-102.8091548798317</v>
       </c>
       <c r="AI2" t="n">
-        <v>-31.33971907575747</v>
+        <v>-102.7936517446636</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-32.51341642639315</v>
+        <v>-102.7811023156264</v>
       </c>
       <c r="AK2" t="n">
-        <v>-34.70734755387083</v>
+        <v>-102.7576452853303</v>
       </c>
       <c r="AL2" t="n">
-        <v>-36.69810429355008</v>
+        <v>-102.7369516831293</v>
       </c>
       <c r="AM2" t="n">
-        <v>-38.50744724643699</v>
+        <v>-102.7225602593136</v>
       </c>
       <c r="AN2" t="n">
-        <v>-40.15441920520129</v>
+        <v>-102.6871158479787</v>
       </c>
       <c r="AO2" t="n">
-        <v>-39.37991210971403</v>
+        <v>-102.6461386299558</v>
       </c>
       <c r="AP2" t="n">
-        <v>-38.65775038369208</v>
+        <v>-102.60803939</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-37.98331731982667</v>
+        <v>-102.5532152133819</v>
       </c>
       <c r="AR2" t="n">
-        <v>-37.35249067877663</v>
+        <v>-102.3438884605805</v>
       </c>
       <c r="AS2" t="n">
-        <v>-36.76090484369774</v>
+        <v>-102.3124459443728</v>
       </c>
       <c r="AT2" t="n">
-        <v>-36.20597644233751</v>
+        <v>-102.2732158901879</v>
       </c>
       <c r="AU2" t="n">
-        <v>-35.69374463364102</v>
+        <v>-102.2362554889708</v>
       </c>
       <c r="AV2" t="n">
-        <v>-35.21186715475225</v>
+        <v>-102.188715899759</v>
       </c>
       <c r="AW2" t="n">
-        <v>-34.75797493746151</v>
+        <v>-102.1496782886898</v>
       </c>
       <c r="AX2" t="n">
-        <v>-34.33621141615559</v>
+        <v>-102.1061687814105</v>
       </c>
       <c r="AY2" t="n">
-        <v>-33.93792747591525</v>
+        <v>-102.0529986450225</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-33.56139298194901</v>
+        <v>-101.9992574508916</v>
       </c>
       <c r="BA2" t="n">
-        <v>-33.20503397519884</v>
+        <v>-101.9498328807288</v>
       </c>
       <c r="BB2" t="n">
-        <v>-32.85530032419536</v>
+        <v>-101.8936902379568</v>
       </c>
       <c r="BC2" t="n">
-        <v>-32.52375078580937</v>
+        <v>-101.8402451214272</v>
       </c>
       <c r="BD2" t="n">
-        <v>-32.20913221932103</v>
+        <v>-101.7874933841015</v>
       </c>
       <c r="BE2" t="n">
-        <v>-31.91024253866365</v>
+        <v>-101.7337206088541</v>
       </c>
       <c r="BF2" t="n">
-        <v>-31.62608796724248</v>
+        <v>-101.6739558251481</v>
       </c>
       <c r="BG2" t="n">
-        <v>-31.35570245548405</v>
+        <v>-101.6167490704489</v>
       </c>
       <c r="BH2" t="n">
-        <v>-31.09819772373865</v>
+        <v>-101.554940663488</v>
       </c>
       <c r="BI2" t="n">
-        <v>-30.85275588440881</v>
+        <v>-101.49388783232</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-30.62140820786808</v>
+        <v>-101.4361009295937</v>
       </c>
       <c r="BK2" t="n">
-        <v>-30.40052187597414</v>
+        <v>-101.2527342572109</v>
       </c>
       <c r="BL2" t="n">
-        <v>-30.18543631492197</v>
+        <v>-101.2012703487058</v>
       </c>
       <c r="BM2" t="n">
-        <v>-29.97980439585604</v>
+        <v>-101.1479838466238</v>
       </c>
       <c r="BN2" t="n">
-        <v>-29.78306936425863</v>
+        <v>-101.0961324905361</v>
       </c>
       <c r="BO2" t="n">
-        <v>-29.59598316727915</v>
+        <v>-100.9187693566434</v>
       </c>
       <c r="BP2" t="n">
-        <v>-29.41673402100442</v>
+        <v>-100.8719246126917</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-29.24488005459687</v>
+        <v>-100.8197411639911</v>
       </c>
       <c r="BR2" t="n">
-        <v>-29.08001007368609</v>
+        <v>-100.7628567625174</v>
       </c>
       <c r="BS2" t="n">
-        <v>-28.92174104114082</v>
+        <v>-100.7120137282508</v>
       </c>
       <c r="BT2" t="n">
-        <v>-28.76971579563482</v>
+        <v>-100.6663951653936</v>
       </c>
       <c r="BU2" t="n">
-        <v>-28.62360098275492</v>
+        <v>-100.616284771496</v>
       </c>
       <c r="BV2" t="n">
-        <v>-28.48308517636792</v>
+        <v>-100.5695366606078</v>
       </c>
       <c r="BW2" t="n">
-        <v>-28.34787717055071</v>
+        <v>-100.523336252996</v>
       </c>
       <c r="BX2" t="n">
-        <v>-28.21770442464604</v>
+        <v>-100.4776997355961</v>
       </c>
       <c r="BY2" t="n">
-        <v>-28.09120151511811</v>
+        <v>-100.4273025985309</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-27.9692879766786</v>
+        <v>-100.3749666876946</v>
       </c>
       <c r="CA2" t="n">
-        <v>-27.85173665493651</v>
+        <v>-100.3338255483785</v>
       </c>
       <c r="CB2" t="n">
-        <v>-27.73833425364418</v>
+        <v>-100.2880154651651</v>
       </c>
       <c r="CC2" t="n">
-        <v>-27.62888033265846</v>
+        <v>-100.2469320795301</v>
       </c>
       <c r="CD2" t="n">
-        <v>-27.52423201438442</v>
+        <v>-100.2034939955243</v>
       </c>
       <c r="CE2" t="n">
-        <v>-27.42312316064023</v>
+        <v>-100.1658146823093</v>
       </c>
       <c r="CF2" t="n">
-        <v>-27.32538883652913</v>
+        <v>-100.1242216716368</v>
       </c>
       <c r="CG2" t="n">
-        <v>-27.23087358583192</v>
+        <v>-100.0884002464083</v>
       </c>
       <c r="CH2" t="n">
-        <v>-27.13943078497301</v>
+        <v>-100.048727047464</v>
       </c>
       <c r="CI2" t="n">
-        <v>-27.05092204782504</v>
+        <v>-100.0101594627711</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-26.96423852773573</v>
+        <v>-99.97593941516389</v>
       </c>
       <c r="CK2" t="n">
-        <v>-26.88027239798422</v>
+        <v>-99.93892911424271</v>
       </c>
       <c r="CL2" t="n">
-        <v>-26.79890510993646</v>
+        <v>-99.90842395109077</v>
       </c>
       <c r="CM2" t="n">
-        <v>-26.72097237704217</v>
+        <v>-99.87894131142927</v>
       </c>
       <c r="CN2" t="n">
-        <v>-26.64538496969558</v>
+        <v>-99.84565607202308</v>
       </c>
       <c r="CO2" t="n">
-        <v>-26.57204386918479</v>
+        <v>-99.81680147834459</v>
       </c>
       <c r="CP2" t="n">
-        <v>-26.50085521649499</v>
+        <v>-99.79051817431358</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-26.43172999361096</v>
+        <v>-99.76365640415656</v>
       </c>
       <c r="CR2" t="n">
-        <v>-26.36458372760644</v>
+        <v>-99.7394035064281</v>
       </c>
       <c r="CS2" t="n">
-        <v>-26.29933621567756</v>
+        <v>-99.71612722271816</v>
       </c>
       <c r="CT2" t="n">
-        <v>-26.235911269444</v>
+        <v>-99.68907655223144</v>
       </c>
       <c r="CU2" t="n">
-        <v>-26.17423647699026</v>
+        <v>-99.66790506884568</v>
       </c>
       <c r="CV2" t="n">
-        <v>-26.11337437087863</v>
+        <v>-99.64767968142685</v>
       </c>
       <c r="CW2" t="n">
-        <v>-26.05415725962641</v>
+        <v>-99.62838639535852</v>
       </c>
       <c r="CX2" t="n">
-        <v>-25.99652159754547</v>
+        <v>-99.61000921295656</v>
       </c>
       <c r="CY2" t="n">
-        <v>-25.94040687468742</v>
+        <v>-99.59100740075877</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-25.88575544546757</v>
+        <v>-99.57294449352783</v>
       </c>
       <c r="DA2" t="n">
-        <v>-25.83251236851653</v>
+        <v>-99.55732599454704</v>
       </c>
       <c r="DB2" t="n">
-        <v>-25.78062525692662</v>
+        <v>-99.54255088355542</v>
       </c>
       <c r="DC2" t="n">
-        <v>-25.73004413812878</v>
+        <v>-99.52859758666362</v>
       </c>
       <c r="DD2" t="n">
-        <v>-25.68153147299817</v>
+        <v>-99.5154026155261</v>
       </c>
       <c r="DE2" t="n">
-        <v>-25.63420648037066</v>
+        <v>-99.50302891941296</v>
       </c>
       <c r="DF2" t="n">
-        <v>-25.58802662084328</v>
+        <v>-99.49141037422541</v>
       </c>
       <c r="DG2" t="n">
-        <v>-25.54295124787504</v>
+        <v>-99.46580255756045</v>
       </c>
       <c r="DH2" t="n">
-        <v>-25.49894150875341</v>
+        <v>-99.4506747140527</v>
       </c>
       <c r="DI2" t="n">
-        <v>-25.45596025159201</v>
+        <v>-99.43265905281324</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-25.4139719379427</v>
+        <v>-99.41582541281713</v>
       </c>
       <c r="DK2" t="n">
-        <v>-25.37294256063761</v>
+        <v>-99.40962876205373</v>
       </c>
       <c r="DL2" t="n">
-        <v>-25.33283956650567</v>
+        <v>-99.39645924500286</v>
       </c>
       <c r="DM2" t="n">
-        <v>-25.29287667560224</v>
+        <v>-99.39300656500217</v>
       </c>
       <c r="DN2" t="n">
-        <v>-25.25380057706115</v>
+        <v>-99.3898680569803</v>
       </c>
       <c r="DO2" t="n">
-        <v>-25.21558192114301</v>
+        <v>-99.37885237844655</v>
       </c>
       <c r="DP2" t="n">
-        <v>-25.17819257750761</v>
+        <v>-99.34334260380248</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-25.14160557622778</v>
+        <v>-99.32415554235376</v>
       </c>
       <c r="DR2" t="n">
-        <v>-25.10579505213198</v>
+        <v>-99.28779738460608</v>
       </c>
       <c r="DS2" t="n">
-        <v>-25.07073619226153</v>
+        <v>-99.25814845587666</v>
       </c>
       <c r="DT2" t="n">
-        <v>-25.03640518624416</v>
+        <v>-99.20691355655926</v>
       </c>
       <c r="DU2" t="n">
-        <v>-25.21248022377071</v>
+        <v>-99.16853025762873</v>
       </c>
       <c r="DV2" t="n">
-        <v>-25.38370982846516</v>
+        <v>-99.11985681778187</v>
       </c>
       <c r="DW2" t="n">
-        <v>-25.55024937215232</v>
+        <v>-99.06566062604007</v>
       </c>
       <c r="DX2" t="n">
-        <v>-25.71224786514443</v>
+        <v>-99.00661743583701</v>
       </c>
       <c r="DY2" t="n">
-        <v>-25.86984825938941</v>
+        <v>-98.9671602295596</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-27.39667718420112</v>
+        <v>-98.90203288212007</v>
       </c>
       <c r="EA2" t="n">
-        <v>-28.88475853499943</v>
+        <v>-98.8237832099593</v>
       </c>
       <c r="EB2" t="n">
-        <v>-30.33527216290692</v>
+        <v>-98.72581496856053</v>
       </c>
       <c r="EC2" t="n">
-        <v>-31.74935149302671</v>
+        <v>-98.62157763830729</v>
       </c>
       <c r="ED2" t="n">
-        <v>-32.78887174821907</v>
+        <v>-98.52826871087777</v>
       </c>
       <c r="EE2" t="n">
-        <v>-33.80234722003212</v>
+        <v>-98.4091176552968</v>
       </c>
       <c r="EF2" t="n">
-        <v>-34.79054264511264</v>
+        <v>-98.28440170580467</v>
       </c>
       <c r="EG2" t="n">
-        <v>-35.75419344263955</v>
+        <v>-98.13449421622174</v>
       </c>
       <c r="EH2" t="n">
-        <v>-37.03416149196943</v>
+        <v>-97.98425194862267</v>
       </c>
       <c r="EI2" t="n">
-        <v>-38.28297851736321</v>
+        <v>-98.22268593880845</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-39.50152485380255</v>
+        <v>-98.39494872755084</v>
       </c>
       <c r="EK2" t="n">
-        <v>-40.69064798047335</v>
+        <v>-98.52800325100895</v>
       </c>
       <c r="EL2" t="n">
-        <v>-41.85116395169601</v>
+        <v>-98.54509255252201</v>
       </c>
       <c r="EM2" t="n">
-        <v>-42.32761229230422</v>
+        <v>-98.5349846596515</v>
       </c>
       <c r="EN2" t="n">
-        <v>-42.79177797620881</v>
+        <v>-98.42726031504829</v>
       </c>
       <c r="EO2" t="n">
-        <v>-43.24399404391776</v>
+        <v>-98.81732916243207</v>
       </c>
       <c r="EP2" t="n">
-        <v>-43.68458149137972</v>
+        <v>-99.08917258736473</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-43.56227640842435</v>
+        <v>-98.87037691641646</v>
       </c>
       <c r="ER2" t="n">
-        <v>-43.4409663822864</v>
+        <v>-98.88134624900539</v>
       </c>
       <c r="ES2" t="n">
-        <v>-43.32062944297675</v>
+        <v>-99.3073437704994</v>
       </c>
       <c r="ET2" t="n">
-        <v>-43.20124441248821</v>
+        <v>-99.70087502387013</v>
       </c>
       <c r="EU2" t="n">
-        <v>-43.08279088230083</v>
+        <v>-100.0105643397384</v>
       </c>
       <c r="EV2" t="n">
-        <v>-42.91372914356698</v>
+        <v>-100.2620682285063</v>
       </c>
       <c r="EW2" t="n">
-        <v>-42.74663765180185</v>
+        <v>-100.3261432418821</v>
       </c>
       <c r="EX2" t="n">
-        <v>-42.58147178350038</v>
+        <v>-100.7540171332215</v>
       </c>
       <c r="EY2" t="n">
-        <v>-42.64403864031814</v>
+        <v>-101.0950666123694</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-42.70383632948275</v>
+        <v>-101.3586560867985</v>
       </c>
       <c r="FA2" t="n">
-        <v>-42.74088139676542</v>
+        <v>-101.54581622313</v>
       </c>
       <c r="FB2" t="n">
-        <v>-42.77569681496077</v>
+        <v>-100.7112984566934</v>
       </c>
       <c r="FC2" t="n">
-        <v>-42.80833826239692</v>
+        <v>-100.8580796045148</v>
       </c>
       <c r="FD2" t="n">
-        <v>-42.83885966949487</v>
+        <v>-100.6523118102838</v>
       </c>
       <c r="FE2" t="n">
-        <v>-42.86731329447749</v>
+        <v>-100.3839965927725</v>
       </c>
       <c r="FF2" t="n">
-        <v>-42.92494523293803</v>
+        <v>-100.0824658169248</v>
       </c>
       <c r="FG2" t="n">
-        <v>-42.98000641337495</v>
+        <v>-99.79115465223609</v>
       </c>
       <c r="FH2" t="n">
-        <v>-43.0325577571017</v>
+        <v>-99.40978807011156</v>
       </c>
       <c r="FI2" t="n">
-        <v>-43.22727956632336</v>
+        <v>-99.01108437736301</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-43.41687691527492</v>
+        <v>-98.62754017506688</v>
       </c>
       <c r="FK2" t="n">
-        <v>-43.60146351697953</v>
+        <v>-98.19201865604828</v>
       </c>
       <c r="FL2" t="n">
-        <v>-43.78114963036396</v>
+        <v>-97.60847087542523</v>
       </c>
       <c r="FM2" t="n">
-        <v>-43.79026306824372</v>
+        <v>-97.00510724251443</v>
       </c>
       <c r="FN2" t="n">
-        <v>-43.79772492355446</v>
+        <v>-96.38417654966955</v>
       </c>
       <c r="FO2" t="n">
-        <v>-43.80357428116649</v>
+        <v>-95.75313735255489</v>
       </c>
       <c r="FP2" t="n">
-        <v>-43.79707046580548</v>
+        <v>-94.96160475479726</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-43.78922253032424</v>
+        <v>-94.33946897713379</v>
       </c>
       <c r="FR2" t="n">
-        <v>-43.78006283043445</v>
+        <v>-93.73026599607803</v>
       </c>
       <c r="FS2" t="n">
-        <v>-43.76526655640954</v>
+        <v>-93.14866811763093</v>
       </c>
       <c r="FT2" t="n">
-        <v>-43.7492973413191</v>
+        <v>-92.61668651619519</v>
       </c>
       <c r="FU2" t="n">
-        <v>-43.73218384228369</v>
+        <v>-92.11665744094358</v>
       </c>
       <c r="FV2" t="n">
-        <v>-43.71395406956271</v>
+        <v>-91.65399654605116</v>
       </c>
       <c r="FW2" t="n">
-        <v>-43.69483465341107</v>
+        <v>-91.21839472071755</v>
       </c>
       <c r="FX2" t="n">
-        <v>-43.67330902722394</v>
+        <v>-90.80723837367991</v>
       </c>
       <c r="FY2" t="n">
-        <v>-43.65076692620487</v>
+        <v>-90.42465183624654</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-43.62723369527225</v>
+        <v>-90.05662832938351</v>
       </c>
       <c r="GA2" t="n">
-        <v>-43.60610412468337</v>
+        <v>-89.7125705393961</v>
       </c>
       <c r="GB2" t="n">
-        <v>-43.58397664464367</v>
+        <v>-89.38719254157448</v>
       </c>
       <c r="GC2" t="n">
-        <v>-43.56087607465815</v>
+        <v>-89.07401213272185</v>
       </c>
       <c r="GD2" t="n">
-        <v>-43.53682675667665</v>
+        <v>-88.77580200205979</v>
       </c>
       <c r="GE2" t="n">
-        <v>-43.51185257437887</v>
+        <v>-88.49548791432406</v>
       </c>
       <c r="GF2" t="n">
-        <v>-43.48597697150768</v>
+        <v>-88.24024757057295</v>
       </c>
       <c r="GG2" t="n">
-        <v>-43.45922296928938</v>
+        <v>-88.00089083350188</v>
       </c>
       <c r="GH2" t="n">
-        <v>-43.43161318297794</v>
+        <v>-87.37534698554929</v>
       </c>
       <c r="GI2" t="n">
-        <v>-43.40316983755875</v>
+        <v>-86.11532022806259</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-43.37391478264583</v>
+        <v>-84.43532381877995</v>
       </c>
       <c r="GK2" t="n">
-        <v>-43.34386950660524</v>
+        <v>-82.82059473132216</v>
       </c>
       <c r="GL2" t="n">
-        <v>-43.31305514993594</v>
+        <v>-78.66994031738032</v>
       </c>
       <c r="GM2" t="n">
-        <v>-43.2814925179383</v>
+        <v>-78.5834201784168</v>
       </c>
       <c r="GN2" t="n">
-        <v>-43.24920209269913</v>
+        <v>-76.54081974622274</v>
       </c>
       <c r="GO2" t="n">
-        <v>-43.21620404442119</v>
+        <v>-76.7708926236399</v>
       </c>
       <c r="GP2" t="n">
-        <v>-43.18251824212392</v>
+        <v>-77.08523391226385</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-43.14816426374121</v>
+        <v>-77.59277426663139</v>
       </c>
       <c r="GR2" t="n">
-        <v>-43.11316140564121</v>
+        <v>-78.31246420124032</v>
       </c>
       <c r="GS2" t="n">
-        <v>-43.07752869159211</v>
+        <v>-79.08526134354545</v>
       </c>
       <c r="GT2" t="n">
-        <v>-43.04128488119706</v>
+        <v>-79.28181972562679</v>
       </c>
       <c r="GU2" t="n">
-        <v>-43.00444847782071</v>
+        <v>-78.90288502304077</v>
       </c>
       <c r="GV2" t="n">
-        <v>-42.96703773602886</v>
+        <v>-79.37058505443321</v>
       </c>
       <c r="GW2" t="n">
-        <v>-42.9290706685622</v>
+        <v>-79.74776680589245</v>
       </c>
       <c r="GX2" t="n">
-        <v>-42.8905650528644</v>
+        <v>-80.05496231461638</v>
       </c>
       <c r="GY2" t="n">
-        <v>-42.8515384371839</v>
+        <v>-80.30292644569715</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-42.8120081462686</v>
+        <v>-80.60926526551307</v>
       </c>
       <c r="HA2" t="n">
-        <v>-42.77199128667151</v>
+        <v>-80.92031330248729</v>
       </c>
       <c r="HB2" t="n">
-        <v>-42.73150475168535</v>
+        <v>-81.21872738518985</v>
       </c>
       <c r="HC2" t="n">
-        <v>-42.69056522592307</v>
+        <v>-81.50880708897206</v>
       </c>
       <c r="HD2" t="n">
-        <v>-42.64918918956111</v>
+        <v>-81.69099564358164</v>
       </c>
       <c r="HE2" t="n">
-        <v>-42.60739292226152</v>
+        <v>-81.98591035429345</v>
       </c>
       <c r="HF2" t="n">
-        <v>-42.56519250678851</v>
+        <v>-82.27967818889149</v>
       </c>
       <c r="HG2" t="n">
-        <v>-42.52260383233473</v>
+        <v>-82.56737358918703</v>
       </c>
       <c r="HH2" t="n">
-        <v>-42.47964259757201</v>
+        <v>-82.85102360593733</v>
       </c>
       <c r="HI2" t="n">
-        <v>-42.43632431344068</v>
+        <v>-83.14174464062795</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-42.39266430569151</v>
+        <v>-83.31883756331231</v>
       </c>
       <c r="HK2" t="n">
-        <v>-42.34867771719361</v>
+        <v>-83.59386959711382</v>
       </c>
       <c r="HL2" t="n">
-        <v>-42.30437951002129</v>
+        <v>-83.86403193953296</v>
       </c>
       <c r="HM2" t="n">
-        <v>-42.2597844673326</v>
+        <v>-84.13952560155676</v>
       </c>
       <c r="HN2" t="n">
-        <v>-42.21490719505165</v>
+        <v>-84.40873441157952</v>
       </c>
       <c r="HO2" t="n">
-        <v>-42.16976212336673</v>
+        <v>-84.6783571303632</v>
       </c>
       <c r="HP2" t="n">
-        <v>-42.12436350805561</v>
+        <v>-84.97477283158651</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-42.0787254316492</v>
+        <v>-85.28759856435876</v>
       </c>
       <c r="HR2" t="n">
-        <v>-42.03286180444433</v>
+        <v>-85.62444982044562</v>
       </c>
       <c r="HS2" t="n">
-        <v>-41.98678636537615</v>
+        <v>-85.94679709454356</v>
       </c>
       <c r="HT2" t="n">
-        <v>-41.94051268276014</v>
+        <v>-86.30970213087481</v>
       </c>
       <c r="HU2" t="n">
-        <v>-41.8940541549135</v>
+        <v>-86.7639682521751</v>
       </c>
       <c r="HV2" t="n">
-        <v>-41.84742401066556</v>
+        <v>-87.2423973441943</v>
       </c>
       <c r="HW2" t="n">
-        <v>-41.80063530976591</v>
+        <v>-87.76861675553076</v>
       </c>
       <c r="HX2" t="n">
-        <v>-41.75370094319954</v>
+        <v>-88.31768767543598</v>
       </c>
       <c r="HY2" t="n">
-        <v>-41.70663363341702</v>
+        <v>-88.90175162815949</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-41.65944593448818</v>
+        <v>-89.48197389853489</v>
       </c>
       <c r="IA2" t="n">
-        <v>-41.61215023218707</v>
+        <v>-90.12483692056892</v>
       </c>
       <c r="IB2" t="n">
-        <v>-41.56475874401568</v>
+        <v>-90.7585955760441</v>
       </c>
       <c r="IC2" t="n">
-        <v>-41.51728351917392</v>
+        <v>-91.71265777084898</v>
       </c>
       <c r="ID2" t="n">
-        <v>-41.46973643848255</v>
+        <v>-92.73329495217955</v>
       </c>
       <c r="IE2" t="n">
-        <v>-41.42212921426606</v>
+        <v>-93.82704726525562</v>
       </c>
       <c r="IF2" t="n">
-        <v>-41.37447339020168</v>
+        <v>-94.71627966141983</v>
       </c>
       <c r="IG2" t="n">
-        <v>-41.32678034114077</v>
+        <v>-95.62663418361173</v>
       </c>
       <c r="IH2" t="n">
-        <v>-41.27906127290848</v>
+        <v>-96.57507974173156</v>
       </c>
       <c r="II2" t="n">
-        <v>-41.23132722208722</v>
+        <v>-97.46961988251543</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-41.18358905578928</v>
+        <v>-98.00525920113745</v>
       </c>
       <c r="IK2" t="n">
-        <v>-41.13585747142375</v>
+        <v>-98.63998952972165</v>
       </c>
       <c r="IL2" t="n">
-        <v>-41.08814299646244</v>
+        <v>-99.3089858418421</v>
       </c>
       <c r="IM2" t="n">
-        <v>-41.04045598820942</v>
+        <v>-99.97957439543352</v>
       </c>
       <c r="IN2" t="n">
-        <v>-40.99280663357864</v>
+        <v>-100.6575938045547</v>
       </c>
       <c r="IO2" t="n">
-        <v>-40.94520494888335</v>
+        <v>-100.7662589651087</v>
       </c>
       <c r="IP2" t="n">
-        <v>-40.89766077964163</v>
+        <v>-100.9199929376312</v>
       </c>
       <c r="IQ2" t="n">
-        <v>-40.85018380040122</v>
+        <v>-101.0987343655136</v>
       </c>
       <c r="IR2" t="n">
-        <v>-40.80278351458729</v>
+        <v>-101.307763266924</v>
       </c>
       <c r="IS2" t="n">
-        <v>-40.75546925437622</v>
+        <v>-101.6077732537607</v>
       </c>
       <c r="IT2" t="n">
-        <v>-40.70825018059828</v>
+        <v>-101.8873076122967</v>
       </c>
       <c r="IU2" t="n">
-        <v>-40.66113528267204</v>
+        <v>-101.8174885259907</v>
       </c>
       <c r="IV2" t="n">
-        <v>-40.61413337857299</v>
+        <v>-101.0391753330499</v>
       </c>
       <c r="IW2" t="n">
-        <v>-40.56725311483855</v>
+        <v>-99.84748962782298</v>
       </c>
       <c r="IX2" t="n">
-        <v>-40.52050296661189</v>
+        <v>-98.50613340886036</v>
       </c>
       <c r="IY2" t="n">
-        <v>-40.47389123772615</v>
+        <v>-97.43851795053648</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-40.42742606083102</v>
+        <v>-97.52918315866509</v>
       </c>
       <c r="JA2" t="n">
-        <v>-40.38111539756315</v>
+        <v>-97.61562287193674</v>
       </c>
       <c r="JB2" t="n">
-        <v>-40.33496703876182</v>
+        <v>-97.74737123791576</v>
       </c>
       <c r="JC2" t="n">
-        <v>-40.28898860473106</v>
+        <v>-98.03889058843173</v>
       </c>
       <c r="JD2" t="n">
-        <v>-40.24318754554917</v>
+        <v>-98.55017223990183</v>
       </c>
       <c r="JE2" t="n">
-        <v>-40.19757114142676</v>
+        <v>-99.11365085605337</v>
       </c>
       <c r="JF2" t="n">
-        <v>-40.15214650311384</v>
+        <v>-99.39367269291787</v>
       </c>
       <c r="JG2" t="n">
-        <v>-40.10692057235661</v>
+        <v>-99.74303659956175</v>
       </c>
       <c r="JH2" t="n">
-        <v>-40.06190012240442</v>
+        <v>-99.86424815254564</v>
       </c>
       <c r="JI2" t="n">
-        <v>-40.01709175856723</v>
+        <v>-99.98141656184434</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-39.97250191882367</v>
+        <v>-99.96736413283185</v>
       </c>
       <c r="JK2" t="n">
-        <v>-39.92813687447987</v>
+        <v>-98.34155422298221</v>
       </c>
       <c r="JL2" t="n">
-        <v>-39.88400273087884</v>
+        <v>-98.46180103756222</v>
       </c>
       <c r="JM2" t="n">
-        <v>-39.84010542816044</v>
+        <v>-98.55557753552017</v>
       </c>
       <c r="JN2" t="n">
-        <v>-39.79645074207144</v>
+        <v>-98.66962323414502</v>
       </c>
       <c r="JO2" t="n">
-        <v>-39.75304428482539</v>
+        <v>-98.73237404691727</v>
       </c>
       <c r="JP2" t="n">
-        <v>-39.70989150601189</v>
+        <v>-98.78911534523166</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-39.66699769355449</v>
+        <v>-98.8434342841845</v>
       </c>
       <c r="JR2" t="n">
-        <v>-39.62436797471673</v>
+        <v>-98.88488217357185</v>
       </c>
       <c r="JS2" t="n">
-        <v>-39.58200731715552</v>
+        <v>-98.95665890495289</v>
       </c>
       <c r="JT2" t="n">
-        <v>-39.53992053002099</v>
+        <v>-98.9582800120115</v>
       </c>
       <c r="JU2" t="n">
-        <v>-39.49811226510199</v>
+        <v>-98.83986292232595</v>
       </c>
       <c r="JV2" t="n">
-        <v>-39.45658701801636</v>
+        <v>-98.87389092254828</v>
       </c>
       <c r="JW2" t="n">
-        <v>-39.41534912944466</v>
+        <v>-98.91460108604313</v>
       </c>
       <c r="JX2" t="n">
-        <v>-39.37440278640664</v>
+        <v>-98.94265524690076</v>
       </c>
       <c r="JY2" t="n">
-        <v>-39.3337520235791</v>
+        <v>-98.97155453323465</v>
       </c>
       <c r="JZ2" t="n">
-        <v>-39.29340072465405</v>
+        <v>-99.00045372630348</v>
       </c>
       <c r="KA2" t="n">
-        <v>-39.25335262373593</v>
+        <v>-99.02182275645491</v>
       </c>
       <c r="KB2" t="n">
-        <v>-39.21361130677665</v>
+        <v>-99.06104217588786</v>
       </c>
       <c r="KC2" t="n">
-        <v>-39.17418021304713</v>
+        <v>-99.08391546435189</v>
       </c>
       <c r="KD2" t="n">
-        <v>-39.13506263664411</v>
+        <v>-99.11139012005643</v>
       </c>
       <c r="KE2" t="n">
-        <v>-39.0962617280307</v>
+        <v>-99.12145539096515</v>
       </c>
       <c r="KF2" t="n">
-        <v>-39.05778049560955</v>
+        <v>-99.12672786771921</v>
       </c>
       <c r="KG2" t="n">
-        <v>-39.01962180732699</v>
+        <v>-99.12676482069865</v>
       </c>
       <c r="KH2" t="n">
-        <v>-38.98178839230701</v>
+        <v>-99.12734353233803</v>
       </c>
       <c r="KI2" t="n">
-        <v>-38.94428284251337</v>
+        <v>-99.12707136385259</v>
       </c>
       <c r="KJ2" t="n">
-        <v>-38.90710761443869</v>
+        <v>-99.124610226621</v>
       </c>
       <c r="KK2" t="n">
-        <v>-38.87026503081881</v>
+        <v>-99.11823485255536</v>
       </c>
       <c r="KL2" t="n">
-        <v>-38.83375728237135</v>
+        <v>-99.10867435266141</v>
       </c>
       <c r="KM2" t="n">
-        <v>-38.79758642955658</v>
+        <v>-99.10242369923301</v>
       </c>
       <c r="KN2" t="n">
-        <v>-38.76175440435959</v>
+        <v>-99.08947334059852</v>
       </c>
       <c r="KO2" t="n">
-        <v>-38.72626301209203</v>
+        <v>-99.07656417173578</v>
       </c>
       <c r="KP2" t="n">
-        <v>-38.69111393321222</v>
+        <v>-99.06143707642006</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-38.65630872516198</v>
+        <v>-99.04450106444371</v>
       </c>
       <c r="KR2" t="n">
-        <v>-38.62184882421905</v>
+        <v>-99.02677856713271</v>
       </c>
       <c r="KS2" t="n">
-        <v>-38.58773554736347</v>
+        <v>-99.00993517929142</v>
       </c>
       <c r="KT2" t="n">
-        <v>-38.55397009415671</v>
+        <v>-98.99102961632398</v>
       </c>
       <c r="KU2" t="n">
-        <v>-38.52055354863217</v>
+        <v>-98.97381219010292</v>
       </c>
       <c r="KV2" t="n">
-        <v>-38.48748688119559</v>
+        <v>-98.94956254499199</v>
       </c>
       <c r="KW2" t="n">
-        <v>-38.45477095053424</v>
+        <v>-98.92864217606301</v>
       </c>
       <c r="KX2" t="n">
-        <v>-38.4224065055335</v>
+        <v>-98.91154360741322</v>
       </c>
       <c r="KY2" t="n">
-        <v>-38.39039418719953</v>
+        <v>-98.89187848593471</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-38.35873453058686</v>
+        <v>-98.87061957100538</v>
       </c>
       <c r="LA2" t="n">
-        <v>-38.32742796672966</v>
+        <v>-98.84583629212111</v>
       </c>
       <c r="LB2" t="n">
-        <v>-38.29647482457545</v>
+        <v>-98.82352246448016</v>
       </c>
       <c r="LC2" t="n">
-        <v>-38.26587533292017</v>
+        <v>-98.80465709585074</v>
       </c>
       <c r="LD2" t="n">
-        <v>-38.23562962234338</v>
+        <v>-98.78689886721573</v>
       </c>
       <c r="LE2" t="n">
-        <v>-38.20573772714258</v>
+        <v>-98.76615302741644</v>
       </c>
       <c r="LF2" t="n">
-        <v>-38.17619958726543</v>
+        <v>-98.74894918601315</v>
       </c>
       <c r="LG2" t="n">
-        <v>-38.14701505023906</v>
+        <v>-98.72921471246531</v>
       </c>
       <c r="LH2" t="n">
-        <v>-38.11818387309513</v>
+        <v>-98.71124202856406</v>
       </c>
       <c r="LI2" t="n">
-        <v>-38.08970572429</v>
+        <v>-98.69461101399601</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-38.06158018561872</v>
+        <v>-98.67596041401349</v>
       </c>
       <c r="LK2" t="n">
-        <v>-38.03380675412222</v>
+        <v>-98.65986454510536</v>
       </c>
       <c r="LL2" t="n">
-        <v>-38.00638484398658</v>
+        <v>-98.64068376039467</v>
       </c>
       <c r="LM2" t="n">
-        <v>-37.97931378843364</v>
+        <v>-98.62191721645097</v>
       </c>
       <c r="LN2" t="n">
-        <v>-37.95259284160205</v>
+        <v>-98.6000565005058</v>
       </c>
       <c r="LO2" t="n">
-        <v>-37.92622118041805</v>
+        <v>-98.57937817690527</v>
       </c>
       <c r="LP2" t="n">
-        <v>-37.90019790645512</v>
+        <v>-98.4417728972135</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-37.87452204778182</v>
+        <v>-98.43068602641662</v>
       </c>
       <c r="LR2" t="n">
-        <v>-37.84919256079711</v>
+        <v>-98.42217625250174</v>
       </c>
       <c r="LS2" t="n">
-        <v>-37.82420833205244</v>
+        <v>-98.411473331492</v>
       </c>
       <c r="LT2" t="n">
-        <v>-37.79956818006001</v>
+        <v>-98.40118564197803</v>
       </c>
       <c r="LU2" t="n">
-        <v>-37.77527085708659</v>
+        <v>-98.39136995721374</v>
       </c>
       <c r="LV2" t="n">
-        <v>-37.75131505093228</v>
+        <v>-98.38127656128569</v>
       </c>
       <c r="LW2" t="n">
-        <v>-37.72769938669366</v>
+        <v>-98.37275883540508</v>
       </c>
       <c r="LX2" t="n">
-        <v>-37.70442242851088</v>
+        <v>-98.36464825291461</v>
       </c>
       <c r="LY2" t="n">
-        <v>-37.68148268129802</v>
+        <v>-98.35916852431698</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-37.65887859245654</v>
+        <v>-98.35005970194462</v>
       </c>
       <c r="MA2" t="n">
-        <v>-37.63660855357101</v>
+        <v>-98.34198406685653</v>
       </c>
       <c r="MB2" t="n">
-        <v>-37.61467090208707</v>
+        <v>-98.33604391034176</v>
       </c>
       <c r="MC2" t="n">
-        <v>-37.59306392297098</v>
+        <v>-98.33095815852113</v>
       </c>
       <c r="MD2" t="n">
-        <v>-37.57178585035049</v>
+        <v>-98.32618633684598</v>
       </c>
       <c r="ME2" t="n">
-        <v>-37.55083486913671</v>
+        <v>-98.32283855130147</v>
       </c>
       <c r="MF2" t="n">
-        <v>-37.53020911662663</v>
+        <v>-98.31639220053978</v>
       </c>
       <c r="MG2" t="n">
-        <v>-37.50990668408606</v>
+        <v>-98.3114332247258</v>
       </c>
       <c r="MH2" t="n">
-        <v>-37.48992561831263</v>
+        <v>-98.30602188111064</v>
       </c>
       <c r="MI2" t="n">
-        <v>-37.47026392317868</v>
+        <v>-98.3064313281165</v>
       </c>
       <c r="MJ2" t="n">
-        <v>-37.45091956115388</v>
+        <v>-98.30112146475221</v>
       </c>
       <c r="MK2" t="n">
-        <v>-37.43189045480719</v>
+        <v>-98.29313905564739</v>
       </c>
       <c r="ML2" t="n">
-        <v>-37.41317448828817</v>
+        <v>-98.28807242347756</v>
       </c>
       <c r="MM2" t="n">
-        <v>-37.39476950878745</v>
+        <v>-98.28607394550717</v>
       </c>
       <c r="MN2" t="n">
-        <v>-37.37667332797613</v>
+        <v>-98.27974027486759</v>
       </c>
       <c r="MO2" t="n">
-        <v>-37.35888372342403</v>
+        <v>-98.27609404401215</v>
       </c>
       <c r="MP2" t="n">
-        <v>-37.34139843999684</v>
+        <v>-98.27272204096364</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-37.32421519123181</v>
+        <v>-98.15203140932755</v>
       </c>
       <c r="MR2" t="n">
-        <v>-37.30733166069218</v>
+        <v>-98.15467412896386</v>
       </c>
       <c r="MS2" t="n">
-        <v>-37.29074550330012</v>
+        <v>-98.15447440220929</v>
       </c>
       <c r="MT2" t="n">
-        <v>-37.27445434664827</v>
+        <v>-98.15869863344966</v>
       </c>
       <c r="MU2" t="n">
-        <v>-37.25845579228974</v>
+        <v>-98.16079788565271</v>
       </c>
       <c r="MV2" t="n">
-        <v>-37.24274741700671</v>
+        <v>-98.16306726786468</v>
       </c>
       <c r="MW2" t="n">
-        <v>-37.22732677405753</v>
+        <v>-98.16472045406186</v>
       </c>
       <c r="MX2" t="n">
-        <v>-37.21219139440241</v>
+        <v>-98.16730472579135</v>
       </c>
       <c r="MY2" t="n">
-        <v>-37.19733878790765</v>
+        <v>-98.17000687927604</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-37.18276644452862</v>
+        <v>-98.17504246355331</v>
       </c>
       <c r="NA2" t="n">
-        <v>-37.16847183547133</v>
+        <v>-98.17785105732639</v>
       </c>
       <c r="NB2" t="n">
-        <v>-37.15445241433289</v>
+        <v>-98.18141621790112</v>
       </c>
       <c r="NC2" t="n">
-        <v>-37.14070561822083</v>
+        <v>-98.18545335957366</v>
       </c>
       <c r="ND2" t="n">
-        <v>-37.12722886885127</v>
+        <v>-98.18699400202067</v>
       </c>
       <c r="NE2" t="n">
-        <v>-37.11401957362632</v>
+        <v>-98.18700727523692</v>
       </c>
       <c r="NF2" t="n">
-        <v>-37.10107512669053</v>
+        <v>-98.19491865268498</v>
       </c>
       <c r="NG2" t="n">
-        <v>-37.08839290996671</v>
+        <v>-98.1979080309096</v>
       </c>
       <c r="NH2" t="n">
-        <v>-37.07597029417114</v>
+        <v>-98.20090429594666</v>
       </c>
       <c r="NI2" t="n">
-        <v>-37.06380463980837</v>
+        <v>-98.20089965399045</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-37.0518932981457</v>
+        <v>-98.20511633421545</v>
       </c>
       <c r="NK2" t="n">
-        <v>-37.04023361216758</v>
+        <v>-98.20815430945149</v>
       </c>
       <c r="NL2" t="n">
-        <v>-37.02882291750996</v>
+        <v>-98.21588581411689</v>
       </c>
       <c r="NM2" t="n">
-        <v>-37.01765854337486</v>
+        <v>-98.21869373574113</v>
       </c>
       <c r="NN2" t="n">
-        <v>-37.00673781342527</v>
+        <v>-98.22146595065443</v>
       </c>
       <c r="NO2" t="n">
-        <v>-36.99605804666061</v>
+        <v>-98.22188134373319</v>
       </c>
       <c r="NP2" t="n">
-        <v>-36.98561655827284</v>
+        <v>-98.22533730839564</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-36.97541066048353</v>
+        <v>-98.22803567385024</v>
       </c>
       <c r="NR2" t="n">
-        <v>-36.96543766336195</v>
+        <v>-98.22768191982371</v>
       </c>
       <c r="NS2" t="n">
-        <v>-36.95569487562442</v>
+        <v>-98.23038300518647</v>
       </c>
       <c r="NT2" t="n">
-        <v>-36.94617960541519</v>
+        <v>-98.23002549386899</v>
       </c>
       <c r="NU2" t="n">
-        <v>-36.93688916106893</v>
+        <v>-98.23271681999945</v>
       </c>
       <c r="NV2" t="n">
-        <v>-36.92782085185507</v>
+        <v>-98.23534328537245</v>
       </c>
       <c r="NW2" t="n">
-        <v>-36.91897198870431</v>
+        <v>-98.23602312159817</v>
       </c>
       <c r="NX2" t="n">
-        <v>-36.91033988491721</v>
+        <v>-98.23926610622013</v>
       </c>
       <c r="NY2" t="n">
-        <v>-36.90192185685553</v>
+        <v>-98.23873023172507</v>
       </c>
       <c r="NZ2" t="n">
-        <v>-36.893715224616</v>
+        <v>-98.24082593964785</v>
       </c>
       <c r="OA2" t="n">
-        <v>-36.88571731268718</v>
+        <v>-98.24326947691269</v>
       </c>
       <c r="OB2" t="n">
-        <v>-36.8779254505894</v>
+        <v>-98.24486584775067</v>
       </c>
       <c r="OC2" t="n">
-        <v>-36.87033697349796</v>
+        <v>-98.24487032667075</v>
       </c>
       <c r="OD2" t="n">
-        <v>-36.86294922284999</v>
+        <v>-98.24578803806685</v>
       </c>
       <c r="OE2" t="n">
-        <v>-36.85575954693501</v>
+        <v>-98.2458199352527</v>
       </c>
       <c r="OF2" t="n">
-        <v>-36.84876530146951</v>
+        <v>-98.24674794422302</v>
       </c>
       <c r="OG2" t="n">
-        <v>-36.84196385015571</v>
+        <v>-98.25126320030273</v>
       </c>
       <c r="OH2" t="n">
-        <v>-36.83535256522482</v>
+        <v>-98.25106859650705</v>
       </c>
       <c r="OI2" t="n">
-        <v>-36.82892882796479</v>
+        <v>-98.2538802652586</v>
       </c>
       <c r="OJ2" t="n">
-        <v>-36.82269002923312</v>
+        <v>-98.25326620649659</v>
       </c>
       <c r="OK2" t="n">
-        <v>-36.81663356995453</v>
+        <v>-98.25092682114231</v>
       </c>
       <c r="OL2" t="n">
-        <v>-36.81075686160418</v>
+        <v>-98.13125998249798</v>
       </c>
       <c r="OM2" t="n">
-        <v>-36.80505732667616</v>
+        <v>-98.1389638754525</v>
       </c>
       <c r="ON2" t="n">
-        <v>-36.79953239913787</v>
+        <v>-98.14541564137659</v>
       </c>
       <c r="OO2" t="n">
-        <v>-36.79417952487029</v>
+        <v>-98.15176609841555</v>
       </c>
       <c r="OP2" t="n">
-        <v>-36.78899616209447</v>
+        <v>-98.15800552784762</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-36.78397978178428</v>
+        <v>-98.16112592541535</v>
       </c>
       <c r="OR2" t="n">
-        <v>-36.77912786806589</v>
+        <v>-98.04673622342884</v>
       </c>
       <c r="OS2" t="n">
-        <v>-36.77443791860399</v>
+        <v>-98.05419282333359</v>
       </c>
       <c r="OT2" t="n">
-        <v>-36.769907444975</v>
+        <v>-98.06460759659983</v>
       </c>
       <c r="OU2" t="n">
-        <v>-36.76553397302759</v>
+        <v>-98.07553570737616</v>
       </c>
       <c r="OV2" t="n">
-        <v>-36.76131504323055</v>
+        <v>-98.08877655056462</v>
       </c>
       <c r="OW2" t="n">
-        <v>-36.75724821100839</v>
+        <v>-98.10164919023674</v>
       </c>
       <c r="OX2" t="n">
-        <v>-36.75333104706468</v>
+        <v>-97.99465972380411</v>
       </c>
       <c r="OY2" t="n">
-        <v>-36.74956113769357</v>
+        <v>-97.9884313458144</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-36.74593608507949</v>
+        <v>-97.98225898058512</v>
       </c>
       <c r="PA2" t="n">
-        <v>-36.74245350758533</v>
+        <v>-97.97008668909578</v>
       </c>
       <c r="PB2" t="n">
-        <v>-36.73911104002929</v>
+        <v>-97.95915443874334</v>
       </c>
       <c r="PC2" t="n">
-        <v>-36.73590633395059</v>
+        <v>-97.95589544437232</v>
       </c>
       <c r="PD2" t="n">
-        <v>-36.73283705786419</v>
+        <v>-97.93691156229518</v>
       </c>
       <c r="PE2" t="n">
-        <v>-36.72990089750485</v>
+        <v>-97.91152754272832</v>
       </c>
       <c r="PF2" t="n">
-        <v>-36.72709555606055</v>
+        <v>-97.87718123541265</v>
       </c>
       <c r="PG2" t="n">
-        <v>-36.72441875439559</v>
+        <v>-97.84128278940308</v>
       </c>
       <c r="PH2" t="n">
-        <v>-36.72186823126353</v>
+        <v>-97.77459806220317</v>
       </c>
       <c r="PI2" t="n">
-        <v>-36.71944174351005</v>
+        <v>-97.70994838181905</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-36.71713706626614</v>
+        <v>-97.64828728878899</v>
       </c>
       <c r="PK2" t="n">
-        <v>-36.7149519931316</v>
+        <v>-97.58670056352778</v>
       </c>
       <c r="PL2" t="n">
-        <v>-36.71288433634906</v>
+        <v>-97.51406477091945</v>
       </c>
       <c r="PM2" t="n">
-        <v>-36.71093192696887</v>
+        <v>-97.45797360061961</v>
       </c>
       <c r="PN2" t="n">
-        <v>-36.70909261500478</v>
+        <v>-97.40730045076472</v>
       </c>
       <c r="PO2" t="n">
-        <v>-36.70736426958081</v>
+        <v>-97.04736013379645</v>
       </c>
       <c r="PP2" t="n">
-        <v>-36.70574477906936</v>
+        <v>-97.35672487275357</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-36.70423205122075</v>
+        <v>-97.58697672613366</v>
       </c>
       <c r="PR2" t="n">
-        <v>-36.70282401328442</v>
+        <v>-97.80804194513269</v>
       </c>
       <c r="PS2" t="n">
-        <v>-36.70151861212186</v>
+        <v>-97.94209587932723</v>
       </c>
       <c r="PT2" t="n">
-        <v>-36.70031381431155</v>
+        <v>-97.99968773806545</v>
       </c>
       <c r="PU2" t="n">
-        <v>-36.69920760624594</v>
+        <v>-98.03734971552629</v>
       </c>
       <c r="PV2" t="n">
-        <v>-36.69819799422082</v>
+        <v>-98.01640040196529</v>
       </c>
       <c r="PW2" t="n">
-        <v>-36.69728300451699</v>
+        <v>-97.96581346775542</v>
       </c>
       <c r="PX2" t="n">
-        <v>-36.69646068347465</v>
+        <v>-98.40566934987243</v>
       </c>
       <c r="PY2" t="n">
-        <v>-36.69572909756047</v>
+        <v>-98.79314543491527</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-36.6950863334276</v>
+        <v>-99.06031187977761</v>
       </c>
       <c r="QA2" t="n">
-        <v>-36.69453049796876</v>
+        <v>-99.26265338256738</v>
       </c>
       <c r="QB2" t="n">
-        <v>-36.69405971836247</v>
+        <v>-99.78423438121359</v>
       </c>
       <c r="QC2" t="n">
-        <v>-36.69367214211274</v>
+        <v>-100.2009391823757</v>
       </c>
       <c r="QD2" t="n">
-        <v>-36.69336593708218</v>
+        <v>-100.492457031151</v>
       </c>
       <c r="QE2" t="n">
-        <v>-36.69313929151886</v>
+        <v>-100.7493611972575</v>
       </c>
       <c r="QF2" t="n">
-        <v>-36.69299041407685</v>
+        <v>-100.7244681086521</v>
       </c>
       <c r="QG2" t="n">
-        <v>-36.69291753383084</v>
+        <v>-101.0625703628612</v>
       </c>
       <c r="QH2" t="n">
-        <v>-36.6929189002847</v>
+        <v>-101.2881313696339</v>
       </c>
       <c r="QI2" t="n">
-        <v>-36.69299278337435</v>
+        <v>-101.4025448036848</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-36.693137473465</v>
+        <v>-101.1591619957793</v>
       </c>
       <c r="QK2" t="n">
-        <v>-36.69335128134277</v>
+        <v>-100.8608771514321</v>
       </c>
       <c r="QL2" t="n">
-        <v>-36.69363253820103</v>
+        <v>-100.5103769880079</v>
       </c>
       <c r="QM2" t="n">
-        <v>-36.69397959562147</v>
+        <v>-99.88048463053001</v>
       </c>
       <c r="QN2" t="n">
-        <v>-36.69439082555002</v>
+        <v>-99.22200308374597</v>
       </c>
       <c r="QO2" t="n">
-        <v>-36.69486462026781</v>
+        <v>-98.02935985449666</v>
       </c>
       <c r="QP2" t="n">
-        <v>-36.69539939235725</v>
+        <v>-97.26918670079607</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-36.69599357466338</v>
+        <v>-96.47468707949412</v>
       </c>
       <c r="QR2" t="n">
-        <v>-36.69664562025054</v>
+        <v>-95.45923631430361</v>
       </c>
       <c r="QS2" t="n">
-        <v>-36.69735400235466</v>
+        <v>-94.08591915672835</v>
       </c>
       <c r="QT2" t="n">
-        <v>-36.69811721433106</v>
+        <v>-93.07586715444197</v>
       </c>
       <c r="QU2" t="n">
-        <v>-36.69893376959797</v>
+        <v>-92.04437888397382</v>
       </c>
       <c r="QV2" t="n">
-        <v>-36.69980220157604</v>
+        <v>-91.00089544403549</v>
       </c>
       <c r="QW2" t="n">
-        <v>-36.70072106362365</v>
+        <v>-89.69737700301278</v>
       </c>
       <c r="QX2" t="n">
-        <v>-36.70168892896841</v>
+        <v>-88.41333470084642</v>
       </c>
       <c r="QY2" t="n">
-        <v>-36.70270439063476</v>
+        <v>-87.10374366047729</v>
       </c>
       <c r="QZ2" t="n">
-        <v>-36.70376606136794</v>
+        <v>-85.50690862188827</v>
       </c>
       <c r="RA2" t="n">
-        <v>-36.7048725735543</v>
+        <v>-84.27814264822058</v>
       </c>
       <c r="RB2" t="n">
-        <v>-36.70602257913819</v>
+        <v>-83.10171339852141</v>
       </c>
       <c r="RC2" t="n">
-        <v>-36.70721474953536</v>
+        <v>-81.97134325104243</v>
       </c>
       <c r="RD2" t="n">
-        <v>-36.70844777554315</v>
+        <v>-80.89406029444123</v>
       </c>
       <c r="RE2" t="n">
-        <v>-36.70972036724746</v>
+        <v>-79.88683177293294</v>
       </c>
       <c r="RF2" t="n">
-        <v>-36.71103125392666</v>
+        <v>-78.9549408371344</v>
       </c>
       <c r="RG2" t="n">
-        <v>-36.71237918395248</v>
+        <v>-78.05397554350741</v>
       </c>
       <c r="RH2" t="n">
-        <v>-36.71376292468801</v>
+        <v>-77.19887736908851</v>
       </c>
       <c r="RI2" t="n">
-        <v>-36.71518126238291</v>
+        <v>-76.39756543034693</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-36.71663300206597</v>
+        <v>-75.67004527513755</v>
       </c>
       <c r="RK2" t="n">
-        <v>-36.7181169674349</v>
+        <v>-74.99384378713181</v>
       </c>
       <c r="RL2" t="n">
-        <v>-36.71963200074379</v>
+        <v>-74.36259506370888</v>
       </c>
       <c r="RM2" t="n">
-        <v>-36.72117696268799</v>
+        <v>-73.77657655790155</v>
       </c>
       <c r="RN2" t="n">
-        <v>-36.72275073228671</v>
+        <v>-73.23306244031494</v>
       </c>
       <c r="RO2" t="n">
-        <v>-36.72435220676335</v>
+        <v>-72.72622455536042</v>
       </c>
       <c r="RP2" t="n">
-        <v>-36.72598030142365</v>
+        <v>-72.27083082845961</v>
       </c>
       <c r="RQ2" t="n">
-        <v>-36.72763394953174</v>
+        <v>-71.86168817206941</v>
       </c>
       <c r="RR2" t="n">
-        <v>-36.72931210218417</v>
+        <v>-71.48904761149107</v>
       </c>
       <c r="RS2" t="n">
-        <v>-36.73101372818206</v>
+        <v>-71.14888313441544</v>
       </c>
       <c r="RT2" t="n">
-        <v>-36.73273781390131</v>
+        <v>-70.39023010150682</v>
       </c>
       <c r="RU2" t="n">
-        <v>-36.73448336316113</v>
+        <v>-68.94211645296659</v>
       </c>
       <c r="RV2" t="n">
-        <v>-36.73624939709083</v>
+        <v>-66.23119929294181</v>
       </c>
       <c r="RW2" t="n">
-        <v>-36.73803495399494</v>
+        <v>-62.63861115646869</v>
       </c>
       <c r="RX2" t="n">
-        <v>-36.73983908921689</v>
+        <v>-59.84214571872922</v>
       </c>
       <c r="RY2" t="n">
-        <v>-36.74166087500112</v>
+        <v>-55.29347574959673</v>
       </c>
       <c r="RZ2" t="n">
-        <v>-36.74349940035382</v>
+        <v>-55.17653917138328</v>
       </c>
       <c r="SA2" t="n">
-        <v>-36.74535377090234</v>
+        <v>-53.20923561579292</v>
       </c>
       <c r="SB2" t="n">
-        <v>-36.74722310875333</v>
+        <v>-53.33971946996878</v>
       </c>
       <c r="SC2" t="n">
-        <v>-36.74910655234968</v>
+        <v>-53.58411917175079</v>
       </c>
       <c r="SD2" t="n">
-        <v>-36.75100325632632</v>
+        <v>-53.81602874027856</v>
       </c>
       <c r="SE2" t="n">
-        <v>-36.75291239136497</v>
+        <v>-54.22935208016427</v>
       </c>
       <c r="SF2" t="n">
-        <v>-36.75483314404786</v>
+        <v>-54.84951011057665</v>
       </c>
       <c r="SG2" t="n">
-        <v>-36.75676471671058</v>
+        <v>-55.01722464363036</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>-53.6861441494654</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>-54.26448280267241</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>-54.78899656613811</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>-55.22842536690277</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>-55.67451187717968</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>-56.44343561469865</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>-57.15647923267272</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>-57.80328825130651</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>-58.18413184403299</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>-58.93021547477988</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>-59.65529365082084</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>-60.35983814046337</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>-61.05280265308061</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>-61.7317475458813</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>-62.33561341082637</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>-62.98155338859832</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>-63.61194388424131</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>-64.22119226976187</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>-64.81145672764409</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>-65.39148366150749</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>-65.94571163453035</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>-66.47906666595902</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>-66.99809027781774</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>-67.50015163310852</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>-67.9790078638316</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>-68.44024525408652</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>-68.87829025608119</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>-69.30052472040839</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>-69.70755504128911</v>
+      </c>
+      <c r="TK2" t="n">
+        <v>-70.09574488587278</v>
+      </c>
+      <c r="TL2" t="n">
+        <v>-70.46280490931098</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>-70.81233672398162</v>
+      </c>
+      <c r="TN2" t="n">
+        <v>-71.14692571389956</v>
+      </c>
+      <c r="TO2" t="n">
+        <v>-71.4623101886106</v>
+      </c>
+      <c r="TP2" t="n">
+        <v>-71.76375175122249</v>
+      </c>
+      <c r="TQ2" t="n">
+        <v>-72.04506468512071</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>-72.31008585822772</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>-72.55988872656958</v>
+      </c>
+      <c r="TT2" t="n">
+        <v>-72.79732081442222</v>
+      </c>
+      <c r="TU2" t="n">
+        <v>-73.02305534792841</v>
+      </c>
+      <c r="TV2" t="n">
+        <v>-73.23377823951496</v>
+      </c>
+      <c r="TW2" t="n">
+        <v>-73.37227831000502</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>-73.5570774151798</v>
+      </c>
+      <c r="TY2" t="n">
+        <v>-73.73077546790994</v>
+      </c>
+      <c r="TZ2" t="n">
+        <v>-73.89579982866853</v>
+      </c>
+      <c r="UA2" t="n">
+        <v>-74.04338435629667</v>
+      </c>
+      <c r="UB2" t="n">
+        <v>-74.18511230629554</v>
+      </c>
+      <c r="UC2" t="n">
+        <v>-74.31574065930455</v>
+      </c>
+      <c r="UD2" t="n">
+        <v>-74.43573949278381</v>
+      </c>
+      <c r="UE2" t="n">
+        <v>-74.54397105843485</v>
+      </c>
+      <c r="UF2" t="n">
+        <v>-74.63718408465905</v>
+      </c>
+      <c r="UG2" t="n">
+        <v>-74.72465087326241</v>
+      </c>
+      <c r="UH2" t="n">
+        <v>-74.80335983358715</v>
+      </c>
+      <c r="UI2" t="n">
+        <v>-74.87158939932979</v>
+      </c>
+      <c r="UJ2" t="n">
+        <v>-74.93709106167042</v>
+      </c>
+      <c r="UK2" t="n">
+        <v>-74.99641099065967</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>-75.04714804078807</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>-75.08786704989348</v>
+      </c>
+      <c r="UN2" t="n">
+        <v>-75.1222137022432</v>
+      </c>
+      <c r="UO2" t="n">
+        <v>-75.1466270950103</v>
+      </c>
+      <c r="UP2" t="n">
+        <v>-75.16946231979411</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>-75.1906088906437</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>-75.20601236419375</v>
+      </c>
+      <c r="US2" t="n">
+        <v>-75.2143115833283</v>
+      </c>
+      <c r="UT2" t="n">
+        <v>-75.22059721902207</v>
+      </c>
+      <c r="UU2" t="n">
+        <v>-75.22398871018081</v>
+      </c>
+      <c r="UV2" t="n">
+        <v>-75.22482717803715</v>
+      </c>
+      <c r="UW2" t="n">
+        <v>-75.22041715223359</v>
+      </c>
+      <c r="UX2" t="n">
+        <v>-75.2155732710138</v>
+      </c>
+      <c r="UY2" t="n">
+        <v>-75.20362881251296</v>
+      </c>
+      <c r="UZ2" t="n">
+        <v>-75.19266124118258</v>
+      </c>
+      <c r="VA2" t="n">
+        <v>-75.17669692898028</v>
+      </c>
+      <c r="VB2" t="n">
+        <v>-75.15690100315736</v>
+      </c>
+      <c r="VC2" t="n">
+        <v>-75.13564164626568</v>
+      </c>
+      <c r="VD2" t="n">
+        <v>-75.1149845680974</v>
+      </c>
+      <c r="VE2" t="n">
+        <v>-75.09242597583713</v>
+      </c>
+      <c r="VF2" t="n">
+        <v>-75.06600086699493</v>
+      </c>
+      <c r="VG2" t="n">
+        <v>-75.03822549489556</v>
+      </c>
+      <c r="VH2" t="n">
+        <v>-75.00548224788832</v>
+      </c>
+      <c r="VI2" t="n">
+        <v>-74.97565221510345</v>
+      </c>
+      <c r="VJ2" t="n">
+        <v>-74.94415065006943</v>
+      </c>
+      <c r="VK2" t="n">
+        <v>-74.8382326997333</v>
+      </c>
+      <c r="VL2" t="n">
+        <v>-74.80886911111406</v>
+      </c>
+      <c r="VM2" t="n">
+        <v>-74.77785346227391</v>
+      </c>
+      <c r="VN2" t="n">
+        <v>-74.75088468820375</v>
+      </c>
+      <c r="VO2" t="n">
+        <v>-74.72598212520651</v>
+      </c>
+      <c r="VP2" t="n">
+        <v>-74.69694234649707</v>
+      </c>
+      <c r="VQ2" t="n">
+        <v>-74.66523922861073</v>
+      </c>
+      <c r="VR2" t="n">
+        <v>-74.5584723742285</v>
+      </c>
+      <c r="VS2" t="n">
+        <v>-74.53232852658098</v>
+      </c>
+      <c r="VT2" t="n">
+        <v>-74.50630260459086</v>
+      </c>
+      <c r="VU2" t="n">
+        <v>-74.47803275234135</v>
+      </c>
+      <c r="VV2" t="n">
+        <v>-74.3763618175247</v>
+      </c>
+      <c r="VW2" t="n">
+        <v>-74.353962989979</v>
+      </c>
+      <c r="VX2" t="n">
+        <v>-74.32721455366195</v>
+      </c>
+      <c r="VY2" t="n">
+        <v>-74.3088306661973</v>
+      </c>
+      <c r="VZ2" t="n">
+        <v>-73.93222328200467</v>
+      </c>
+      <c r="WA2" t="n">
+        <v>-73.92461700453015</v>
+      </c>
+      <c r="WB2" t="n">
+        <v>-73.91742359300991</v>
+      </c>
+      <c r="WC2" t="n">
+        <v>-73.90820960950734</v>
+      </c>
+      <c r="WD2" t="n">
+        <v>-73.90251358617887</v>
+      </c>
+      <c r="WE2" t="n">
+        <v>-73.89419390660856</v>
+      </c>
+      <c r="WF2" t="n">
+        <v>-73.88688978118405</v>
+      </c>
+      <c r="WG2" t="n">
+        <v>-73.87641605545122</v>
+      </c>
+      <c r="WH2" t="n">
+        <v>-73.8718931138832</v>
+      </c>
+      <c r="WI2" t="n">
+        <v>-73.86527965017197</v>
+      </c>
+      <c r="WJ2" t="n">
+        <v>-73.86149929413558</v>
+      </c>
+      <c r="WK2" t="n">
+        <v>-73.8550446167734</v>
+      </c>
+      <c r="WL2" t="n">
+        <v>-73.85270609061757</v>
+      </c>
+      <c r="WM2" t="n">
+        <v>-73.84448779144185</v>
+      </c>
+      <c r="WN2" t="n">
+        <v>-73.76277617658266</v>
+      </c>
+      <c r="WO2" t="n">
+        <v>-73.76364311828193</v>
+      </c>
+      <c r="WP2" t="n">
+        <v>-73.76232212306451</v>
+      </c>
+      <c r="WQ2" t="n">
+        <v>-73.7613066176707</v>
+      </c>
+      <c r="WR2" t="n">
+        <v>-73.76300041503413</v>
+      </c>
+      <c r="WS2" t="n">
+        <v>-73.76487164542256</v>
+      </c>
+      <c r="WT2" t="n">
+        <v>-73.76751552443585</v>
+      </c>
+      <c r="WU2" t="n">
+        <v>-73.69644582382084</v>
+      </c>
+      <c r="WV2" t="n">
+        <v>-73.69902689023807</v>
+      </c>
+      <c r="WW2" t="n">
+        <v>-73.70180258292527</v>
+      </c>
+      <c r="WX2" t="n">
+        <v>-73.71164866566535</v>
+      </c>
+      <c r="WY2" t="n">
+        <v>-73.70981774202035</v>
+      </c>
+      <c r="WZ2" t="n">
+        <v>-73.71539414564253</v>
+      </c>
+      <c r="XA2" t="n">
+        <v>-73.720996529763</v>
+      </c>
+      <c r="XB2" t="n">
+        <v>-73.72660803550532</v>
+      </c>
+      <c r="XC2" t="n">
+        <v>-73.65841625756815</v>
+      </c>
+      <c r="XD2" t="n">
+        <v>-73.66674805713318</v>
+      </c>
+      <c r="XE2" t="n">
+        <v>-73.67718137283408</v>
+      </c>
+      <c r="XF2" t="n">
+        <v>-73.68871690184734</v>
+      </c>
+      <c r="XG2" t="n">
+        <v>-73.69254418091522</v>
+      </c>
+      <c r="XH2" t="n">
+        <v>-73.70054840389936</v>
+      </c>
+      <c r="XI2" t="n">
+        <v>-73.71013557447354</v>
+      </c>
+      <c r="XJ2" t="n">
+        <v>-73.71542312711203</v>
+      </c>
+      <c r="XK2" t="n">
+        <v>-73.72635424278221</v>
+      </c>
+      <c r="XL2" t="n">
+        <v>-73.73206030724808</v>
+      </c>
+      <c r="XM2" t="n">
+        <v>-73.6638152934143</v>
+      </c>
+      <c r="XN2" t="n">
+        <v>-73.67377558184296</v>
+      </c>
+      <c r="XO2" t="n">
+        <v>-73.68355837153194</v>
+      </c>
+      <c r="XP2" t="n">
+        <v>-73.69484183753177</v>
+      </c>
+      <c r="XQ2" t="n">
+        <v>-73.70247323957136</v>
+      </c>
+      <c r="XR2" t="n">
+        <v>-73.70995446510072</v>
+      </c>
+      <c r="XS2" t="n">
+        <v>-73.71791258587612</v>
+      </c>
+      <c r="XT2" t="n">
+        <v>-73.72833718733628</v>
+      </c>
+      <c r="XU2" t="n">
+        <v>-73.73686506625334</v>
+      </c>
+      <c r="XV2" t="n">
+        <v>-73.7434549062626</v>
+      </c>
+      <c r="XW2" t="n">
+        <v>-73.75494046989344</v>
+      </c>
+      <c r="XX2" t="n">
+        <v>-73.76266176291857</v>
+      </c>
+      <c r="XY2" t="n">
+        <v>-73.77012849108166</v>
+      </c>
+      <c r="XZ2" t="n">
+        <v>-73.77322133933184</v>
+      </c>
+      <c r="YA2" t="n">
+        <v>-73.78032797390824</v>
+      </c>
+      <c r="YB2" t="n">
+        <v>-73.71338017877643</v>
+      </c>
+      <c r="YC2" t="n">
+        <v>-73.72271952371327</v>
+      </c>
+      <c r="YD2" t="n">
+        <v>-73.73179498487472</v>
+      </c>
+      <c r="YE2" t="n">
+        <v>-73.7406012273557</v>
+      </c>
+      <c r="YF2" t="n">
+        <v>-73.67533728704163</v>
+      </c>
+      <c r="YG2" t="n">
+        <v>-73.68949397320029</v>
+      </c>
+      <c r="YH2" t="n">
+        <v>-73.70166414379727</v>
+      </c>
+      <c r="YI2" t="n">
+        <v>-73.71351182303579</v>
+      </c>
+      <c r="YJ2" t="n">
+        <v>-73.65112803764096</v>
+      </c>
+      <c r="YK2" t="n">
+        <v>-73.66421098949614</v>
+      </c>
+      <c r="YL2" t="n">
+        <v>-73.68013773637948</v>
+      </c>
+      <c r="YM2" t="n">
+        <v>-73.68747444843567</v>
+      </c>
+      <c r="YN2" t="n">
+        <v>-73.70750074871866</v>
+      </c>
+      <c r="YO2" t="n">
+        <v>-73.36900970551885</v>
+      </c>
+      <c r="YP2" t="n">
+        <v>-73.39154525248108</v>
+      </c>
+      <c r="YQ2" t="n">
+        <v>-73.41784578355485</v>
+      </c>
+      <c r="YR2" t="n">
+        <v>-73.44191173878362</v>
+      </c>
+      <c r="YS2" t="n">
+        <v>-73.4676168624196</v>
+      </c>
+      <c r="YT2" t="n">
+        <v>-73.4888705588703</v>
+      </c>
+      <c r="YU2" t="n">
+        <v>-73.51177373050675</v>
+      </c>
+      <c r="YV2" t="n">
+        <v>-73.53024540206928</v>
+      </c>
+      <c r="YW2" t="n">
+        <v>-73.55208706995253</v>
+      </c>
+      <c r="YX2" t="n">
+        <v>-73.57116017144504</v>
+      </c>
+      <c r="YY2" t="n">
+        <v>-73.59294005756664</v>
+      </c>
+      <c r="YZ2" t="n">
+        <v>-73.60907275546266</v>
+      </c>
+      <c r="ZA2" t="n">
+        <v>-73.62977542308198</v>
+      </c>
+      <c r="ZB2" t="n">
+        <v>-73.57586413866541</v>
+      </c>
+      <c r="ZC2" t="n">
+        <v>-73.59680896891099</v>
+      </c>
+      <c r="ZD2" t="n">
+        <v>-73.61648091946674</v>
+      </c>
+      <c r="ZE2" t="n">
+        <v>-73.63706678281926</v>
+      </c>
+      <c r="ZF2" t="n">
+        <v>-73.65581095151934</v>
+      </c>
+      <c r="ZG2" t="n">
+        <v>-73.59897113262262</v>
+      </c>
+      <c r="ZH2" t="n">
+        <v>-73.61530627259042</v>
+      </c>
+      <c r="ZI2" t="n">
+        <v>-73.63774974446656</v>
+      </c>
+      <c r="ZJ2" t="n">
+        <v>-73.58535239863561</v>
+      </c>
+      <c r="ZK2" t="n">
+        <v>-73.60615365356593</v>
+      </c>
+      <c r="ZL2" t="n">
+        <v>-73.63118854485565</v>
+      </c>
+      <c r="ZM2" t="n">
+        <v>-73.6498381582646</v>
+      </c>
+      <c r="ZN2" t="n">
+        <v>-73.66454457345519</v>
+      </c>
+      <c r="ZO2" t="n">
+        <v>-73.68208036431278</v>
+      </c>
+      <c r="ZP2" t="n">
+        <v>-73.62496326434274</v>
+      </c>
+      <c r="ZQ2" t="n">
+        <v>-73.64220413770965</v>
+      </c>
+      <c r="ZR2" t="n">
+        <v>-73.6605207069815</v>
+      </c>
+      <c r="ZS2" t="n">
+        <v>-73.67815812013529</v>
+      </c>
+      <c r="ZT2" t="n">
+        <v>-73.69511795456114</v>
+      </c>
+      <c r="ZU2" t="n">
+        <v>-73.70801730042263</v>
+      </c>
+      <c r="ZV2" t="n">
+        <v>-73.72375946821597</v>
+      </c>
+      <c r="ZW2" t="n">
+        <v>-73.73714653274745</v>
+      </c>
+      <c r="ZX2" t="n">
+        <v>-73.6761436580115</v>
+      </c>
+      <c r="ZY2" t="n">
+        <v>-73.69279220819972</v>
+      </c>
+      <c r="ZZ2" t="n">
+        <v>-73.70879503808082</v>
+      </c>
+      <c r="AAA2" t="n">
+        <v>-73.72415569805069</v>
+      </c>
+      <c r="AAB2" t="n">
+        <v>-73.73549301481438</v>
+      </c>
+      <c r="AAC2" t="n">
+        <v>-73.74632562403146</v>
+      </c>
+      <c r="AAD2" t="n">
+        <v>-73.76004697196511</v>
+      </c>
+      <c r="AAE2" t="n">
+        <v>-73.76976666360162</v>
+      </c>
+      <c r="AAF2" t="n">
+        <v>-73.78227026992977</v>
+      </c>
+      <c r="AAG2" t="n">
+        <v>-73.72024613191208</v>
+      </c>
+      <c r="AAH2" t="n">
+        <v>-73.73445144678655</v>
+      </c>
+      <c r="AAI2" t="n">
+        <v>-73.75586874755946</v>
+      </c>
+      <c r="AAJ2" t="n">
+        <v>-73.76862571346732</v>
+      </c>
+      <c r="AAK2" t="n">
+        <v>-73.78460887436509</v>
+      </c>
+      <c r="AAL2" t="n">
+        <v>-73.72495960820497</v>
+      </c>
+      <c r="AAM2" t="n">
+        <v>-73.73915479715076</v>
+      </c>
+      <c r="AAN2" t="n">
+        <v>-73.74878084872884</v>
+      </c>
+      <c r="AAO2" t="n">
+        <v>-73.76137572529075</v>
+      </c>
+      <c r="AAP2" t="n">
+        <v>-73.77669664565893</v>
+      </c>
+      <c r="AAQ2" t="n">
+        <v>-73.71731645598923</v>
+      </c>
+      <c r="AAR2" t="n">
+        <v>-73.73128322798379</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>-73.7447107094938</v>
+      </c>
+      <c r="AAT2" t="n">
+        <v>-73.7571500587903</v>
+      </c>
+      <c r="AAU2" t="n">
+        <v>-73.77403251075101</v>
+      </c>
+      <c r="AAV2" t="n">
+        <v>-73.785261056046</v>
+      </c>
+      <c r="AAW2" t="n">
+        <v>-73.79924985606071</v>
+      </c>
+      <c r="AAX2" t="n">
+        <v>-73.80980816817095</v>
+      </c>
+      <c r="AAY2" t="n">
+        <v>-73.82004651148017</v>
+      </c>
+      <c r="AAZ2" t="n">
+        <v>-73.82914637457756</v>
+      </c>
+      <c r="ABA2" t="n">
+        <v>-73.76380565516256</v>
+      </c>
+      <c r="ABB2" t="n">
+        <v>-73.77473358405787</v>
+      </c>
+      <c r="ABC2" t="n">
+        <v>-73.78520736780648</v>
+      </c>
+      <c r="ABD2" t="n">
+        <v>-73.79184540697806</v>
+      </c>
+      <c r="ABE2" t="n">
+        <v>-73.80028183845981</v>
+      </c>
+      <c r="ABF2" t="n">
+        <v>-73.81004881131159</v>
+      </c>
+      <c r="ABG2" t="n">
+        <v>-73.81936733996264</v>
+      </c>
+      <c r="ABH2" t="n">
+        <v>-73.82779305420635</v>
+      </c>
+      <c r="ABI2" t="n">
+        <v>-73.83959769902283</v>
+      </c>
+      <c r="ABJ2" t="n">
+        <v>-73.84705770573181</v>
+      </c>
+      <c r="ABK2" t="n">
+        <v>-73.7801469732659</v>
+      </c>
+      <c r="ABL2" t="n">
+        <v>-73.7894518944392</v>
+      </c>
+      <c r="ABM2" t="n">
+        <v>-73.79849732537797</v>
+      </c>
+      <c r="ABN2" t="n">
+        <v>-73.80927661817965</v>
+      </c>
+      <c r="ABO2" t="n">
+        <v>-73.81917703926877</v>
+      </c>
+      <c r="ABP2" t="n">
+        <v>-73.82864131662446</v>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>-73.83997922427734</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>-73.84731054079685</v>
+      </c>
+      <c r="ABS2" t="n">
+        <v>-73.85318156147252</v>
+      </c>
+      <c r="ABT2" t="n">
+        <v>-73.86604212350528</v>
+      </c>
+      <c r="ABU2" t="n">
+        <v>-73.86820533719133</v>
+      </c>
+      <c r="ABV2" t="n">
+        <v>-73.79630757881111</v>
+      </c>
+      <c r="ABW2" t="n">
+        <v>-73.80633090302025</v>
+      </c>
+      <c r="ABX2" t="n">
+        <v>-73.81445512383412</v>
+      </c>
+      <c r="ABY2" t="n">
+        <v>-73.82163090470678</v>
+      </c>
+      <c r="ABZ2" t="n">
+        <v>-73.82849652050999</v>
+      </c>
+      <c r="ACA2" t="n">
+        <v>-73.83505587424921</v>
+      </c>
+      <c r="ACB2" t="n">
+        <v>-73.49167623069728</v>
+      </c>
+      <c r="ACC2" t="n">
+        <v>-73.51139029995814</v>
+      </c>
+      <c r="ACD2" t="n">
+        <v>-73.45670554946851</v>
+      </c>
+      <c r="ACE2" t="n">
+        <v>-73.47771002353991</v>
+      </c>
+      <c r="ACF2" t="n">
+        <v>-73.50185458549875</v>
+      </c>
+      <c r="ACG2" t="n">
+        <v>-73.52312007911412</v>
+      </c>
+      <c r="ACH2" t="n">
+        <v>-73.54272067914577</v>
+      </c>
+      <c r="ACI2" t="n">
+        <v>-73.48789304033365</v>
+      </c>
+      <c r="ACJ2" t="n">
+        <v>-73.50931737219788</v>
+      </c>
+      <c r="ACK2" t="n">
+        <v>-73.53024398896639</v>
+      </c>
+      <c r="ACL2" t="n">
+        <v>-73.55276903299487</v>
+      </c>
+      <c r="ACM2" t="n">
+        <v>-73.57467988298578</v>
+      </c>
+      <c r="ACN2" t="n">
+        <v>-73.59996037176879</v>
+      </c>
+      <c r="ACO2" t="n">
+        <v>-73.62233505956883</v>
+      </c>
+      <c r="ACP2" t="n">
+        <v>-73.64072614224216</v>
+      </c>
+      <c r="ACQ2" t="n">
+        <v>-73.6617772116074</v>
+      </c>
+      <c r="ACR2" t="n">
+        <v>-73.68401175029415</v>
+      </c>
+      <c r="ACS2" t="n">
+        <v>-73.70332675335972</v>
+      </c>
+      <c r="ACT2" t="n">
+        <v>-73.7221207540061</v>
+      </c>
+      <c r="ACU2" t="n">
+        <v>-73.73830348202131</v>
+      </c>
+      <c r="ACV2" t="n">
+        <v>-73.75383100986791</v>
+      </c>
+      <c r="ACW2" t="n">
+        <v>-73.76659244198535</v>
+      </c>
+      <c r="ACX2" t="n">
+        <v>-73.78231289253142</v>
+      </c>
+      <c r="ACY2" t="n">
+        <v>-73.79667351286911</v>
+      </c>
+      <c r="ACZ2" t="n">
+        <v>-73.81152871381799</v>
+      </c>
+      <c r="ADA2" t="n">
+        <v>-73.82310652623785</v>
+      </c>
+      <c r="ADB2" t="n">
+        <v>-73.76008442459869</v>
+      </c>
+      <c r="ADC2" t="n">
+        <v>-73.77586659035457</v>
+      </c>
+      <c r="ADD2" t="n">
+        <v>-73.78910996533537</v>
+      </c>
+      <c r="ADE2" t="n">
+        <v>-73.72774706179365</v>
+      </c>
+      <c r="ADF2" t="n">
+        <v>-73.74109033413406</v>
+      </c>
+      <c r="ADG2" t="n">
+        <v>-73.75783621494443</v>
+      </c>
+      <c r="ADH2" t="n">
+        <v>-73.69545717545637</v>
+      </c>
+      <c r="ADI2" t="n">
+        <v>-73.71584992656236</v>
+      </c>
+      <c r="ADJ2" t="n">
+        <v>-73.73347416519863</v>
+      </c>
+      <c r="ADK2" t="n">
+        <v>-73.74591296106792</v>
+      </c>
+      <c r="ADL2" t="n">
+        <v>-73.76777634287129</v>
+      </c>
+      <c r="ADM2" t="n">
+        <v>-73.77887794589019</v>
+      </c>
+      <c r="ADN2" t="n">
+        <v>-73.79320634473062</v>
+      </c>
+      <c r="ADO2" t="n">
+        <v>-73.80701582319548</v>
+      </c>
+      <c r="ADP2" t="n">
+        <v>-73.8171580614743</v>
+      </c>
+      <c r="ADQ2" t="n">
+        <v>-73.83070357442033</v>
+      </c>
+      <c r="ADR2" t="n">
+        <v>-73.84891810947882</v>
+      </c>
+      <c r="ADS2" t="n">
+        <v>-73.86148878485069</v>
+      </c>
+      <c r="ADT2" t="n">
+        <v>-73.86837118370423</v>
+      </c>
+      <c r="ADU2" t="n">
+        <v>-73.88165572793348</v>
+      </c>
+      <c r="ADV2" t="n">
+        <v>-73.89025725882732</v>
+      </c>
+      <c r="ADW2" t="n">
+        <v>-73.89910068005675</v>
+      </c>
+      <c r="ADX2" t="n">
+        <v>-73.90670392190411</v>
+      </c>
+      <c r="ADY2" t="n">
+        <v>-73.91457673875004</v>
+      </c>
+      <c r="ADZ2" t="n">
+        <v>-73.92197186368813</v>
+      </c>
+      <c r="AEA2" t="n">
+        <v>-73.93202670434431</v>
+      </c>
+      <c r="AEB2" t="n">
+        <v>-73.93772144196984</v>
+      </c>
+      <c r="AEC2" t="n">
+        <v>-73.86890807017477</v>
+      </c>
+      <c r="AED2" t="n">
+        <v>-73.87770844876319</v>
+      </c>
+      <c r="AEE2" t="n">
+        <v>-73.88281672849202</v>
+      </c>
+      <c r="AEF2" t="n">
+        <v>-73.89196575633666</v>
+      </c>
+      <c r="AEG2" t="n">
+        <v>-73.89837956219944</v>
+      </c>
+      <c r="AEH2" t="n">
+        <v>-73.90843481147547</v>
+      </c>
+      <c r="AEI2" t="n">
+        <v>-73.92111657668023</v>
+      </c>
+      <c r="AEJ2" t="n">
+        <v>-73.9300728625573</v>
+      </c>
+      <c r="AEK2" t="n">
+        <v>-73.9385455803592</v>
+      </c>
+      <c r="AEL2" t="n">
+        <v>-73.94568744541594</v>
+      </c>
+      <c r="AEM2" t="n">
+        <v>-73.94790477043648</v>
+      </c>
+      <c r="AEN2" t="n">
+        <v>-73.95432432728738</v>
+      </c>
+      <c r="AEO2" t="n">
+        <v>-73.96370741215897</v>
+      </c>
+      <c r="AEP2" t="n">
+        <v>-73.96737790824263</v>
+      </c>
+      <c r="AEQ2" t="n">
+        <v>-73.96886697633391</v>
+      </c>
+      <c r="AER2" t="n">
+        <v>-73.97154580225853</v>
+      </c>
+      <c r="AES2" t="n">
+        <v>-73.97423981526535</v>
+      </c>
+      <c r="AET2" t="n">
+        <v>-73.97712600692731</v>
+      </c>
+      <c r="AEU2" t="n">
+        <v>-73.98066183514533</v>
+      </c>
+      <c r="AEV2" t="n">
+        <v>-73.97943523550128</v>
+      </c>
+      <c r="AEW2" t="n">
+        <v>-73.9875974162442</v>
+      </c>
+      <c r="AEX2" t="n">
+        <v>-73.98643344158722</v>
+      </c>
+      <c r="AEY2" t="n">
+        <v>-73.98850106002813</v>
+      </c>
+      <c r="AEZ2" t="n">
+        <v>-73.99035101529233</v>
+      </c>
+      <c r="AFA2" t="n">
+        <v>-73.99328438514877</v>
+      </c>
+      <c r="AFB2" t="n">
+        <v>-73.99684866100189</v>
+      </c>
+      <c r="AFC2" t="n">
+        <v>-73.99620951178098</v>
+      </c>
+      <c r="AFD2" t="n">
+        <v>-74.00252001598128</v>
+      </c>
+      <c r="AFE2" t="n">
+        <v>-74.00140815258294</v>
+      </c>
+      <c r="AFF2" t="n">
+        <v>-74.0002064586085</v>
+      </c>
+      <c r="AFG2" t="n">
+        <v>-73.99892460176454</v>
+      </c>
+      <c r="AFH2" t="n">
+        <v>-74.0013671286933</v>
+      </c>
+      <c r="AFI2" t="n">
+        <v>-73.99831731987589</v>
+      </c>
+      <c r="AFJ2" t="n">
+        <v>-73.99743535603893</v>
+      </c>
+      <c r="AFK2" t="n">
+        <v>-73.99581026972098</v>
+      </c>
+      <c r="AFL2" t="n">
+        <v>-73.99596742837068</v>
+      </c>
+      <c r="AFM2" t="n">
+        <v>-74.00056019131726</v>
+      </c>
+      <c r="AFN2" t="n">
+        <v>-74.00559754725936</v>
+      </c>
+      <c r="AFO2" t="n">
+        <v>-74.00723237211859</v>
+      </c>
+      <c r="AFP2" t="n">
+        <v>-74.00659479374863</v>
+      </c>
+      <c r="AFQ2" t="n">
+        <v>-74.00473949986068</v>
+      </c>
+      <c r="AFR2" t="n">
+        <v>-74.00286391159096</v>
+      </c>
+      <c r="AFS2" t="n">
+        <v>-74.00356620066258</v>
+      </c>
+      <c r="AFT2" t="n">
+        <v>-74.00812994729957</v>
+      </c>
+      <c r="AFU2" t="n">
+        <v>-74.01244763904502</v>
+      </c>
+      <c r="AFV2" t="n">
+        <v>-74.01255966146326</v>
+      </c>
+      <c r="AFW2" t="n">
+        <v>-74.00858737815008</v>
+      </c>
+      <c r="AFX2" t="n">
+        <v>-74.01577111306037</v>
+      </c>
+      <c r="AFY2" t="n">
+        <v>-74.01456571458617</v>
+      </c>
+      <c r="AFZ2" t="n">
+        <v>-74.01499153309446</v>
+      </c>
+      <c r="AGA2" t="n">
+        <v>-74.01462693161012</v>
+      </c>
+      <c r="AGB2" t="n">
+        <v>-73.65518898370345</v>
+      </c>
+      <c r="AGC2" t="n">
+        <v>-73.66811269180542</v>
+      </c>
+      <c r="AGD2" t="n">
+        <v>-73.32520124444454</v>
+      </c>
+      <c r="AGE2" t="n">
+        <v>-73.35018574695766</v>
+      </c>
+      <c r="AGF2" t="n">
+        <v>-73.37340519610343</v>
+      </c>
+      <c r="AGG2" t="n">
+        <v>-73.39649299968561</v>
+      </c>
+      <c r="AGH2" t="n">
+        <v>-73.42528178313202</v>
+      </c>
+      <c r="AGI2" t="n">
+        <v>-73.44773441636893</v>
+      </c>
+      <c r="AGJ2" t="n">
+        <v>-73.47579651780264</v>
+      </c>
+      <c r="AGK2" t="n">
+        <v>-73.42925145122624</v>
+      </c>
+      <c r="AGL2" t="n">
+        <v>-73.45485389821843</v>
+      </c>
+      <c r="AGM2" t="n">
+        <v>-73.48149495433681</v>
+      </c>
+      <c r="AGN2" t="n">
+        <v>-73.50432681667019</v>
+      </c>
+      <c r="AGO2" t="n">
+        <v>-73.52847527183158</v>
+      </c>
+      <c r="AGP2" t="n">
+        <v>-73.5503055771056</v>
+      </c>
+      <c r="AGQ2" t="n">
+        <v>-73.57669462425335</v>
+      </c>
+      <c r="AGR2" t="n">
+        <v>-73.60056916837026</v>
+      </c>
+      <c r="AGS2" t="n">
+        <v>-73.62557858336397</v>
+      </c>
+      <c r="AGT2" t="n">
+        <v>-73.64807085963886</v>
+      </c>
+      <c r="AGU2" t="n">
+        <v>-73.67147177374038</v>
+      </c>
+      <c r="AGV2" t="n">
+        <v>-73.6877256239307</v>
+      </c>
+      <c r="AGW2" t="n">
+        <v>-73.70494468335335</v>
+      </c>
+      <c r="AGX2" t="n">
+        <v>-73.720082405071</v>
+      </c>
+      <c r="AGY2" t="n">
+        <v>-73.73944306984245</v>
+      </c>
+      <c r="AGZ2" t="n">
+        <v>-73.75809128154329</v>
+      </c>
+      <c r="AHA2" t="n">
+        <v>-73.77605740255308</v>
+      </c>
+      <c r="AHB2" t="n">
+        <v>-73.79331432698751</v>
+      </c>
+      <c r="AHC2" t="n">
+        <v>-73.80983770942471</v>
+      </c>
+      <c r="AHD2" t="n">
+        <v>-73.82552275478297</v>
+      </c>
+      <c r="AHE2" t="n">
+        <v>-73.84066498236665</v>
+      </c>
+      <c r="AHF2" t="n">
+        <v>-73.85842010738435</v>
+      </c>
+      <c r="AHG2" t="n">
+        <v>-73.86882497423582</v>
+      </c>
+      <c r="AHH2" t="n">
+        <v>-73.88582862502423</v>
+      </c>
+      <c r="AHI2" t="n">
+        <v>-73.89934675602171</v>
+      </c>
+      <c r="AHJ2" t="n">
+        <v>-73.9174272648263</v>
+      </c>
+      <c r="AHK2" t="n">
+        <v>-73.92280384270254</v>
+      </c>
+      <c r="AHL2" t="n">
+        <v>-73.93433671877717</v>
+      </c>
+      <c r="AHM2" t="n">
+        <v>-73.94011402974098</v>
+      </c>
+      <c r="AHN2" t="n">
+        <v>-73.94946680976715</v>
+      </c>
+      <c r="AHO2" t="n">
+        <v>-73.95989335523622</v>
+      </c>
+      <c r="AHP2" t="n">
+        <v>-73.96738527517427</v>
+      </c>
+      <c r="AHQ2" t="n">
+        <v>-73.97114935170646</v>
+      </c>
+      <c r="AHR2" t="n">
+        <v>-73.97522684675134</v>
+      </c>
+      <c r="AHS2" t="n">
+        <v>-73.98070769545667</v>
+      </c>
+      <c r="AHT2" t="n">
+        <v>-73.98250748700221</v>
+      </c>
+      <c r="AHU2" t="n">
+        <v>-73.98552171536569</v>
+      </c>
+      <c r="AHV2" t="n">
+        <v>-73.99146323446695</v>
+      </c>
+      <c r="AHW2" t="n">
+        <v>-73.99300087012813</v>
+      </c>
+      <c r="AHX2" t="n">
+        <v>-73.99736201239639</v>
+      </c>
+      <c r="AHY2" t="n">
+        <v>-74.00230769229472</v>
+      </c>
+      <c r="AHZ2" t="n">
+        <v>-74.00467887831473</v>
+      </c>
+      <c r="AIA2" t="n">
+        <v>-74.00743977303392</v>
+      </c>
+      <c r="AIB2" t="n">
+        <v>-74.01140098076274</v>
+      </c>
+      <c r="AIC2" t="n">
+        <v>-74.015057042327</v>
+      </c>
+      <c r="AID2" t="n">
+        <v>-74.01836297659119</v>
+      </c>
+      <c r="AIE2" t="n">
+        <v>-73.66493869438288</v>
+      </c>
+      <c r="AIF2" t="n">
+        <v>-73.67765473527325</v>
+      </c>
+      <c r="AIG2" t="n">
+        <v>-73.6901792792047</v>
+      </c>
+      <c r="AIH2" t="n">
+        <v>-73.70249256201558</v>
+      </c>
+      <c r="AII2" t="n">
+        <v>-73.71769969404296</v>
+      </c>
+      <c r="AIJ2" t="n">
+        <v>-73.72942272143135</v>
+      </c>
+      <c r="AIK2" t="n">
+        <v>-73.74415119574303</v>
+      </c>
+      <c r="AIL2" t="n">
+        <v>-73.75372975010141</v>
+      </c>
+      <c r="AIM2" t="n">
+        <v>-73.7630829113757</v>
+      </c>
+      <c r="AIN2" t="n">
+        <v>-73.77220183702715</v>
+      </c>
+      <c r="AIO2" t="n">
+        <v>-73.78583650477867</v>
+      </c>
+      <c r="AIP2" t="n">
+        <v>-73.79690904799915</v>
+      </c>
+      <c r="AIQ2" t="n">
+        <v>-73.80976776169321</v>
+      </c>
+      <c r="AIR2" t="n">
+        <v>-73.82069940755255</v>
+      </c>
+      <c r="AIS2" t="n">
+        <v>-73.8294801148309</v>
+      </c>
+      <c r="AIT2" t="n">
+        <v>-73.84120982076044</v>
+      </c>
+      <c r="AIU2" t="n">
+        <v>-73.85100940175509</v>
+      </c>
+      <c r="AIV2" t="n">
+        <v>-73.85865823622909</v>
+      </c>
+      <c r="AIW2" t="n">
+        <v>-73.86776588226012</v>
+      </c>
+      <c r="AIX2" t="n">
+        <v>-73.87649840392079</v>
+      </c>
+      <c r="AIY2" t="n">
+        <v>-73.88621149373827</v>
+      </c>
+      <c r="AIZ2" t="n">
+        <v>-73.89564826776964</v>
+      </c>
+      <c r="AJA2" t="n">
+        <v>-73.89990974855995</v>
+      </c>
+      <c r="AJB2" t="n">
+        <v>-73.90542990914653</v>
+      </c>
+      <c r="AJC2" t="n">
+        <v>-73.91322989528599</v>
+      </c>
+      <c r="AJD2" t="n">
+        <v>-73.92065156655282</v>
+      </c>
+      <c r="AJE2" t="n">
+        <v>-73.93170540249959</v>
+      </c>
+      <c r="AJF2" t="n">
+        <v>-73.86820229402485</v>
+      </c>
+      <c r="AJG2" t="n">
+        <v>-73.87951298516295</v>
+      </c>
+      <c r="AJH2" t="n">
+        <v>-73.88458337430937</v>
+      </c>
+      <c r="AJI2" t="n">
+        <v>-73.89423126733398</v>
+      </c>
+      <c r="AJJ2" t="n">
+        <v>-73.90270640795133</v>
+      </c>
+      <c r="AJK2" t="n">
+        <v>-73.91407923904021</v>
+      </c>
+      <c r="AJL2" t="n">
+        <v>-73.92018201460722</v>
+      </c>
+      <c r="AJM2" t="n">
+        <v>-73.92272104209241</v>
+      </c>
+      <c r="AJN2" t="n">
+        <v>-73.92984557571465</v>
+      </c>
+      <c r="AJO2" t="n">
+        <v>-73.9366560240495</v>
+      </c>
+      <c r="AJP2" t="n">
+        <v>-73.94502030337171</v>
+      </c>
+      <c r="AJQ2" t="n">
+        <v>-73.95435588137748</v>
+      </c>
+      <c r="AJR2" t="n">
+        <v>-73.96324659247969</v>
+      </c>
+      <c r="AJS2" t="n">
+        <v>-73.96843643080518</v>
+      </c>
+      <c r="AJT2" t="n">
+        <v>-73.97179735368991</v>
+      </c>
+      <c r="AJU2" t="n">
+        <v>-73.90079515073039</v>
+      </c>
+      <c r="AJV2" t="n">
+        <v>-73.90467271457851</v>
+      </c>
+      <c r="AJW2" t="n">
+        <v>-73.90622017310737</v>
+      </c>
+      <c r="AJX2" t="n">
+        <v>-73.91162253047676</v>
+      </c>
+      <c r="AJY2" t="n">
+        <v>-73.56366737489228</v>
+      </c>
+      <c r="AJZ2" t="n">
+        <v>-73.58492071526261</v>
+      </c>
+      <c r="AKA2" t="n">
+        <v>-73.6041715015059</v>
+      </c>
+      <c r="AKB2" t="n">
+        <v>-73.62155832685036</v>
+      </c>
+      <c r="AKC2" t="n">
+        <v>-73.63998641696992</v>
+      </c>
+      <c r="AKD2" t="n">
+        <v>-73.65802993155178</v>
+      </c>
+      <c r="AKE2" t="n">
+        <v>-73.67910274069617</v>
+      </c>
+      <c r="AKF2" t="n">
+        <v>-73.69813092559039</v>
+      </c>
+      <c r="AKG2" t="n">
+        <v>-73.71487739088218</v>
+      </c>
+      <c r="AKH2" t="n">
+        <v>-73.72787272262197</v>
+      </c>
+      <c r="AKI2" t="n">
+        <v>-73.74052210656842</v>
+      </c>
+      <c r="AKJ2" t="n">
+        <v>-73.75281653736793</v>
+      </c>
+      <c r="AKK2" t="n">
+        <v>-73.76787149599505</v>
+      </c>
+      <c r="AKL2" t="n">
+        <v>-73.70738396120451</v>
+      </c>
+      <c r="AKM2" t="n">
+        <v>-73.72769504514879</v>
+      </c>
+      <c r="AKN2" t="n">
+        <v>-73.74720919358947</v>
+      </c>
+      <c r="AKO2" t="n">
+        <v>-73.7647724235228</v>
+      </c>
+      <c r="AKP2" t="n">
+        <v>-73.77848741098381</v>
+      </c>
+      <c r="AKQ2" t="n">
+        <v>-73.78993650790746</v>
+      </c>
+      <c r="AKR2" t="n">
+        <v>-73.80208291729967</v>
+      </c>
+      <c r="AKS2" t="n">
+        <v>-73.81119498031632</v>
+      </c>
+      <c r="AKT2" t="n">
+        <v>-73.82651879420548</v>
+      </c>
+      <c r="AKU2" t="n">
+        <v>-73.83945425620537</v>
+      </c>
+      <c r="AKV2" t="n">
+        <v>-73.85119861748613</v>
+      </c>
+      <c r="AKW2" t="n">
+        <v>-73.85986171215757</v>
+      </c>
+      <c r="AKX2" t="n">
+        <v>-73.87287606875749</v>
+      </c>
+      <c r="AKY2" t="n">
+        <v>-73.81110489795167</v>
+      </c>
+      <c r="AKZ2" t="n">
+        <v>-73.82359222264633</v>
+      </c>
+      <c r="ALA2" t="n">
+        <v>-73.83710767150865</v>
+      </c>
+      <c r="ALB2" t="n">
+        <v>-73.84933447290197</v>
+      </c>
+      <c r="ALC2" t="n">
+        <v>-73.86106818295303</v>
+      </c>
+      <c r="ALD2" t="n">
+        <v>-73.86973929252514</v>
+      </c>
+      <c r="ALE2" t="n">
+        <v>-73.87730244639404</v>
+      </c>
+      <c r="ALF2" t="n">
+        <v>-73.88957393301017</v>
+      </c>
+      <c r="ALG2" t="n">
+        <v>-73.89880244951858</v>
+      </c>
+      <c r="ALH2" t="n">
+        <v>-73.91306695453027</v>
+      </c>
+      <c r="ALI2" t="n">
+        <v>-73.92043627114887</v>
+      </c>
+      <c r="ALJ2" t="n">
+        <v>-73.9242369259442</v>
+      </c>
+      <c r="ALK2" t="n">
+        <v>-73.93581353365468</v>
+      </c>
+      <c r="ALL2" t="n">
+        <v>-73.9434972334884</v>
+      </c>
+      <c r="ALM2" t="n">
+        <v>-73.95059176649858</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +6445,3004 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.272856275095097</v>
+        <v>-24.90150969545848</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.740294575073003</v>
+        <v>-34.05237727652887</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.995059527032431</v>
+        <v>-39.54071703681316</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.181771386117773</v>
+        <v>-43.57858269580503</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.325005776228662</v>
+        <v>-46.67911079924372</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.432318833051098</v>
+        <v>-48.76115531623866</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.24381755341972</v>
+        <v>-49.84822310385513</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.899907602064804</v>
+        <v>-50.32356886511523</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.415035562184033</v>
+        <v>-50.41345898835635</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.811393402918796</v>
+        <v>-42.38432622507982</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.112424236910539</v>
+        <v>-43.21109777353738</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.339156960633439</v>
+        <v>-44.16339693288667</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.58340889438202</v>
+        <v>-44.9091986407097</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.77074013133327</v>
+        <v>-45.52453471649401</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.914124480952696</v>
+        <v>-46.07455361497724</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.958855855599598</v>
+        <v>-46.5686675548924</v>
       </c>
       <c r="R3" t="n">
-        <v>-5.988021950059498</v>
+        <v>-46.98526427001001</v>
       </c>
       <c r="S3" t="n">
-        <v>-6.005565306331336</v>
+        <v>-47.31205598504135</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.014416236567196</v>
+        <v>-47.56026748920779</v>
       </c>
       <c r="U3" t="n">
-        <v>-6.600805245755308</v>
+        <v>-47.78599289499562</v>
       </c>
       <c r="V3" t="n">
-        <v>-7.098722460985252</v>
+        <v>-47.96736421113644</v>
       </c>
       <c r="W3" t="n">
-        <v>-7.498184418875969</v>
+        <v>-48.0390472477271</v>
       </c>
       <c r="X3" t="n">
-        <v>-7.839359460804255</v>
+        <v>-48.16263542776196</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.131601549381141</v>
+        <v>-48.26641606345956</v>
       </c>
       <c r="Z3" t="n">
-        <v>-8.382584914252474</v>
+        <v>-48.28215683386987</v>
       </c>
       <c r="AA3" t="n">
-        <v>-8.646539922756778</v>
+        <v>-48.34823758762097</v>
       </c>
       <c r="AB3" t="n">
-        <v>-8.875187289232514</v>
+        <v>-48.40185824769831</v>
       </c>
       <c r="AC3" t="n">
-        <v>-9.073643128722962</v>
+        <v>-48.44154078674848</v>
       </c>
       <c r="AD3" t="n">
-        <v>-9.235337246286178</v>
+        <v>-48.47419721715816</v>
       </c>
       <c r="AE3" t="n">
-        <v>-9.37587127004004</v>
+        <v>-48.49798777640556</v>
       </c>
       <c r="AF3" t="n">
-        <v>-9.498130309742409</v>
+        <v>-48.51120306421598</v>
       </c>
       <c r="AG3" t="n">
-        <v>-10.08754655111949</v>
+        <v>-48.51819879474146</v>
       </c>
       <c r="AH3" t="n">
-        <v>-10.61576758927048</v>
+        <v>-48.466425991992</v>
       </c>
       <c r="AI3" t="n">
-        <v>-11.09006215369264</v>
+        <v>-48.46618985870015</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-11.51669971323563</v>
+        <v>-48.46469984057575</v>
       </c>
       <c r="AK3" t="n">
-        <v>-12.29991656858039</v>
+        <v>-48.45737540084556</v>
       </c>
       <c r="AL3" t="n">
-        <v>-13.01030100996102</v>
+        <v>-48.44936591137763</v>
       </c>
       <c r="AM3" t="n">
-        <v>-13.65566679171966</v>
+        <v>-48.44161422212883</v>
       </c>
       <c r="AN3" t="n">
-        <v>-14.24285075047857</v>
+        <v>-48.42560076112088</v>
       </c>
       <c r="AO3" t="n">
-        <v>-13.98242496171487</v>
+        <v>-48.40778994003524</v>
       </c>
       <c r="AP3" t="n">
-        <v>-13.73915979702681</v>
+        <v>-48.38850404252652</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-13.51156304844029</v>
+        <v>-48.36464223860413</v>
       </c>
       <c r="AR3" t="n">
-        <v>-13.2983007157686</v>
+        <v>-48.2959018827022</v>
       </c>
       <c r="AS3" t="n">
-        <v>-13.09856924832478</v>
+        <v>-48.27693441406075</v>
       </c>
       <c r="AT3" t="n">
-        <v>-12.91087440569937</v>
+        <v>-48.25369839925991</v>
       </c>
       <c r="AU3" t="n">
-        <v>-12.73694259033324</v>
+        <v>-48.23172948577649</v>
       </c>
       <c r="AV3" t="n">
-        <v>-12.5730239736232</v>
+        <v>-48.20502616549299</v>
       </c>
       <c r="AW3" t="n">
-        <v>-12.41834920611083</v>
+        <v>-48.18102266102299</v>
       </c>
       <c r="AX3" t="n">
-        <v>-12.27450528464309</v>
+        <v>-48.1554895736121</v>
       </c>
       <c r="AY3" t="n">
-        <v>-12.1384235872457</v>
+        <v>-48.125686160548</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-12.00954161011001</v>
+        <v>-48.09606589855789</v>
       </c>
       <c r="BA3" t="n">
-        <v>-11.88734704161948</v>
+        <v>-48.06689007803737</v>
       </c>
       <c r="BB3" t="n">
-        <v>-11.76755375840467</v>
+        <v>-48.03591940063057</v>
       </c>
       <c r="BC3" t="n">
-        <v>-11.65379046788142</v>
+        <v>-48.00581556623587</v>
       </c>
       <c r="BD3" t="n">
-        <v>-11.54564855103492</v>
+        <v>-47.97477502521595</v>
       </c>
       <c r="BE3" t="n">
-        <v>-11.44266456110181</v>
+        <v>-47.94320767654884</v>
       </c>
       <c r="BF3" t="n">
-        <v>-11.34458899532233</v>
+        <v>-47.91016164112355</v>
       </c>
       <c r="BG3" t="n">
-        <v>-11.2511055559769</v>
+        <v>-47.87750946986924</v>
       </c>
       <c r="BH3" t="n">
-        <v>-11.16192310796409</v>
+        <v>-47.84297077476251</v>
       </c>
       <c r="BI3" t="n">
-        <v>-11.07677331218571</v>
+        <v>-47.80911398896298</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-10.99587879056443</v>
+        <v>-47.77651461768784</v>
       </c>
       <c r="BK3" t="n">
-        <v>-10.91851485661588</v>
+        <v>-47.70811815933851</v>
       </c>
       <c r="BL3" t="n">
-        <v>-10.84353658582015</v>
+        <v>-47.67635664359932</v>
       </c>
       <c r="BM3" t="n">
-        <v>-10.7717334638524</v>
+        <v>-47.64487819828698</v>
       </c>
       <c r="BN3" t="n">
-        <v>-10.70292186135065</v>
+        <v>-47.61299816102867</v>
       </c>
       <c r="BO3" t="n">
-        <v>-10.63738938117711</v>
+        <v>-47.54544612212573</v>
       </c>
       <c r="BP3" t="n">
-        <v>-10.57449638218166</v>
+        <v>-47.51512779280287</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-10.51409681481652</v>
+        <v>-47.48385446789652</v>
       </c>
       <c r="BR3" t="n">
-        <v>-10.45605463490394</v>
+        <v>-47.45098233465414</v>
       </c>
       <c r="BS3" t="n">
-        <v>-10.40024298963553</v>
+        <v>-47.42024966755486</v>
       </c>
       <c r="BT3" t="n">
-        <v>-10.34654347985449</v>
+        <v>-47.39073820171062</v>
       </c>
       <c r="BU3" t="n">
-        <v>-10.29484549056851</v>
+        <v>-47.36051731207591</v>
       </c>
       <c r="BV3" t="n">
-        <v>-10.2450455825827</v>
+        <v>-47.33128080081931</v>
       </c>
       <c r="BW3" t="n">
-        <v>-10.19704693896336</v>
+        <v>-47.30242504187516</v>
       </c>
       <c r="BX3" t="n">
-        <v>-10.15075886076077</v>
+        <v>-47.27395713716948</v>
       </c>
       <c r="BY3" t="n">
-        <v>-10.10569536038923</v>
+        <v>-47.2441170035373</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-10.06219518569609</v>
+        <v>-47.21413725549724</v>
       </c>
       <c r="CA3" t="n">
-        <v>-10.02018245248477</v>
+        <v>-47.18751525147132</v>
       </c>
       <c r="CB3" t="n">
-        <v>-9.979585838935261</v>
+        <v>-47.15960163942968</v>
       </c>
       <c r="CC3" t="n">
-        <v>-9.940338259043196</v>
+        <v>-47.13435579810421</v>
       </c>
       <c r="CD3" t="n">
-        <v>-9.902754212094905</v>
+        <v>-47.10836036797317</v>
       </c>
       <c r="CE3" t="n">
-        <v>-9.866380992145809</v>
+        <v>-47.08395453517599</v>
       </c>
       <c r="CF3" t="n">
-        <v>-9.831163296448668</v>
+        <v>-47.05914443145164</v>
       </c>
       <c r="CG3" t="n">
-        <v>-9.797048951079178</v>
+        <v>-47.03593122399425</v>
       </c>
       <c r="CH3" t="n">
-        <v>-9.763988700000475</v>
+        <v>-47.01234704162152</v>
       </c>
       <c r="CI3" t="n">
-        <v>-9.731936010596147</v>
+        <v>-46.98942776219147</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-9.700493615496468</v>
+        <v>-46.96848733082225</v>
       </c>
       <c r="CK3" t="n">
-        <v>-9.6699867412601</v>
+        <v>-46.94610571295503</v>
       </c>
       <c r="CL3" t="n">
-        <v>-9.640375371505863</v>
+        <v>-46.92619982595193</v>
       </c>
       <c r="CM3" t="n">
-        <v>-9.611963955941789</v>
+        <v>-46.90697789863589</v>
       </c>
       <c r="CN3" t="n">
-        <v>-9.584361539408368</v>
+        <v>-46.88740450215099</v>
       </c>
       <c r="CO3" t="n">
-        <v>-9.557534642149818</v>
+        <v>-46.86985819671738</v>
       </c>
       <c r="CP3" t="n">
-        <v>-9.531451499585369</v>
+        <v>-46.85266175306084</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-9.506081957647162</v>
+        <v>-46.836393904061</v>
       </c>
       <c r="CR3" t="n">
-        <v>-9.481397375539338</v>
+        <v>-46.82047789046114</v>
       </c>
       <c r="CS3" t="n">
-        <v>-9.457370535322314</v>
+        <v>-46.80523139487143</v>
       </c>
       <c r="CT3" t="n">
-        <v>-9.433975557779599</v>
+        <v>-46.78962372664201</v>
       </c>
       <c r="CU3" t="n">
-        <v>-9.411187824072533</v>
+        <v>-46.77567251943805</v>
       </c>
       <c r="CV3" t="n">
-        <v>-9.388670186179541</v>
+        <v>-46.76234884692457</v>
       </c>
       <c r="CW3" t="n">
-        <v>-9.366724597137349</v>
+        <v>-46.74964318307859</v>
       </c>
       <c r="CX3" t="n">
-        <v>-9.345329369762853</v>
+        <v>-46.73756511692615</v>
       </c>
       <c r="CY3" t="n">
-        <v>-9.324463834889761</v>
+        <v>-46.72640057977803</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-9.304108284662526</v>
+        <v>-46.71580763725198</v>
       </c>
       <c r="DA3" t="n">
-        <v>-9.284243919514106</v>
+        <v>-46.70545555947535</v>
       </c>
       <c r="DB3" t="n">
-        <v>-9.264852798556145</v>
+        <v>-46.69564089157484</v>
       </c>
       <c r="DC3" t="n">
-        <v>-9.245917793132449</v>
+        <v>-46.68637060811877</v>
       </c>
       <c r="DD3" t="n">
-        <v>-9.227715145796855</v>
+        <v>-46.67760392898889</v>
       </c>
       <c r="DE3" t="n">
-        <v>-9.209927556067926</v>
+        <v>-46.6693801714326</v>
       </c>
       <c r="DF3" t="n">
-        <v>-9.192540422839611</v>
+        <v>-46.66165684360139</v>
       </c>
       <c r="DG3" t="n">
-        <v>-9.175539782854166</v>
+        <v>-46.65163976000311</v>
       </c>
       <c r="DH3" t="n">
-        <v>-9.158912277850183</v>
+        <v>-46.64562393783354</v>
       </c>
       <c r="DI3" t="n">
-        <v>-9.142645123693349</v>
+        <v>-46.63902650164638</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-9.126726081353969</v>
+        <v>-46.63329319180523</v>
       </c>
       <c r="DK3" t="n">
-        <v>-9.111143429605656</v>
+        <v>-46.63297350336307</v>
       </c>
       <c r="DL3" t="n">
-        <v>-9.095885939329131</v>
+        <v>-46.63012423565132</v>
       </c>
       <c r="DM3" t="n">
-        <v>-9.080670126473647</v>
+        <v>-46.63029008079251</v>
       </c>
       <c r="DN3" t="n">
-        <v>-9.065766141364955</v>
+        <v>-46.63398216016128</v>
       </c>
       <c r="DO3" t="n">
-        <v>-9.051163824674756</v>
+        <v>-46.63484391495696</v>
       </c>
       <c r="DP3" t="n">
-        <v>-9.036853431975132</v>
+        <v>-46.63179962390011</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-9.022825614025763</v>
+        <v>-46.63603017994414</v>
       </c>
       <c r="DR3" t="n">
-        <v>-9.009071398163437</v>
+        <v>-46.63687636735221</v>
       </c>
       <c r="DS3" t="n">
-        <v>-8.995582170723546</v>
+        <v>-46.64107746341979</v>
       </c>
       <c r="DT3" t="n">
-        <v>-8.982349660428294</v>
+        <v>-46.64026923103336</v>
       </c>
       <c r="DU3" t="n">
-        <v>-9.041933210258113</v>
+        <v>-46.64430873748388</v>
       </c>
       <c r="DV3" t="n">
-        <v>-9.09984475999701</v>
+        <v>-46.64659382498694</v>
       </c>
       <c r="DW3" t="n">
-        <v>-9.156138033883554</v>
+        <v>-46.65000923337799</v>
       </c>
       <c r="DX3" t="n">
-        <v>-9.210864552067751</v>
+        <v>-46.65543393224829</v>
       </c>
       <c r="DY3" t="n">
-        <v>-9.264073735906816</v>
+        <v>-46.66443312341695</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-9.792485168995904</v>
+        <v>-46.67334294105206</v>
       </c>
       <c r="EA3" t="n">
-        <v>-10.30745784695705</v>
+        <v>-46.68091042706492</v>
       </c>
       <c r="EB3" t="n">
-        <v>-10.80940106075001</v>
+        <v>-46.68103170809427</v>
       </c>
       <c r="EC3" t="n">
-        <v>-11.29870799312025</v>
+        <v>-46.68502408186545</v>
       </c>
       <c r="ED3" t="n">
-        <v>-11.65638098163246</v>
+        <v>-46.6994046107111</v>
       </c>
       <c r="EE3" t="n">
-        <v>-12.0050632150469</v>
+        <v>-46.70799826602634</v>
       </c>
       <c r="EF3" t="n">
-        <v>-12.34501875814854</v>
+        <v>-46.71728007930324</v>
       </c>
       <c r="EG3" t="n">
-        <v>-12.67650155019595</v>
+        <v>-46.72163892051027</v>
       </c>
       <c r="EH3" t="n">
-        <v>-13.11607554591174</v>
+        <v>-46.72726042259666</v>
       </c>
       <c r="EI3" t="n">
-        <v>-13.54492228504619</v>
+        <v>-46.74793908292106</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-13.96334498934573</v>
+        <v>-46.7630894995577</v>
       </c>
       <c r="EK3" t="n">
-        <v>-14.37163556239439</v>
+        <v>-46.77810412483484</v>
       </c>
       <c r="EL3" t="n">
-        <v>-14.77007508273623</v>
+        <v>-46.78356166984641</v>
       </c>
       <c r="EM3" t="n">
-        <v>-14.9483863658679</v>
+        <v>-46.79611672167854</v>
       </c>
       <c r="EN3" t="n">
-        <v>-15.12212050985809</v>
+        <v>-46.80751215699458</v>
       </c>
       <c r="EO3" t="n">
-        <v>-15.29140158430382</v>
+        <v>-46.89192003292356</v>
       </c>
       <c r="EP3" t="n">
-        <v>-15.4563491720152</v>
+        <v>-46.9618692965911</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-15.41994763696673</v>
+        <v>-46.71604700201468</v>
       </c>
       <c r="ER3" t="n">
-        <v>-15.38373348878855</v>
+        <v>-46.57255505914677</v>
       </c>
       <c r="ES3" t="n">
-        <v>-15.34770323359566</v>
+        <v>-46.46331634873651</v>
       </c>
       <c r="ET3" t="n">
-        <v>-15.31185350714349</v>
+        <v>-46.37373922880703</v>
       </c>
       <c r="EU3" t="n">
-        <v>-15.27618107314571</v>
+        <v>-46.28416445905068</v>
       </c>
       <c r="EV3" t="n">
-        <v>-15.22243115468635</v>
+        <v>-46.19289490230073</v>
       </c>
       <c r="EW3" t="n">
-        <v>-15.16923409579829</v>
+        <v>-45.84820641515481</v>
       </c>
       <c r="EX3" t="n">
-        <v>-15.11657768269337</v>
+        <v>-45.49021697520221</v>
       </c>
       <c r="EY3" t="n">
-        <v>-15.13616165465073</v>
+        <v>-45.14127354178656</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-15.15479931255821</v>
+        <v>-44.80097313302299</v>
       </c>
       <c r="FA3" t="n">
-        <v>-15.16587061233942</v>
+        <v>-44.46759799605992</v>
       </c>
       <c r="FB3" t="n">
-        <v>-15.17617595351844</v>
+        <v>-43.50853135383139</v>
       </c>
       <c r="FC3" t="n">
-        <v>-15.1857345498732</v>
+        <v>-43.22356599226144</v>
       </c>
       <c r="FD3" t="n">
-        <v>-15.19456501412518</v>
+        <v>-42.62990538775328</v>
       </c>
       <c r="FE3" t="n">
-        <v>-15.20268538413429</v>
+        <v>-42.05255683047749</v>
       </c>
       <c r="FF3" t="n">
-        <v>-15.22116829296008</v>
+        <v>-41.50253145174575</v>
       </c>
       <c r="FG3" t="n">
-        <v>-15.23876194885123</v>
+        <v>-40.97814633126367</v>
       </c>
       <c r="FH3" t="n">
-        <v>-15.25548750936258</v>
+        <v>-40.47221340766207</v>
       </c>
       <c r="FI3" t="n">
-        <v>-15.32269849485828</v>
+        <v>-39.99397330549535</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-15.38811244595946</v>
+        <v>-39.54010378416776</v>
       </c>
       <c r="FK3" t="n">
-        <v>-15.45176930622952</v>
+        <v>-39.10703249013981</v>
       </c>
       <c r="FL3" t="n">
-        <v>-15.51370780802642</v>
+        <v>-38.51483926602902</v>
       </c>
       <c r="FM3" t="n">
-        <v>-15.51724403205186</v>
+        <v>-37.95110572290137</v>
       </c>
       <c r="FN3" t="n">
-        <v>-15.52017544492907</v>
+        <v>-37.41907527825431</v>
       </c>
       <c r="FO3" t="n">
-        <v>-15.52251634584493</v>
+        <v>-36.91792005280352</v>
       </c>
       <c r="FP3" t="n">
-        <v>-15.52017724982029</v>
+        <v>-36.29475703072116</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-15.51734869525756</v>
+        <v>-35.851490434369</v>
       </c>
       <c r="FR3" t="n">
-        <v>-15.51404246223864</v>
+        <v>-35.42714074533318</v>
       </c>
       <c r="FS3" t="n">
-        <v>-15.50881175846818</v>
+        <v>-35.02128633547289</v>
       </c>
       <c r="FT3" t="n">
-        <v>-15.50315167677415</v>
+        <v>-34.63990625195659</v>
       </c>
       <c r="FU3" t="n">
-        <v>-15.49707269268328</v>
+        <v>-34.28211058311544</v>
       </c>
       <c r="FV3" t="n">
-        <v>-15.49058504489189</v>
+        <v>-33.95081544057884</v>
       </c>
       <c r="FW3" t="n">
-        <v>-15.48363659833459</v>
+        <v>-33.63657516180149</v>
       </c>
       <c r="FX3" t="n">
-        <v>-15.47609612354774</v>
+        <v>-33.34387971058712</v>
       </c>
       <c r="FY3" t="n">
-        <v>-15.46818088085547</v>
+        <v>-33.07477559978612</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-15.45990017865683</v>
+        <v>-32.82578254169988</v>
       </c>
       <c r="GA3" t="n">
-        <v>-15.45223099797921</v>
+        <v>-32.59752255692634</v>
       </c>
       <c r="GB3" t="n">
-        <v>-15.44419834580795</v>
+        <v>-32.38810613713258</v>
       </c>
       <c r="GC3" t="n">
-        <v>-15.43581125959004</v>
+        <v>-32.19635023531558</v>
       </c>
       <c r="GD3" t="n">
-        <v>-15.42707860283003</v>
+        <v>-32.02188057654263</v>
       </c>
       <c r="GE3" t="n">
-        <v>-15.41800907211378</v>
+        <v>-31.86272906269599</v>
       </c>
       <c r="GF3" t="n">
-        <v>-15.4086112037857</v>
+        <v>-31.72160047392187</v>
       </c>
       <c r="GG3" t="n">
-        <v>-15.39889338029356</v>
+        <v>-31.5951251944465</v>
       </c>
       <c r="GH3" t="n">
-        <v>-15.3888638362143</v>
+        <v>-31.14805909201792</v>
       </c>
       <c r="GI3" t="n">
-        <v>-15.37853066397373</v>
+        <v>-30.27162279218221</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-15.36790181927267</v>
+        <v>-29.49282147577829</v>
       </c>
       <c r="GK3" t="n">
-        <v>-15.35698512623122</v>
+        <v>-28.60293342621426</v>
       </c>
       <c r="GL3" t="n">
-        <v>-15.34578828226268</v>
+        <v>-26.63405170925084</v>
       </c>
       <c r="GM3" t="n">
-        <v>-15.33431886268812</v>
+        <v>-26.47326842905024</v>
       </c>
       <c r="GN3" t="n">
-        <v>-15.32258432510202</v>
+        <v>-25.02417221388664</v>
       </c>
       <c r="GO3" t="n">
-        <v>-15.31059201349922</v>
+        <v>-25.2005558977996</v>
       </c>
       <c r="GP3" t="n">
-        <v>-15.29834916217297</v>
+        <v>-25.42100883812713</v>
       </c>
       <c r="GQ3" t="n">
-        <v>-15.28586289939333</v>
+        <v>-25.71444287220217</v>
       </c>
       <c r="GR3" t="n">
-        <v>-15.27314025087519</v>
+        <v>-26.09129306561284</v>
       </c>
       <c r="GS3" t="n">
-        <v>-15.2601881430445</v>
+        <v>-26.49125285555921</v>
       </c>
       <c r="GT3" t="n">
-        <v>-15.24701340611121</v>
+        <v>-26.49848047624033</v>
       </c>
       <c r="GU3" t="n">
-        <v>-15.23362277695708</v>
+        <v>-26.29463281471819</v>
       </c>
       <c r="GV3" t="n">
-        <v>-15.22002290184621</v>
+        <v>-26.60289146559558</v>
       </c>
       <c r="GW3" t="n">
-        <v>-15.20622033896588</v>
+        <v>-26.87568521023391</v>
       </c>
       <c r="GX3" t="n">
-        <v>-15.19222156080512</v>
+        <v>-27.11958698277785</v>
       </c>
       <c r="GY3" t="n">
-        <v>-15.17803295637808</v>
+        <v>-27.3395202298884</v>
       </c>
       <c r="GZ3" t="n">
-        <v>-15.16366083329904</v>
+        <v>-27.58142943831335</v>
       </c>
       <c r="HA3" t="n">
-        <v>-15.14911141971588</v>
+        <v>-27.82430228474274</v>
       </c>
       <c r="HB3" t="n">
-        <v>-15.13439086610837</v>
+        <v>-28.06092944396739</v>
       </c>
       <c r="HC3" t="n">
-        <v>-15.11950524695746</v>
+        <v>-28.29458470214037</v>
       </c>
       <c r="HD3" t="n">
-        <v>-15.10446056229186</v>
+        <v>-28.49287453566409</v>
       </c>
       <c r="HE3" t="n">
-        <v>-15.08926273911755</v>
+        <v>-28.72353335962087</v>
       </c>
       <c r="HF3" t="n">
-        <v>-15.07391763273612</v>
+        <v>-28.94910540001386</v>
       </c>
       <c r="HG3" t="n">
-        <v>-15.05843102795731</v>
+        <v>-29.17018074051669</v>
       </c>
       <c r="HH3" t="n">
-        <v>-15.04280864021123</v>
+        <v>-29.3872925248488</v>
       </c>
       <c r="HI3" t="n">
-        <v>-15.02705611656538</v>
+        <v>-29.60242260805364</v>
       </c>
       <c r="HJ3" t="n">
-        <v>-15.01117903665157</v>
+        <v>-29.77933570776534</v>
       </c>
       <c r="HK3" t="n">
-        <v>-14.99518291350757</v>
+        <v>-29.97977105927757</v>
       </c>
       <c r="HL3" t="n">
-        <v>-14.97907319433826</v>
+        <v>-30.17514757648296</v>
       </c>
       <c r="HM3" t="n">
-        <v>-14.96285526120097</v>
+        <v>-30.36662286680469</v>
       </c>
       <c r="HN3" t="n">
-        <v>-14.94653443161923</v>
+        <v>-30.5533559005971</v>
       </c>
       <c r="HO3" t="n">
-        <v>-14.93011595912952</v>
+        <v>-30.73350568322137</v>
       </c>
       <c r="HP3" t="n">
-        <v>-14.91360503376503</v>
+        <v>-30.91154831639373</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-14.89700678248051</v>
+        <v>-31.08679482758373</v>
       </c>
       <c r="HR3" t="n">
-        <v>-14.88032626952224</v>
+        <v>-31.26008165557414</v>
       </c>
       <c r="HS3" t="n">
-        <v>-14.86356849674672</v>
+        <v>-31.4234029004485</v>
       </c>
       <c r="HT3" t="n">
-        <v>-14.846738403892</v>
+        <v>-31.59001728791679</v>
       </c>
       <c r="HU3" t="n">
-        <v>-14.82984086880499</v>
+        <v>-31.91438780713212</v>
       </c>
       <c r="HV3" t="n">
-        <v>-14.81288070762829</v>
+        <v>-32.22633092975943</v>
       </c>
       <c r="HW3" t="n">
-        <v>-14.79586267494986</v>
+        <v>-32.53348825895502</v>
       </c>
       <c r="HX3" t="n">
-        <v>-14.77879146391868</v>
+        <v>-32.82804890211615</v>
       </c>
       <c r="HY3" t="n">
-        <v>-14.76167170632955</v>
+        <v>-33.11432374092091</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-14.7445079726799</v>
+        <v>-33.37697008639491</v>
       </c>
       <c r="IA3" t="n">
-        <v>-14.72730477220167</v>
+        <v>-33.63766329905237</v>
       </c>
       <c r="IB3" t="n">
-        <v>-14.71006655287073</v>
+        <v>-33.86878597315252</v>
       </c>
       <c r="IC3" t="n">
-        <v>-14.69279770139681</v>
+        <v>-34.42335927940884</v>
       </c>
       <c r="ID3" t="n">
-        <v>-14.6755025431962</v>
+        <v>-34.96917618625135</v>
       </c>
       <c r="IE3" t="n">
-        <v>-14.65818534234987</v>
+        <v>-35.50172976101098</v>
       </c>
       <c r="IF3" t="n">
-        <v>-14.6408503015492</v>
+        <v>-36.31208040177935</v>
       </c>
       <c r="IG3" t="n">
-        <v>-14.62350156203164</v>
+        <v>-37.08820186935027</v>
       </c>
       <c r="IH3" t="n">
-        <v>-14.60614320350844</v>
+        <v>-37.83786125731851</v>
       </c>
       <c r="II3" t="n">
-        <v>-14.58877924408641</v>
+        <v>-38.5286814466777</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-14.57141364018577</v>
+        <v>-39.37107332754134</v>
       </c>
       <c r="IK3" t="n">
-        <v>-14.55405028645577</v>
+        <v>-40.19728641883682</v>
       </c>
       <c r="IL3" t="n">
-        <v>-14.53669301569007</v>
+        <v>-40.99296882149336</v>
       </c>
       <c r="IM3" t="n">
-        <v>-14.51934559874329</v>
+        <v>-41.74147949457731</v>
       </c>
       <c r="IN3" t="n">
-        <v>-14.50201174445051</v>
+        <v>-42.44935897063066</v>
       </c>
       <c r="IO3" t="n">
-        <v>-14.48469509955106</v>
+        <v>-43.0387512109989</v>
       </c>
       <c r="IP3" t="n">
-        <v>-14.46739924861812</v>
+        <v>-43.59959735053319</v>
       </c>
       <c r="IQ3" t="n">
-        <v>-14.45012771399528</v>
+        <v>-44.12883133381957</v>
       </c>
       <c r="IR3" t="n">
-        <v>-14.43288395574154</v>
+        <v>-44.62583061712802</v>
       </c>
       <c r="IS3" t="n">
-        <v>-14.4156713715856</v>
+        <v>-45.11357833528001</v>
       </c>
       <c r="IT3" t="n">
-        <v>-14.39849329689076</v>
+        <v>-45.5595283042643</v>
       </c>
       <c r="IU3" t="n">
-        <v>-14.38135300463131</v>
+        <v>-45.96738816331894</v>
       </c>
       <c r="IV3" t="n">
-        <v>-14.36425370538132</v>
+        <v>-46.16239418405247</v>
       </c>
       <c r="IW3" t="n">
-        <v>-14.34719854731668</v>
+        <v>-45.98371141451973</v>
       </c>
       <c r="IX3" t="n">
-        <v>-14.33019061623127</v>
+        <v>-45.68934604924315</v>
       </c>
       <c r="IY3" t="n">
-        <v>-14.31323293556774</v>
+        <v>-45.50706701393748</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-14.29632846646374</v>
+        <v>-45.80563731153</v>
       </c>
       <c r="JA3" t="n">
-        <v>-14.2794801078141</v>
+        <v>-46.09957065478547</v>
       </c>
       <c r="JB3" t="n">
-        <v>-14.26269069634944</v>
+        <v>-46.40355373274893</v>
       </c>
       <c r="JC3" t="n">
-        <v>-14.24596300673161</v>
+        <v>-46.75397536840965</v>
       </c>
       <c r="JD3" t="n">
-        <v>-14.2292997516665</v>
+        <v>-47.16678628335178</v>
       </c>
       <c r="JE3" t="n">
-        <v>-14.21270358203437</v>
+        <v>-47.58492037645887</v>
       </c>
       <c r="JF3" t="n">
-        <v>-14.19617708703804</v>
+        <v>-47.8924557992686</v>
       </c>
       <c r="JG3" t="n">
-        <v>-14.17972279436925</v>
+        <v>-48.17446324405723</v>
       </c>
       <c r="JH3" t="n">
-        <v>-14.16334317039313</v>
+        <v>-48.38141582026985</v>
       </c>
       <c r="JI3" t="n">
-        <v>-14.14704062035112</v>
+        <v>-48.55950787997291</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-14.13081748858228</v>
+        <v>-48.67870538213113</v>
       </c>
       <c r="JK3" t="n">
-        <v>-14.11467605876303</v>
+        <v>-47.45790261775949</v>
       </c>
       <c r="JL3" t="n">
-        <v>-14.09861855416534</v>
+        <v>-47.62619441258399</v>
       </c>
       <c r="JM3" t="n">
-        <v>-14.08264713793328</v>
+        <v>-47.78331521502947</v>
       </c>
       <c r="JN3" t="n">
-        <v>-14.06676391337776</v>
+        <v>-47.93184854795533</v>
       </c>
       <c r="JO3" t="n">
-        <v>-14.0509709242895</v>
+        <v>-48.05605202880383</v>
       </c>
       <c r="JP3" t="n">
-        <v>-14.03527015526983</v>
+        <v>-48.16787500138093</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-14.01966353207925</v>
+        <v>-48.26954714011236</v>
       </c>
       <c r="JR3" t="n">
-        <v>-14.00415292200357</v>
+        <v>-48.35855244096625</v>
       </c>
       <c r="JS3" t="n">
-        <v>-13.98874013423711</v>
+        <v>-48.44437998924192</v>
       </c>
       <c r="JT3" t="n">
-        <v>-13.97342692028298</v>
+        <v>-48.50619157854982</v>
       </c>
       <c r="JU3" t="n">
-        <v>-13.95821497436984</v>
+        <v>-48.52496845306089</v>
       </c>
       <c r="JV3" t="n">
-        <v>-13.94310593388499</v>
+        <v>-48.57803369354968</v>
       </c>
       <c r="JW3" t="n">
-        <v>-13.92810137982333</v>
+        <v>-48.62208899270836</v>
       </c>
       <c r="JX3" t="n">
-        <v>-13.91320283725175</v>
+        <v>-48.65598163008903</v>
       </c>
       <c r="JY3" t="n">
-        <v>-13.89841177578872</v>
+        <v>-48.68446981488212</v>
       </c>
       <c r="JZ3" t="n">
-        <v>-13.8837296100984</v>
+        <v>-48.70594750603874</v>
       </c>
       <c r="KA3" t="n">
-        <v>-13.8691577003991</v>
+        <v>-48.71932140492918</v>
       </c>
       <c r="KB3" t="n">
-        <v>-13.85469735298537</v>
+        <v>-48.72968904823015</v>
       </c>
       <c r="KC3" t="n">
-        <v>-13.8403498207635</v>
+        <v>-48.72880530241535</v>
       </c>
       <c r="KD3" t="n">
-        <v>-13.82611630379975</v>
+        <v>-48.72623198888702</v>
       </c>
       <c r="KE3" t="n">
-        <v>-13.81199794988091</v>
+        <v>-48.71673074089494</v>
       </c>
       <c r="KF3" t="n">
-        <v>-13.79799585508671</v>
+        <v>-48.70372433982303</v>
       </c>
       <c r="KG3" t="n">
-        <v>-13.78411106437354</v>
+        <v>-48.68576434623841</v>
       </c>
       <c r="KH3" t="n">
-        <v>-13.77034457216897</v>
+        <v>-48.66471090644725</v>
       </c>
       <c r="KI3" t="n">
-        <v>-13.75669732297653</v>
+        <v>-48.64049757488784</v>
       </c>
       <c r="KJ3" t="n">
-        <v>-13.74317021199033</v>
+        <v>-48.61285047464953</v>
       </c>
       <c r="KK3" t="n">
-        <v>-13.72976408571889</v>
+        <v>-48.58177865271252</v>
       </c>
       <c r="KL3" t="n">
-        <v>-13.71647974261767</v>
+        <v>-48.5477504603812</v>
       </c>
       <c r="KM3" t="n">
-        <v>-13.70331793372988</v>
+        <v>-48.51255986707719</v>
       </c>
       <c r="KN3" t="n">
-        <v>-13.69027936333493</v>
+        <v>-48.47399423801436</v>
       </c>
       <c r="KO3" t="n">
-        <v>-13.67736468960401</v>
+        <v>-48.43404531507025</v>
       </c>
       <c r="KP3" t="n">
-        <v>-13.66457452526244</v>
+        <v>-48.39210571675291</v>
       </c>
       <c r="KQ3" t="n">
-        <v>-13.65190943825799</v>
+        <v>-48.34849487738023</v>
       </c>
       <c r="KR3" t="n">
-        <v>-13.63936995243496</v>
+        <v>-48.3040989036333</v>
       </c>
       <c r="KS3" t="n">
-        <v>-13.62695654821332</v>
+        <v>-48.25908159076453</v>
       </c>
       <c r="KT3" t="n">
-        <v>-13.6146696632725</v>
+        <v>-48.21279501431574</v>
       </c>
       <c r="KU3" t="n">
-        <v>-13.60250969323927</v>
+        <v>-48.16656370170772</v>
       </c>
       <c r="KV3" t="n">
-        <v>-13.59047699237928</v>
+        <v>-48.11865475850124</v>
       </c>
       <c r="KW3" t="n">
-        <v>-13.57857187429181</v>
+        <v>-48.07106099354553</v>
       </c>
       <c r="KX3" t="n">
-        <v>-13.56679461260718</v>
+        <v>-48.02432383160706</v>
       </c>
       <c r="KY3" t="n">
-        <v>-13.55514544168634</v>
+        <v>-47.97698723772325</v>
       </c>
       <c r="KZ3" t="n">
-        <v>-13.54362455732235</v>
+        <v>-47.92948397060964</v>
       </c>
       <c r="LA3" t="n">
-        <v>-13.53223211744315</v>
+        <v>-47.88155709809229</v>
       </c>
       <c r="LB3" t="n">
-        <v>-13.52096824281518</v>
+        <v>-47.83455091793407</v>
       </c>
       <c r="LC3" t="n">
-        <v>-13.50983301774757</v>
+        <v>-47.78885790849424</v>
       </c>
       <c r="LD3" t="n">
-        <v>-13.49882649079636</v>
+        <v>-47.74417599966771</v>
       </c>
       <c r="LE3" t="n">
-        <v>-13.48794867546835</v>
+        <v>-47.69916416791933</v>
       </c>
       <c r="LF3" t="n">
-        <v>-13.47719955092426</v>
+        <v>-47.65569670277567</v>
       </c>
       <c r="LG3" t="n">
-        <v>-13.46657906268081</v>
+        <v>-47.61238253869645</v>
       </c>
       <c r="LH3" t="n">
-        <v>-13.45608712331125</v>
+        <v>-47.5703175232851</v>
       </c>
       <c r="LI3" t="n">
-        <v>-13.44572361314407</v>
+        <v>-47.52934186825767</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-13.43548838095958</v>
+        <v>-47.48867763530566</v>
       </c>
       <c r="LK3" t="n">
-        <v>-13.42538124468389</v>
+        <v>-47.44961039919194</v>
       </c>
       <c r="LL3" t="n">
-        <v>-13.41540199208011</v>
+        <v>-47.41072479932918</v>
       </c>
       <c r="LM3" t="n">
-        <v>-13.4055503814363</v>
+        <v>-47.37289844665347</v>
       </c>
       <c r="LN3" t="n">
-        <v>-13.39582614225009</v>
+        <v>-47.3353705001156</v>
       </c>
       <c r="LO3" t="n">
-        <v>-13.38622897590938</v>
+        <v>-47.29903372290546</v>
       </c>
       <c r="LP3" t="n">
-        <v>-13.37675855636917</v>
+        <v>-47.23001830565936</v>
       </c>
       <c r="LQ3" t="n">
-        <v>-13.36741453082398</v>
+        <v>-47.19818372394316</v>
       </c>
       <c r="LR3" t="n">
-        <v>-13.35819652037576</v>
+        <v>-47.16828666620835</v>
       </c>
       <c r="LS3" t="n">
-        <v>-13.34910412069698</v>
+        <v>-47.13868272687461</v>
       </c>
       <c r="LT3" t="n">
-        <v>-13.34013690268869</v>
+        <v>-47.11019837588272</v>
       </c>
       <c r="LU3" t="n">
-        <v>-13.33129441313333</v>
+        <v>-47.08284667296421</v>
       </c>
       <c r="LV3" t="n">
-        <v>-13.32257617534206</v>
+        <v>-47.05640385536133</v>
       </c>
       <c r="LW3" t="n">
-        <v>-13.31398168979642</v>
+        <v>-47.03128094183892</v>
       </c>
       <c r="LX3" t="n">
-        <v>-13.30551043478413</v>
+        <v>-47.00725195237843</v>
       </c>
       <c r="LY3" t="n">
-        <v>-13.29716186702882</v>
+        <v>-46.98491356611815</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-13.28893542231362</v>
+        <v>-46.96280518405611</v>
       </c>
       <c r="MA3" t="n">
-        <v>-13.28083051609824</v>
+        <v>-46.94174377017215</v>
       </c>
       <c r="MB3" t="n">
-        <v>-13.27284654412971</v>
+        <v>-46.92250204439095</v>
       </c>
       <c r="MC3" t="n">
-        <v>-13.26498288304628</v>
+        <v>-46.90406995824895</v>
       </c>
       <c r="MD3" t="n">
-        <v>-13.25723889097461</v>
+        <v>-46.8866067734245</v>
       </c>
       <c r="ME3" t="n">
-        <v>-13.24961390812004</v>
+        <v>-46.87029573123737</v>
       </c>
       <c r="MF3" t="n">
-        <v>-13.24210725734982</v>
+        <v>-46.85408228270498</v>
       </c>
       <c r="MG3" t="n">
-        <v>-13.23471824476916</v>
+        <v>-46.83899549529556</v>
       </c>
       <c r="MH3" t="n">
-        <v>-13.22744616029011</v>
+        <v>-46.82484584950832</v>
       </c>
       <c r="MI3" t="n">
-        <v>-13.2202902781931</v>
+        <v>-46.81285389892917</v>
       </c>
       <c r="MJ3" t="n">
-        <v>-13.21324985768105</v>
+        <v>-46.80009439935336</v>
       </c>
       <c r="MK3" t="n">
-        <v>-13.20632414342601</v>
+        <v>-46.78759037752206</v>
       </c>
       <c r="ML3" t="n">
-        <v>-13.19951236610831</v>
+        <v>-46.77663361660979</v>
       </c>
       <c r="MM3" t="n">
-        <v>-13.19281374294809</v>
+        <v>-46.76687000089616</v>
       </c>
       <c r="MN3" t="n">
-        <v>-13.18622747822915</v>
+        <v>-46.75684580197989</v>
       </c>
       <c r="MO3" t="n">
-        <v>-13.17975276381516</v>
+        <v>-46.74790746854295</v>
       </c>
       <c r="MP3" t="n">
-        <v>-13.17338877965814</v>
+        <v>-46.73965133269315</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-13.16713469429916</v>
+        <v>-46.69820948795583</v>
       </c>
       <c r="MR3" t="n">
-        <v>-13.16098966536132</v>
+        <v>-46.69270343280279</v>
       </c>
       <c r="MS3" t="n">
-        <v>-13.15495284003484</v>
+        <v>-46.6870797617856</v>
       </c>
       <c r="MT3" t="n">
-        <v>-13.14902335555445</v>
+        <v>-46.68315784328022</v>
       </c>
       <c r="MU3" t="n">
-        <v>-13.14320033966891</v>
+        <v>-46.67914293999252</v>
       </c>
       <c r="MV3" t="n">
-        <v>-13.13748291110272</v>
+        <v>-46.67564065120185</v>
       </c>
       <c r="MW3" t="n">
-        <v>-13.13187018001004</v>
+        <v>-46.67267297269949</v>
       </c>
       <c r="MX3" t="n">
-        <v>-13.12636124842079</v>
+        <v>-46.67011241242216</v>
       </c>
       <c r="MY3" t="n">
-        <v>-13.12095521067896</v>
+        <v>-46.6679841806508</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-13.11565115387322</v>
+        <v>-46.66687386326413</v>
       </c>
       <c r="NA3" t="n">
-        <v>-13.11044815825967</v>
+        <v>-46.66551220615265</v>
       </c>
       <c r="NB3" t="n">
-        <v>-13.10534529767694</v>
+        <v>-46.66470745185887</v>
       </c>
       <c r="NC3" t="n">
-        <v>-13.10034163995363</v>
+        <v>-46.66423850189699</v>
       </c>
       <c r="ND3" t="n">
-        <v>-13.09543624730801</v>
+        <v>-46.66327308325626</v>
       </c>
       <c r="NE3" t="n">
-        <v>-13.09062817674017</v>
+        <v>-46.66265590495303</v>
       </c>
       <c r="NF3" t="n">
-        <v>-13.08591648041658</v>
+        <v>-46.66415073932602</v>
       </c>
       <c r="NG3" t="n">
-        <v>-13.0813002060471</v>
+        <v>-46.66459076640527</v>
       </c>
       <c r="NH3" t="n">
-        <v>-13.07677839725452</v>
+        <v>-46.66526239195571</v>
       </c>
       <c r="NI3" t="n">
-        <v>-13.07235009393664</v>
+        <v>-46.66558568380217</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-13.06801433262101</v>
+        <v>-46.66689296934204</v>
       </c>
       <c r="NK3" t="n">
-        <v>-13.06377014681232</v>
+        <v>-46.66816498885598</v>
       </c>
       <c r="NL3" t="n">
-        <v>-13.05961656733249</v>
+        <v>-46.67094912499026</v>
       </c>
       <c r="NM3" t="n">
-        <v>-13.05555262265359</v>
+        <v>-46.67247994439151</v>
       </c>
       <c r="NN3" t="n">
-        <v>-13.0515773392236</v>
+        <v>-46.67414290709237</v>
       </c>
       <c r="NO3" t="n">
-        <v>-13.04768974178507</v>
+        <v>-46.67556094145337</v>
       </c>
       <c r="NP3" t="n">
-        <v>-13.04388885368676</v>
+        <v>-46.67765894455</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-13.04017369718835</v>
+        <v>-46.67964351611012</v>
       </c>
       <c r="NR3" t="n">
-        <v>-13.03654329375824</v>
+        <v>-46.68114696983584</v>
       </c>
       <c r="NS3" t="n">
-        <v>-13.03299666436453</v>
+        <v>-46.68330191665032</v>
       </c>
       <c r="NT3" t="n">
-        <v>-13.02953282975925</v>
+        <v>-46.68495371852148</v>
       </c>
       <c r="NU3" t="n">
-        <v>-13.02615081075599</v>
+        <v>-46.68723617138951</v>
       </c>
       <c r="NV3" t="n">
-        <v>-13.02284962850081</v>
+        <v>-46.68955729393459</v>
       </c>
       <c r="NW3" t="n">
-        <v>-13.0196283047367</v>
+        <v>-46.69155269102792</v>
       </c>
       <c r="NX3" t="n">
-        <v>-13.01648586206161</v>
+        <v>-46.69413635655467</v>
       </c>
       <c r="NY3" t="n">
-        <v>-13.01342132418002</v>
+        <v>-46.69596611217183</v>
       </c>
       <c r="NZ3" t="n">
-        <v>-13.01043371614833</v>
+        <v>-46.69838532680478</v>
       </c>
       <c r="OA3" t="n">
-        <v>-13.00752206461389</v>
+        <v>-46.70080253122021</v>
       </c>
       <c r="OB3" t="n">
-        <v>-13.00468539804804</v>
+        <v>-46.70326146951192</v>
       </c>
       <c r="OC3" t="n">
-        <v>-13.00192274697293</v>
+        <v>-46.70529316459518</v>
       </c>
       <c r="OD3" t="n">
-        <v>-12.99923314418252</v>
+        <v>-46.70735766497025</v>
       </c>
       <c r="OE3" t="n">
-        <v>-12.99661562495749</v>
+        <v>-46.70928143356333</v>
       </c>
       <c r="OF3" t="n">
-        <v>-12.99406922727453</v>
+        <v>-46.71105207378559</v>
       </c>
       <c r="OG3" t="n">
-        <v>-12.99159299200968</v>
+        <v>-46.71401902366155</v>
       </c>
       <c r="OH3" t="n">
-        <v>-12.98918596313613</v>
+        <v>-46.71595249922913</v>
       </c>
       <c r="OI3" t="n">
-        <v>-12.98684718791642</v>
+        <v>-46.71842082917756</v>
       </c>
       <c r="OJ3" t="n">
-        <v>-12.98457571708908</v>
+        <v>-46.7200301635751</v>
       </c>
       <c r="OK3" t="n">
-        <v>-12.98237060504985</v>
+        <v>-46.72106852634028</v>
       </c>
       <c r="OL3" t="n">
-        <v>-12.9802309100276</v>
+        <v>-46.68830139110132</v>
       </c>
       <c r="OM3" t="n">
-        <v>-12.97815569425494</v>
+        <v>-46.69194816615775</v>
       </c>
       <c r="ON3" t="n">
-        <v>-12.97614402413364</v>
+        <v>-46.69532459749308</v>
       </c>
       <c r="OO3" t="n">
-        <v>-12.97419497039491</v>
+        <v>-46.69863948127865</v>
       </c>
       <c r="OP3" t="n">
-        <v>-12.97230760825472</v>
+        <v>-46.70188836677275</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-12.9704810175641</v>
+        <v>-46.70450579848728</v>
       </c>
       <c r="OR3" t="n">
-        <v>-12.96871428295456</v>
+        <v>-46.67324348461889</v>
       </c>
       <c r="OS3" t="n">
-        <v>-12.96700649397875</v>
+        <v>-46.67701237329551</v>
       </c>
       <c r="OT3" t="n">
-        <v>-12.96535674524637</v>
+        <v>-46.6812811128468</v>
       </c>
       <c r="OU3" t="n">
-        <v>-12.96376413655541</v>
+        <v>-46.68566017108086</v>
       </c>
       <c r="OV3" t="n">
-        <v>-12.96222777301887</v>
+        <v>-46.6921034929689</v>
       </c>
       <c r="OW3" t="n">
-        <v>-12.96074676518695</v>
+        <v>-46.69801056610506</v>
       </c>
       <c r="OX3" t="n">
-        <v>-12.95932022916479</v>
+        <v>-46.66927115116699</v>
       </c>
       <c r="OY3" t="n">
-        <v>-12.95794728672595</v>
+        <v>-46.67203618777994</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-12.9566270654215</v>
+        <v>-46.67585697907371</v>
       </c>
       <c r="PA3" t="n">
-        <v>-12.95535869868505</v>
+        <v>-46.68004503330646</v>
       </c>
       <c r="PB3" t="n">
-        <v>-12.95414132593351</v>
+        <v>-46.68722067066773</v>
       </c>
       <c r="PC3" t="n">
-        <v>-12.95297409266387</v>
+        <v>-46.69905547139573</v>
       </c>
       <c r="PD3" t="n">
-        <v>-12.95185615054603</v>
+        <v>-46.71263626574935</v>
       </c>
       <c r="PE3" t="n">
-        <v>-12.95078665751165</v>
+        <v>-46.72536982056502</v>
       </c>
       <c r="PF3" t="n">
-        <v>-12.94976477783915</v>
+        <v>-46.74034144188138</v>
       </c>
       <c r="PG3" t="n">
-        <v>-12.94878968223505</v>
+        <v>-46.7564996023881</v>
       </c>
       <c r="PH3" t="n">
-        <v>-12.94786054791145</v>
+        <v>-46.76492112862517</v>
       </c>
       <c r="PI3" t="n">
-        <v>-12.94697655866001</v>
+        <v>-46.77472229841269</v>
       </c>
       <c r="PJ3" t="n">
-        <v>-12.94613690492227</v>
+        <v>-46.78717342171848</v>
       </c>
       <c r="PK3" t="n">
-        <v>-12.94534078385653</v>
+        <v>-46.80085227025045</v>
       </c>
       <c r="PL3" t="n">
-        <v>-12.94458739940124</v>
+        <v>-46.81019124836571</v>
       </c>
       <c r="PM3" t="n">
-        <v>-12.94387596233511</v>
+        <v>-46.82438517757748</v>
       </c>
       <c r="PN3" t="n">
-        <v>-12.94320569033378</v>
+        <v>-46.8394274817461</v>
       </c>
       <c r="PO3" t="n">
-        <v>-12.94257580802339</v>
+        <v>-46.64179362125445</v>
       </c>
       <c r="PP3" t="n">
-        <v>-12.9419855470309</v>
+        <v>-46.67150086037983</v>
       </c>
       <c r="PQ3" t="n">
-        <v>-12.94143414603128</v>
+        <v>-46.70233227790042</v>
       </c>
       <c r="PR3" t="n">
-        <v>-12.94092085079172</v>
+        <v>-46.74360508090719</v>
       </c>
       <c r="PS3" t="n">
-        <v>-12.94044491421276</v>
+        <v>-46.76916581711406</v>
       </c>
       <c r="PT3" t="n">
-        <v>-12.94000559636659</v>
+        <v>-46.79024323339035</v>
       </c>
       <c r="PU3" t="n">
-        <v>-12.93960216453237</v>
+        <v>-46.81928046816508</v>
       </c>
       <c r="PV3" t="n">
-        <v>-12.93923389322885</v>
+        <v>-46.84378635472522</v>
       </c>
       <c r="PW3" t="n">
-        <v>-12.93890006424414</v>
+        <v>-46.86935232902253</v>
       </c>
       <c r="PX3" t="n">
-        <v>-12.93859996666286</v>
+        <v>-46.96383359971486</v>
       </c>
       <c r="PY3" t="n">
-        <v>-12.93833289689061</v>
+        <v>-47.06015179717218</v>
       </c>
       <c r="PZ3" t="n">
-        <v>-12.93809815867587</v>
+        <v>-47.13733376881385</v>
       </c>
       <c r="QA3" t="n">
-        <v>-12.93789506312939</v>
+        <v>-47.22166945810174</v>
       </c>
       <c r="QB3" t="n">
-        <v>-12.93772292874106</v>
+        <v>-47.11839863683864</v>
       </c>
       <c r="QC3" t="n">
-        <v>-12.93758108139445</v>
+        <v>-47.01411649818184</v>
       </c>
       <c r="QD3" t="n">
-        <v>-12.93746885437891</v>
+        <v>-46.91609969518752</v>
       </c>
       <c r="QE3" t="n">
-        <v>-12.93738558839937</v>
+        <v>-46.8271609972882</v>
       </c>
       <c r="QF3" t="n">
-        <v>-12.93733063158394</v>
+        <v>-46.45271702797828</v>
       </c>
       <c r="QG3" t="n">
-        <v>-12.93730333948924</v>
+        <v>-46.07282180087769</v>
       </c>
       <c r="QH3" t="n">
-        <v>-12.93730307510359</v>
+        <v>-45.70085869155288</v>
       </c>
       <c r="QI3" t="n">
-        <v>-12.93732920884813</v>
+        <v>-45.33391626094515</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-12.93738111857586</v>
+        <v>-44.64494107529762</v>
       </c>
       <c r="QK3" t="n">
-        <v>-12.93745818956863</v>
+        <v>-43.98403822339446</v>
       </c>
       <c r="QL3" t="n">
-        <v>-12.93755981453227</v>
+        <v>-43.35234562736501</v>
       </c>
       <c r="QM3" t="n">
-        <v>-12.93768539358972</v>
+        <v>-42.59868443230201</v>
       </c>
       <c r="QN3" t="n">
-        <v>-12.93783433427234</v>
+        <v>-41.82179763280291</v>
       </c>
       <c r="QO3" t="n">
-        <v>-12.93800605150939</v>
+        <v>-41.04706078661567</v>
       </c>
       <c r="QP3" t="n">
-        <v>-12.93819996761577</v>
+        <v>-40.34233446939999</v>
       </c>
       <c r="QQ3" t="n">
-        <v>-12.93841551227795</v>
+        <v>-39.67115876925982</v>
       </c>
       <c r="QR3" t="n">
-        <v>-12.9386521225383</v>
+        <v>-38.79366913068646</v>
       </c>
       <c r="QS3" t="n">
-        <v>-12.93890924277779</v>
+        <v>-37.91765354073051</v>
       </c>
       <c r="QT3" t="n">
-        <v>-12.939186324697</v>
+        <v>-37.11158101048292</v>
       </c>
       <c r="QU3" t="n">
-        <v>-12.93948282729566</v>
+        <v>-36.34546052993208</v>
       </c>
       <c r="QV3" t="n">
-        <v>-12.93979821685065</v>
+        <v>-35.61490867974644</v>
       </c>
       <c r="QW3" t="n">
-        <v>-12.94013196689257</v>
+        <v>-34.63529288365108</v>
       </c>
       <c r="QX3" t="n">
-        <v>-12.94048355818076</v>
+        <v>-33.70247775605414</v>
       </c>
       <c r="QY3" t="n">
-        <v>-12.94085247867713</v>
+        <v>-32.80269057756206</v>
       </c>
       <c r="QZ3" t="n">
-        <v>-12.94123822351843</v>
+        <v>-31.9167170102093</v>
       </c>
       <c r="RA3" t="n">
-        <v>-12.94164029498736</v>
+        <v>-31.10581712658439</v>
       </c>
       <c r="RB3" t="n">
-        <v>-12.94205820248233</v>
+        <v>-30.34528631517017</v>
       </c>
       <c r="RC3" t="n">
-        <v>-12.94249146248603</v>
+        <v>-29.62608519477365</v>
       </c>
       <c r="RD3" t="n">
-        <v>-12.94293959853279</v>
+        <v>-28.94561844147558</v>
       </c>
       <c r="RE3" t="n">
-        <v>-12.94340214117473</v>
+        <v>-28.30654052742447</v>
       </c>
       <c r="RF3" t="n">
-        <v>-12.94387862794688</v>
+        <v>-27.70637088417578</v>
       </c>
       <c r="RG3" t="n">
-        <v>-12.94436860333113</v>
+        <v>-27.13943795831447</v>
       </c>
       <c r="RH3" t="n">
-        <v>-12.94487161871918</v>
+        <v>-26.60856948369037</v>
       </c>
       <c r="RI3" t="n">
-        <v>-12.94538723237441</v>
+        <v>-26.11307420351659</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-12.94591500939285</v>
+        <v>-25.65644983290675</v>
       </c>
       <c r="RK3" t="n">
-        <v>-12.94645452166312</v>
+        <v>-25.23047223030791</v>
       </c>
       <c r="RL3" t="n">
-        <v>-12.9470053478255</v>
+        <v>-24.83378287031907</v>
       </c>
       <c r="RM3" t="n">
-        <v>-12.94756707323008</v>
+        <v>-24.46571149942013</v>
       </c>
       <c r="RN3" t="n">
-        <v>-12.94813928989409</v>
+        <v>-24.12758521924441</v>
       </c>
       <c r="RO3" t="n">
-        <v>-12.94872159645834</v>
+        <v>-23.81481960415582</v>
       </c>
       <c r="RP3" t="n">
-        <v>-12.949313598143</v>
+        <v>-23.53319193218681</v>
       </c>
       <c r="RQ3" t="n">
-        <v>-12.94991490670245</v>
+        <v>-23.27762078712477</v>
       </c>
       <c r="RR3" t="n">
-        <v>-12.95052514037953</v>
+        <v>-23.04460151360874</v>
       </c>
       <c r="RS3" t="n">
-        <v>-12.95114392385901</v>
+        <v>-22.83293648958167</v>
       </c>
       <c r="RT3" t="n">
-        <v>-12.95177088822042</v>
+        <v>-22.63295355659761</v>
       </c>
       <c r="RU3" t="n">
-        <v>-12.95240567089025</v>
+        <v>-22.02200177077962</v>
       </c>
       <c r="RV3" t="n">
-        <v>-12.95304791559346</v>
+        <v>-20.98965588518307</v>
       </c>
       <c r="RW3" t="n">
-        <v>-12.9536972723045</v>
+        <v>-19.82378296599907</v>
       </c>
       <c r="RX3" t="n">
-        <v>-12.95435339719766</v>
+        <v>-18.78160501919472</v>
       </c>
       <c r="RY3" t="n">
-        <v>-12.95501595259698</v>
+        <v>-17.18499858992397</v>
       </c>
       <c r="RZ3" t="n">
-        <v>-12.95568460692559</v>
+        <v>-17.14340791572838</v>
       </c>
       <c r="SA3" t="n">
-        <v>-12.95635903465454</v>
+        <v>-16.42034187181001</v>
       </c>
       <c r="SB3" t="n">
-        <v>-12.95703891625129</v>
+        <v>-16.58427230610039</v>
       </c>
       <c r="SC3" t="n">
-        <v>-12.95772393812758</v>
+        <v>-16.79537337734976</v>
       </c>
       <c r="SD3" t="n">
-        <v>-12.95841379258707</v>
+        <v>-17.00257714872732</v>
       </c>
       <c r="SE3" t="n">
-        <v>-12.95910817777246</v>
+        <v>-17.28070544574742</v>
       </c>
       <c r="SF3" t="n">
-        <v>-12.95980679761231</v>
+        <v>-17.63497425112313</v>
       </c>
       <c r="SG3" t="n">
-        <v>-12.96050936176749</v>
+        <v>-17.80329617705554</v>
+      </c>
+      <c r="SH3" t="n">
+        <v>-17.30250231920664</v>
+      </c>
+      <c r="SI3" t="n">
+        <v>-17.64749492554948</v>
+      </c>
+      <c r="SJ3" t="n">
+        <v>-17.96740110165734</v>
+      </c>
+      <c r="SK3" t="n">
+        <v>-18.25126881753309</v>
+      </c>
+      <c r="SL3" t="n">
+        <v>-18.53577586765999</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>-18.77676900280786</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>-18.99699927775785</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>-19.19707795885274</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>-19.46159536365629</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>-19.70197385625848</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>-19.93749070493986</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>-20.16857561021914</v>
+      </c>
+      <c r="ST3" t="n">
+        <v>-20.39878715645222</v>
+      </c>
+      <c r="SU3" t="n">
+        <v>-20.62555506810196</v>
+      </c>
+      <c r="SV3" t="n">
+        <v>-20.82777370703552</v>
+      </c>
+      <c r="SW3" t="n">
+        <v>-21.04854044490669</v>
+      </c>
+      <c r="SX3" t="n">
+        <v>-21.26543880798757</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>-21.47735499839183</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>-21.68414550289868</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>-21.88832961451124</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>-22.08602819637662</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>-22.27717253492895</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>-22.46456493213842</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>-22.64580603809385</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>-22.82082427363408</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>-22.99107442342695</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>-23.15422221817341</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>-23.31339025185203</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>-23.46740174564335</v>
+      </c>
+      <c r="TK3" t="n">
+        <v>-23.61551834973376</v>
+      </c>
+      <c r="TL3" t="n">
+        <v>-23.75709273546817</v>
+      </c>
+      <c r="TM3" t="n">
+        <v>-23.89298929436496</v>
+      </c>
+      <c r="TN3" t="n">
+        <v>-24.02284766998325</v>
+      </c>
+      <c r="TO3" t="n">
+        <v>-24.14754787037505</v>
+      </c>
+      <c r="TP3" t="n">
+        <v>-24.2671875678678</v>
+      </c>
+      <c r="TQ3" t="n">
+        <v>-24.379948507498</v>
+      </c>
+      <c r="TR3" t="n">
+        <v>-24.48704473910549</v>
+      </c>
+      <c r="TS3" t="n">
+        <v>-24.58893636201542</v>
+      </c>
+      <c r="TT3" t="n">
+        <v>-24.68613854069458</v>
+      </c>
+      <c r="TU3" t="n">
+        <v>-24.78017722197414</v>
+      </c>
+      <c r="TV3" t="n">
+        <v>-24.86791321887193</v>
+      </c>
+      <c r="TW3" t="n">
+        <v>-24.92973340643252</v>
+      </c>
+      <c r="TX3" t="n">
+        <v>-25.00817968609325</v>
+      </c>
+      <c r="TY3" t="n">
+        <v>-25.0835522799002</v>
+      </c>
+      <c r="TZ3" t="n">
+        <v>-25.15514697106055</v>
+      </c>
+      <c r="UA3" t="n">
+        <v>-25.22123978919571</v>
+      </c>
+      <c r="UB3" t="n">
+        <v>-25.2843075800023</v>
+      </c>
+      <c r="UC3" t="n">
+        <v>-25.34341888677876</v>
+      </c>
+      <c r="UD3" t="n">
+        <v>-25.39857653831173</v>
+      </c>
+      <c r="UE3" t="n">
+        <v>-25.45044140957222</v>
+      </c>
+      <c r="UF3" t="n">
+        <v>-25.4963284433517</v>
+      </c>
+      <c r="UG3" t="n">
+        <v>-25.5396841468259</v>
+      </c>
+      <c r="UH3" t="n">
+        <v>-25.57966250983764</v>
+      </c>
+      <c r="UI3" t="n">
+        <v>-25.61503214252544</v>
+      </c>
+      <c r="UJ3" t="n">
+        <v>-25.64903763862551</v>
+      </c>
+      <c r="UK3" t="n">
+        <v>-25.681476298839</v>
+      </c>
+      <c r="UL3" t="n">
+        <v>-25.70984683290558</v>
+      </c>
+      <c r="UM3" t="n">
+        <v>-25.73489835881295</v>
+      </c>
+      <c r="UN3" t="n">
+        <v>-25.75736475309064</v>
+      </c>
+      <c r="UO3" t="n">
+        <v>-25.77594356506733</v>
+      </c>
+      <c r="UP3" t="n">
+        <v>-25.7936670680816</v>
+      </c>
+      <c r="UQ3" t="n">
+        <v>-25.80985273054957</v>
+      </c>
+      <c r="UR3" t="n">
+        <v>-25.82356169162433</v>
+      </c>
+      <c r="US3" t="n">
+        <v>-25.83530277155174</v>
+      </c>
+      <c r="UT3" t="n">
+        <v>-25.84513138303416</v>
+      </c>
+      <c r="UU3" t="n">
+        <v>-25.85401924426098</v>
+      </c>
+      <c r="UV3" t="n">
+        <v>-25.86104645900309</v>
+      </c>
+      <c r="UW3" t="n">
+        <v>-25.86502691934854</v>
+      </c>
+      <c r="UX3" t="n">
+        <v>-25.86932224735245</v>
+      </c>
+      <c r="UY3" t="n">
+        <v>-25.87124240180011</v>
+      </c>
+      <c r="UZ3" t="n">
+        <v>-25.87295122863699</v>
+      </c>
+      <c r="VA3" t="n">
+        <v>-25.87229780970866</v>
+      </c>
+      <c r="VB3" t="n">
+        <v>-25.8706179561205</v>
+      </c>
+      <c r="VC3" t="n">
+        <v>-25.86827478336704</v>
+      </c>
+      <c r="VD3" t="n">
+        <v>-25.86521364657706</v>
+      </c>
+      <c r="VE3" t="n">
+        <v>-25.86145435747759</v>
+      </c>
+      <c r="VF3" t="n">
+        <v>-25.85672622059684</v>
+      </c>
+      <c r="VG3" t="n">
+        <v>-25.85126066842207</v>
+      </c>
+      <c r="VH3" t="n">
+        <v>-25.8441879631811</v>
+      </c>
+      <c r="VI3" t="n">
+        <v>-25.83748218846895</v>
+      </c>
+      <c r="VJ3" t="n">
+        <v>-25.82962045257624</v>
+      </c>
+      <c r="VK3" t="n">
+        <v>-25.79697196519112</v>
+      </c>
+      <c r="VL3" t="n">
+        <v>-25.78949924269653</v>
+      </c>
+      <c r="VM3" t="n">
+        <v>-25.78139226708769</v>
+      </c>
+      <c r="VN3" t="n">
+        <v>-25.77382118770899</v>
+      </c>
+      <c r="VO3" t="n">
+        <v>-25.76636490469008</v>
+      </c>
+      <c r="VP3" t="n">
+        <v>-25.75769918797103</v>
+      </c>
+      <c r="VQ3" t="n">
+        <v>-25.74838617592824</v>
+      </c>
+      <c r="VR3" t="n">
+        <v>-25.71376403788689</v>
+      </c>
+      <c r="VS3" t="n">
+        <v>-25.705589300399</v>
+      </c>
+      <c r="VT3" t="n">
+        <v>-25.69732177619115</v>
+      </c>
+      <c r="VU3" t="n">
+        <v>-25.68857621429273</v>
+      </c>
+      <c r="VV3" t="n">
+        <v>-25.65548483662728</v>
+      </c>
+      <c r="VW3" t="n">
+        <v>-25.64804070421839</v>
+      </c>
+      <c r="VX3" t="n">
+        <v>-25.63962501467342</v>
+      </c>
+      <c r="VY3" t="n">
+        <v>-25.63283846933229</v>
+      </c>
+      <c r="VZ3" t="n">
+        <v>-25.65249589837448</v>
+      </c>
+      <c r="WA3" t="n">
+        <v>-25.6442055822606</v>
+      </c>
+      <c r="WB3" t="n">
+        <v>-25.63599505355489</v>
+      </c>
+      <c r="WC3" t="n">
+        <v>-25.62746651421315</v>
+      </c>
+      <c r="WD3" t="n">
+        <v>-25.61995919959179</v>
+      </c>
+      <c r="WE3" t="n">
+        <v>-25.61223299937855</v>
+      </c>
+      <c r="WF3" t="n">
+        <v>-25.60454863882757</v>
+      </c>
+      <c r="WG3" t="n">
+        <v>-25.59620300338102</v>
+      </c>
+      <c r="WH3" t="n">
+        <v>-25.58878132866374</v>
+      </c>
+      <c r="WI3" t="n">
+        <v>-25.58111133840148</v>
+      </c>
+      <c r="WJ3" t="n">
+        <v>-25.57404404615718</v>
+      </c>
+      <c r="WK3" t="n">
+        <v>-25.56683122218451</v>
+      </c>
+      <c r="WL3" t="n">
+        <v>-25.56031126404378</v>
+      </c>
+      <c r="WM3" t="n">
+        <v>-25.55306524507149</v>
+      </c>
+      <c r="WN3" t="n">
+        <v>-25.52167465571117</v>
+      </c>
+      <c r="WO3" t="n">
+        <v>-25.51652041791373</v>
+      </c>
+      <c r="WP3" t="n">
+        <v>-25.51114839597706</v>
+      </c>
+      <c r="WQ3" t="n">
+        <v>-25.50598722056852</v>
+      </c>
+      <c r="WR3" t="n">
+        <v>-25.50144960086325</v>
+      </c>
+      <c r="WS3" t="n">
+        <v>-25.49710428290225</v>
+      </c>
+      <c r="WT3" t="n">
+        <v>-25.49343000263237</v>
+      </c>
+      <c r="WU3" t="n">
+        <v>-25.46556652429246</v>
+      </c>
+      <c r="WV3" t="n">
+        <v>-25.46224086803985</v>
+      </c>
+      <c r="WW3" t="n">
+        <v>-25.45910996984742</v>
+      </c>
+      <c r="WX3" t="n">
+        <v>-25.45746274375774</v>
+      </c>
+      <c r="WY3" t="n">
+        <v>-25.45367592101502</v>
+      </c>
+      <c r="WZ3" t="n">
+        <v>-25.45149771893553</v>
+      </c>
+      <c r="XA3" t="n">
+        <v>-25.44947604111757</v>
+      </c>
+      <c r="XB3" t="n">
+        <v>-25.44760505609133</v>
+      </c>
+      <c r="XC3" t="n">
+        <v>-25.42154009743484</v>
+      </c>
+      <c r="XD3" t="n">
+        <v>-25.42085937143223</v>
+      </c>
+      <c r="XE3" t="n">
+        <v>-25.42018201920232</v>
+      </c>
+      <c r="XF3" t="n">
+        <v>-25.42005811611816</v>
+      </c>
+      <c r="XG3" t="n">
+        <v>-25.41867126126647</v>
+      </c>
+      <c r="XH3" t="n">
+        <v>-25.4185012113124</v>
+      </c>
+      <c r="XI3" t="n">
+        <v>-25.4180747716749</v>
+      </c>
+      <c r="XJ3" t="n">
+        <v>-25.41769813461733</v>
+      </c>
+      <c r="XK3" t="n">
+        <v>-25.41946669390325</v>
+      </c>
+      <c r="XL3" t="n">
+        <v>-25.4189706732979</v>
+      </c>
+      <c r="XM3" t="n">
+        <v>-25.39421976437431</v>
+      </c>
+      <c r="XN3" t="n">
+        <v>-25.39547632795055</v>
+      </c>
+      <c r="XO3" t="n">
+        <v>-25.39679264814697</v>
+      </c>
+      <c r="XP3" t="n">
+        <v>-25.39780392097198</v>
+      </c>
+      <c r="XQ3" t="n">
+        <v>-25.39857496290364</v>
+      </c>
+      <c r="XR3" t="n">
+        <v>-25.3994079313871</v>
+      </c>
+      <c r="XS3" t="n">
+        <v>-25.40064916184591</v>
+      </c>
+      <c r="XT3" t="n">
+        <v>-25.40246524862922</v>
+      </c>
+      <c r="XU3" t="n">
+        <v>-25.40405398965529</v>
+      </c>
+      <c r="XV3" t="n">
+        <v>-25.4050006113078</v>
+      </c>
+      <c r="XW3" t="n">
+        <v>-25.40693248997302</v>
+      </c>
+      <c r="XX3" t="n">
+        <v>-25.40855799734344</v>
+      </c>
+      <c r="XY3" t="n">
+        <v>-25.41018175447908</v>
+      </c>
+      <c r="XZ3" t="n">
+        <v>-25.41073043807155</v>
+      </c>
+      <c r="YA3" t="n">
+        <v>-25.41237816412997</v>
+      </c>
+      <c r="YB3" t="n">
+        <v>-25.38967347026939</v>
+      </c>
+      <c r="YC3" t="n">
+        <v>-25.39219695000422</v>
+      </c>
+      <c r="YD3" t="n">
+        <v>-25.39469797062043</v>
+      </c>
+      <c r="YE3" t="n">
+        <v>-25.39717145201787</v>
+      </c>
+      <c r="YF3" t="n">
+        <v>-25.37527390215831</v>
+      </c>
+      <c r="YG3" t="n">
+        <v>-25.37916940577546</v>
+      </c>
+      <c r="YH3" t="n">
+        <v>-25.38339016511121</v>
+      </c>
+      <c r="YI3" t="n">
+        <v>-25.38678953412833</v>
+      </c>
+      <c r="YJ3" t="n">
+        <v>-25.36577302176081</v>
+      </c>
+      <c r="YK3" t="n">
+        <v>-25.36881851304568</v>
+      </c>
+      <c r="YL3" t="n">
+        <v>-25.37445172596065</v>
+      </c>
+      <c r="YM3" t="n">
+        <v>-25.37715835589988</v>
+      </c>
+      <c r="YN3" t="n">
+        <v>-25.38269186811446</v>
+      </c>
+      <c r="YO3" t="n">
+        <v>-25.4152445527315</v>
+      </c>
+      <c r="YP3" t="n">
+        <v>-25.41690580583345</v>
+      </c>
+      <c r="YQ3" t="n">
+        <v>-25.41958077522534</v>
+      </c>
+      <c r="YR3" t="n">
+        <v>-25.42150516497264</v>
+      </c>
+      <c r="YS3" t="n">
+        <v>-25.42424284756262</v>
+      </c>
+      <c r="YT3" t="n">
+        <v>-25.42634911024209</v>
+      </c>
+      <c r="YU3" t="n">
+        <v>-25.42824388934437</v>
+      </c>
+      <c r="YV3" t="n">
+        <v>-25.42953267119982</v>
+      </c>
+      <c r="YW3" t="n">
+        <v>-25.43129081719422</v>
+      </c>
+      <c r="YX3" t="n">
+        <v>-25.43309968828995</v>
+      </c>
+      <c r="YY3" t="n">
+        <v>-25.43645695933853</v>
+      </c>
+      <c r="YZ3" t="n">
+        <v>-25.43739007793905</v>
+      </c>
+      <c r="ZA3" t="n">
+        <v>-25.4392227437359</v>
+      </c>
+      <c r="ZB3" t="n">
+        <v>-25.41661367019957</v>
+      </c>
+      <c r="ZC3" t="n">
+        <v>-25.41980375371167</v>
+      </c>
+      <c r="ZD3" t="n">
+        <v>-25.42160481133998</v>
+      </c>
+      <c r="ZE3" t="n">
+        <v>-25.42532927988997</v>
+      </c>
+      <c r="ZF3" t="n">
+        <v>-25.42716047330388</v>
+      </c>
+      <c r="ZG3" t="n">
+        <v>-25.40427803954594</v>
+      </c>
+      <c r="ZH3" t="n">
+        <v>-25.40635763518211</v>
+      </c>
+      <c r="ZI3" t="n">
+        <v>-25.41031141833475</v>
+      </c>
+      <c r="ZJ3" t="n">
+        <v>-25.38973152792959</v>
+      </c>
+      <c r="ZK3" t="n">
+        <v>-25.39294084730771</v>
+      </c>
+      <c r="ZL3" t="n">
+        <v>-25.39770939536788</v>
+      </c>
+      <c r="ZM3" t="n">
+        <v>-25.40179959192697</v>
+      </c>
+      <c r="ZN3" t="n">
+        <v>-25.40413639979302</v>
+      </c>
+      <c r="ZO3" t="n">
+        <v>-25.40670586886291</v>
+      </c>
+      <c r="ZP3" t="n">
+        <v>-25.38482890784233</v>
+      </c>
+      <c r="ZQ3" t="n">
+        <v>-25.38850590485393</v>
+      </c>
+      <c r="ZR3" t="n">
+        <v>-25.39173048369898</v>
+      </c>
+      <c r="ZS3" t="n">
+        <v>-25.39487019582785</v>
+      </c>
+      <c r="ZT3" t="n">
+        <v>-25.39792273410654</v>
+      </c>
+      <c r="ZU3" t="n">
+        <v>-25.40058811664683</v>
+      </c>
+      <c r="ZV3" t="n">
+        <v>-25.40347205744215</v>
+      </c>
+      <c r="ZW3" t="n">
+        <v>-25.40662116375012</v>
+      </c>
+      <c r="ZX3" t="n">
+        <v>-25.38532542535393</v>
+      </c>
+      <c r="ZY3" t="n">
+        <v>-25.38881131377577</v>
+      </c>
+      <c r="ZZ3" t="n">
+        <v>-25.39220138000513</v>
+      </c>
+      <c r="AAA3" t="n">
+        <v>-25.39549343375802</v>
+      </c>
+      <c r="AAB3" t="n">
+        <v>-25.39838763060991</v>
+      </c>
+      <c r="AAC3" t="n">
+        <v>-25.40119176703517</v>
+      </c>
+      <c r="AAD3" t="n">
+        <v>-25.40420288072484</v>
+      </c>
+      <c r="AAE3" t="n">
+        <v>-25.40681300713284</v>
+      </c>
+      <c r="AAF3" t="n">
+        <v>-25.41095992510712</v>
+      </c>
+      <c r="AAG3" t="n">
+        <v>-25.39056175893614</v>
+      </c>
+      <c r="AAH3" t="n">
+        <v>-25.39398036678992</v>
+      </c>
+      <c r="AAI3" t="n">
+        <v>-25.39953850491179</v>
+      </c>
+      <c r="AAJ3" t="n">
+        <v>-25.40266255495122</v>
+      </c>
+      <c r="AAK3" t="n">
+        <v>-25.40620067691218</v>
+      </c>
+      <c r="AAL3" t="n">
+        <v>-25.38496469076862</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>-25.39007149773154</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>-25.39329242293774</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>-25.39671153095067</v>
+      </c>
+      <c r="AAP3" t="n">
+        <v>-25.40164746806765</v>
+      </c>
+      <c r="AAQ3" t="n">
+        <v>-25.38200237797032</v>
+      </c>
+      <c r="AAR3" t="n">
+        <v>-25.38610004333162</v>
+      </c>
+      <c r="AAS3" t="n">
+        <v>-25.39007375116325</v>
+      </c>
+      <c r="AAT3" t="n">
+        <v>-25.39369237324939</v>
+      </c>
+      <c r="AAU3" t="n">
+        <v>-25.39947663802974</v>
+      </c>
+      <c r="AAV3" t="n">
+        <v>-25.40277251201772</v>
+      </c>
+      <c r="AAW3" t="n">
+        <v>-25.40757784577194</v>
+      </c>
+      <c r="AAX3" t="n">
+        <v>-25.41080346834477</v>
+      </c>
+      <c r="AAY3" t="n">
+        <v>-25.41402526988697</v>
+      </c>
+      <c r="AAZ3" t="n">
+        <v>-25.41676288106668</v>
+      </c>
+      <c r="ABA3" t="n">
+        <v>-25.39501507168058</v>
+      </c>
+      <c r="ABB3" t="n">
+        <v>-25.3984276950923</v>
+      </c>
+      <c r="ABC3" t="n">
+        <v>-25.40172402327547</v>
+      </c>
+      <c r="ABD3" t="n">
+        <v>-25.40460551346234</v>
+      </c>
+      <c r="ABE3" t="n">
+        <v>-25.40761930609701</v>
+      </c>
+      <c r="ABF3" t="n">
+        <v>-25.41080799493113</v>
+      </c>
+      <c r="ABG3" t="n">
+        <v>-25.41387188774461</v>
+      </c>
+      <c r="ABH3" t="n">
+        <v>-25.41658235136041</v>
+      </c>
+      <c r="ABI3" t="n">
+        <v>-25.41969933962038</v>
+      </c>
+      <c r="ABJ3" t="n">
+        <v>-25.42216277680879</v>
+      </c>
+      <c r="ABK3" t="n">
+        <v>-25.40014603401316</v>
+      </c>
+      <c r="ABL3" t="n">
+        <v>-25.4046262314978</v>
+      </c>
+      <c r="ABM3" t="n">
+        <v>-25.40761553900023</v>
+      </c>
+      <c r="ABN3" t="n">
+        <v>-25.41073245663521</v>
+      </c>
+      <c r="ABO3" t="n">
+        <v>-25.41414723193542</v>
+      </c>
+      <c r="ABP3" t="n">
+        <v>-25.41742789787498</v>
+      </c>
+      <c r="ABQ3" t="n">
+        <v>-25.42164362251838</v>
+      </c>
+      <c r="ABR3" t="n">
+        <v>-25.42523162880448</v>
+      </c>
+      <c r="ABS3" t="n">
+        <v>-25.42705593859036</v>
+      </c>
+      <c r="ABT3" t="n">
+        <v>-25.43093782336948</v>
+      </c>
+      <c r="ABU3" t="n">
+        <v>-25.43254551660972</v>
+      </c>
+      <c r="ABV3" t="n">
+        <v>-25.40971090095942</v>
+      </c>
+      <c r="ABW3" t="n">
+        <v>-25.41258577062552</v>
+      </c>
+      <c r="ABX3" t="n">
+        <v>-25.41654116442563</v>
+      </c>
+      <c r="ABY3" t="n">
+        <v>-25.41892060926073</v>
+      </c>
+      <c r="ABZ3" t="n">
+        <v>-25.4212031209067</v>
+      </c>
+      <c r="ACA3" t="n">
+        <v>-25.42338955287428</v>
+      </c>
+      <c r="ACB3" t="n">
+        <v>-25.45447390580519</v>
+      </c>
+      <c r="ACC3" t="n">
+        <v>-25.45548629382859</v>
+      </c>
+      <c r="ACD3" t="n">
+        <v>-25.43200985258528</v>
+      </c>
+      <c r="ACE3" t="n">
+        <v>-25.43365431787115</v>
+      </c>
+      <c r="ACF3" t="n">
+        <v>-25.435488626652</v>
+      </c>
+      <c r="ACG3" t="n">
+        <v>-25.43728136314986</v>
+      </c>
+      <c r="ACH3" t="n">
+        <v>-25.43865845436488</v>
+      </c>
+      <c r="ACI3" t="n">
+        <v>-25.41558924347429</v>
+      </c>
+      <c r="ACJ3" t="n">
+        <v>-25.41772031058395</v>
+      </c>
+      <c r="ACK3" t="n">
+        <v>-25.41977549558153</v>
+      </c>
+      <c r="ACL3" t="n">
+        <v>-25.42199283877628</v>
+      </c>
+      <c r="ACM3" t="n">
+        <v>-25.42412554093942</v>
+      </c>
+      <c r="ACN3" t="n">
+        <v>-25.42789735261817</v>
+      </c>
+      <c r="ACO3" t="n">
+        <v>-25.43128320247734</v>
+      </c>
+      <c r="ACP3" t="n">
+        <v>-25.43290197126639</v>
+      </c>
+      <c r="ACQ3" t="n">
+        <v>-25.43607353745949</v>
+      </c>
+      <c r="ACR3" t="n">
+        <v>-25.43814527630239</v>
+      </c>
+      <c r="ACS3" t="n">
+        <v>-25.43988092687307</v>
+      </c>
+      <c r="ACT3" t="n">
+        <v>-25.4427316058704</v>
+      </c>
+      <c r="ACU3" t="n">
+        <v>-25.44396671148294</v>
+      </c>
+      <c r="ACV3" t="n">
+        <v>-25.44512891614871</v>
+      </c>
+      <c r="ACW3" t="n">
+        <v>-25.44598225511821</v>
+      </c>
+      <c r="ACX3" t="n">
+        <v>-25.44704926589281</v>
+      </c>
+      <c r="ACY3" t="n">
+        <v>-25.44810756834809</v>
+      </c>
+      <c r="ACZ3" t="n">
+        <v>-25.45048901026557</v>
+      </c>
+      <c r="ADA3" t="n">
+        <v>-25.4510650584869</v>
+      </c>
+      <c r="ADB3" t="n">
+        <v>-25.42719813611881</v>
+      </c>
+      <c r="ADC3" t="n">
+        <v>-25.43026856726505</v>
+      </c>
+      <c r="ADD3" t="n">
+        <v>-25.43174099525761</v>
+      </c>
+      <c r="ADE3" t="n">
+        <v>-25.4087792755689</v>
+      </c>
+      <c r="ADF3" t="n">
+        <v>-25.4122324945779</v>
+      </c>
+      <c r="ADG3" t="n">
+        <v>-25.41477271851246</v>
+      </c>
+      <c r="ADH3" t="n">
+        <v>-25.39231214457597</v>
+      </c>
+      <c r="ADI3" t="n">
+        <v>-25.39720589190136</v>
+      </c>
+      <c r="ADJ3" t="n">
+        <v>-25.40038636183238</v>
+      </c>
+      <c r="ADK3" t="n">
+        <v>-25.40286954124256</v>
+      </c>
+      <c r="ADL3" t="n">
+        <v>-25.40777373629542</v>
+      </c>
+      <c r="ADM3" t="n">
+        <v>-25.41003955283322</v>
+      </c>
+      <c r="ADN3" t="n">
+        <v>-25.41375450082849</v>
+      </c>
+      <c r="ADO3" t="n">
+        <v>-25.41635367987608</v>
+      </c>
+      <c r="ADP3" t="n">
+        <v>-25.41843983290385</v>
+      </c>
+      <c r="ADQ3" t="n">
+        <v>-25.42202054472129</v>
+      </c>
+      <c r="ADR3" t="n">
+        <v>-25.42629404289713</v>
+      </c>
+      <c r="ADS3" t="n">
+        <v>-25.42981429900943</v>
+      </c>
+      <c r="ADT3" t="n">
+        <v>-25.43130753313823</v>
+      </c>
+      <c r="ADU3" t="n">
+        <v>-25.43332367136621</v>
+      </c>
+      <c r="ADV3" t="n">
+        <v>-25.43484208396497</v>
+      </c>
+      <c r="ADW3" t="n">
+        <v>-25.43638384834572</v>
+      </c>
+      <c r="ADX3" t="n">
+        <v>-25.43775791483609</v>
+      </c>
+      <c r="ADY3" t="n">
+        <v>-25.43915789702119</v>
+      </c>
+      <c r="ADZ3" t="n">
+        <v>-25.44048732215582</v>
+      </c>
+      <c r="AEA3" t="n">
+        <v>-25.44232772737063</v>
+      </c>
+      <c r="AEB3" t="n">
+        <v>-25.44355809870821</v>
+      </c>
+      <c r="AEC3" t="n">
+        <v>-25.42031639610426</v>
+      </c>
+      <c r="AED3" t="n">
+        <v>-25.42371226439642</v>
+      </c>
+      <c r="AEE3" t="n">
+        <v>-25.42536059317473</v>
+      </c>
+      <c r="AEF3" t="n">
+        <v>-25.42874580158789</v>
+      </c>
+      <c r="AEG3" t="n">
+        <v>-25.43029558436298</v>
+      </c>
+      <c r="AEH3" t="n">
+        <v>-25.43350763038246</v>
+      </c>
+      <c r="AEI3" t="n">
+        <v>-25.43717482113295</v>
+      </c>
+      <c r="AEJ3" t="n">
+        <v>-25.44011621123059</v>
+      </c>
+      <c r="AEK3" t="n">
+        <v>-25.44341669652162</v>
+      </c>
+      <c r="AEL3" t="n">
+        <v>-25.44495182117172</v>
+      </c>
+      <c r="AEM3" t="n">
+        <v>-25.4456855368313</v>
+      </c>
+      <c r="AEN3" t="n">
+        <v>-25.44845296480188</v>
+      </c>
+      <c r="AEO3" t="n">
+        <v>-25.45005238020542</v>
+      </c>
+      <c r="AEP3" t="n">
+        <v>-25.45221602234576</v>
+      </c>
+      <c r="AEQ3" t="n">
+        <v>-25.45278805328035</v>
+      </c>
+      <c r="AER3" t="n">
+        <v>-25.45334652775801</v>
+      </c>
+      <c r="AES3" t="n">
+        <v>-25.45410446782132</v>
+      </c>
+      <c r="AET3" t="n">
+        <v>-25.45527259675679</v>
+      </c>
+      <c r="AEU3" t="n">
+        <v>-25.45593586052867</v>
+      </c>
+      <c r="AEV3" t="n">
+        <v>-25.45593592296584</v>
+      </c>
+      <c r="AEW3" t="n">
+        <v>-25.45865045127078</v>
+      </c>
+      <c r="AEX3" t="n">
+        <v>-25.45897676891536</v>
+      </c>
+      <c r="AEY3" t="n">
+        <v>-25.460500274261</v>
+      </c>
+      <c r="AEZ3" t="n">
+        <v>-25.46193890121358</v>
+      </c>
+      <c r="AFA3" t="n">
+        <v>-25.46239395525605</v>
+      </c>
+      <c r="AFB3" t="n">
+        <v>-25.46394558228437</v>
+      </c>
+      <c r="AFC3" t="n">
+        <v>-25.46384017901237</v>
+      </c>
+      <c r="AFD3" t="n">
+        <v>-25.46585845618138</v>
+      </c>
+      <c r="AFE3" t="n">
+        <v>-25.46562265355149</v>
+      </c>
+      <c r="AFF3" t="n">
+        <v>-25.4653651547727</v>
+      </c>
+      <c r="AFG3" t="n">
+        <v>-25.46508820720618</v>
+      </c>
+      <c r="AFH3" t="n">
+        <v>-25.46531492340375</v>
+      </c>
+      <c r="AFI3" t="n">
+        <v>-25.46468452201529</v>
+      </c>
+      <c r="AFJ3" t="n">
+        <v>-25.46429445380956</v>
+      </c>
+      <c r="AFK3" t="n">
+        <v>-25.463954175973</v>
+      </c>
+      <c r="AFL3" t="n">
+        <v>-25.46493602482917</v>
+      </c>
+      <c r="AFM3" t="n">
+        <v>-25.4652708454182</v>
+      </c>
+      <c r="AFN3" t="n">
+        <v>-25.46697905567423</v>
+      </c>
+      <c r="AFO3" t="n">
+        <v>-25.4680224012105</v>
+      </c>
+      <c r="AFP3" t="n">
+        <v>-25.46876616591402</v>
+      </c>
+      <c r="AFQ3" t="n">
+        <v>-25.46806818753371</v>
+      </c>
+      <c r="AFR3" t="n">
+        <v>-25.46737296214601</v>
+      </c>
+      <c r="AFS3" t="n">
+        <v>-25.46837020271595</v>
+      </c>
+      <c r="AFT3" t="n">
+        <v>-25.46956739948386</v>
+      </c>
+      <c r="AFU3" t="n">
+        <v>-25.47069969281073</v>
+      </c>
+      <c r="AFV3" t="n">
+        <v>-25.47151184822484</v>
+      </c>
+      <c r="AFW3" t="n">
+        <v>-25.47054860067861</v>
+      </c>
+      <c r="AFX3" t="n">
+        <v>-25.47215947584524</v>
+      </c>
+      <c r="AFY3" t="n">
+        <v>-25.471444032619</v>
+      </c>
+      <c r="AFZ3" t="n">
+        <v>-25.4707712970445</v>
+      </c>
+      <c r="AGA3" t="n">
+        <v>-25.47147617065034</v>
+      </c>
+      <c r="AGB3" t="n">
+        <v>-25.49753930554824</v>
+      </c>
+      <c r="AGC3" t="n">
+        <v>-25.4958981647011</v>
+      </c>
+      <c r="AGD3" t="n">
+        <v>-25.52129849250114</v>
+      </c>
+      <c r="AGE3" t="n">
+        <v>-25.51857801002474</v>
+      </c>
+      <c r="AGF3" t="n">
+        <v>-25.51560218329904</v>
+      </c>
+      <c r="AGG3" t="n">
+        <v>-25.51266549928279</v>
+      </c>
+      <c r="AGH3" t="n">
+        <v>-25.51177697444998</v>
+      </c>
+      <c r="AGI3" t="n">
+        <v>-25.50885861776885</v>
+      </c>
+      <c r="AGJ3" t="n">
+        <v>-25.50799729182453</v>
+      </c>
+      <c r="AGK3" t="n">
+        <v>-25.48269291191164</v>
+      </c>
+      <c r="AGL3" t="n">
+        <v>-25.48203288370695</v>
+      </c>
+      <c r="AGM3" t="n">
+        <v>-25.48168644046076</v>
+      </c>
+      <c r="AGN3" t="n">
+        <v>-25.47971275896636</v>
+      </c>
+      <c r="AGO3" t="n">
+        <v>-25.47912982416307</v>
+      </c>
+      <c r="AGP3" t="n">
+        <v>-25.47723370909738</v>
+      </c>
+      <c r="AGQ3" t="n">
+        <v>-25.47704532268972</v>
+      </c>
+      <c r="AGR3" t="n">
+        <v>-25.47684584772368</v>
+      </c>
+      <c r="AGS3" t="n">
+        <v>-25.47666498533302</v>
+      </c>
+      <c r="AGT3" t="n">
+        <v>-25.47516043307639</v>
+      </c>
+      <c r="AGU3" t="n">
+        <v>-25.47530099706465</v>
+      </c>
+      <c r="AGV3" t="n">
+        <v>-25.47322678596937</v>
+      </c>
+      <c r="AGW3" t="n">
+        <v>-25.47153059664289</v>
+      </c>
+      <c r="AGX3" t="n">
+        <v>-25.46959812359486</v>
+      </c>
+      <c r="AGY3" t="n">
+        <v>-25.46967220069889</v>
+      </c>
+      <c r="AGZ3" t="n">
+        <v>-25.46974998656321</v>
+      </c>
+      <c r="AHA3" t="n">
+        <v>-25.46851792788363</v>
+      </c>
+      <c r="AHB3" t="n">
+        <v>-25.46733754864571</v>
+      </c>
+      <c r="AHC3" t="n">
+        <v>-25.46752137481041</v>
+      </c>
+      <c r="AHD3" t="n">
+        <v>-25.46665781340756</v>
+      </c>
+      <c r="AHE3" t="n">
+        <v>-25.46688325436643</v>
+      </c>
+      <c r="AHF3" t="n">
+        <v>-25.46742491514054</v>
+      </c>
+      <c r="AHG3" t="n">
+        <v>-25.46600957185922</v>
+      </c>
+      <c r="AHH3" t="n">
+        <v>-25.46626292308799</v>
+      </c>
+      <c r="AHI3" t="n">
+        <v>-25.46661339812588</v>
+      </c>
+      <c r="AHJ3" t="n">
+        <v>-25.46777693417339</v>
+      </c>
+      <c r="AHK3" t="n">
+        <v>-25.46613703428666</v>
+      </c>
+      <c r="AHL3" t="n">
+        <v>-25.46650858908542</v>
+      </c>
+      <c r="AHM3" t="n">
+        <v>-25.46507680613035</v>
+      </c>
+      <c r="AHN3" t="n">
+        <v>-25.46542834677592</v>
+      </c>
+      <c r="AHO3" t="n">
+        <v>-25.46605358915303</v>
+      </c>
+      <c r="AHP3" t="n">
+        <v>-25.46497699441585</v>
+      </c>
+      <c r="AHQ3" t="n">
+        <v>-25.46378438870719</v>
+      </c>
+      <c r="AHR3" t="n">
+        <v>-25.46258467262377</v>
+      </c>
+      <c r="AHS3" t="n">
+        <v>-25.46276595344579</v>
+      </c>
+      <c r="AHT3" t="n">
+        <v>-25.46132149549398</v>
+      </c>
+      <c r="AHU3" t="n">
+        <v>-25.46024169000142</v>
+      </c>
+      <c r="AHV3" t="n">
+        <v>-25.46101864596404</v>
+      </c>
+      <c r="AHW3" t="n">
+        <v>-25.45987854746344</v>
+      </c>
+      <c r="AHX3" t="n">
+        <v>-25.45987726510163</v>
+      </c>
+      <c r="AHY3" t="n">
+        <v>-25.45921195472204</v>
+      </c>
+      <c r="AHZ3" t="n">
+        <v>-25.45965319116405</v>
+      </c>
+      <c r="AIA3" t="n">
+        <v>-25.46003049357111</v>
+      </c>
+      <c r="AIB3" t="n">
+        <v>-25.46070576030159</v>
+      </c>
+      <c r="AIC3" t="n">
+        <v>-25.46005247433803</v>
+      </c>
+      <c r="AID3" t="n">
+        <v>-25.46074503318934</v>
+      </c>
+      <c r="AIE3" t="n">
+        <v>-25.4885113058783</v>
+      </c>
+      <c r="AIF3" t="n">
+        <v>-25.48653187113682</v>
+      </c>
+      <c r="AIG3" t="n">
+        <v>-25.48459781368681</v>
+      </c>
+      <c r="AIH3" t="n">
+        <v>-25.48271105032117</v>
+      </c>
+      <c r="AII3" t="n">
+        <v>-25.4814532609755</v>
+      </c>
+      <c r="AIJ3" t="n">
+        <v>-25.47964419564421</v>
+      </c>
+      <c r="AIK3" t="n">
+        <v>-25.47951570130219</v>
+      </c>
+      <c r="AIL3" t="n">
+        <v>-25.47744866073936</v>
+      </c>
+      <c r="AIM3" t="n">
+        <v>-25.47544636470202</v>
+      </c>
+      <c r="AIN3" t="n">
+        <v>-25.47350952161585</v>
+      </c>
+      <c r="AIO3" t="n">
+        <v>-25.47356907498982</v>
+      </c>
+      <c r="AIP3" t="n">
+        <v>-25.47206746181025</v>
+      </c>
+      <c r="AIQ3" t="n">
+        <v>-25.47217384594071</v>
+      </c>
+      <c r="AIR3" t="n">
+        <v>-25.47197345986754</v>
+      </c>
+      <c r="AIS3" t="n">
+        <v>-25.47045156991022</v>
+      </c>
+      <c r="AIT3" t="n">
+        <v>-25.47061422656018</v>
+      </c>
+      <c r="AIU3" t="n">
+        <v>-25.47047024522821</v>
+      </c>
+      <c r="AIV3" t="n">
+        <v>-25.46900473178888</v>
+      </c>
+      <c r="AIW3" t="n">
+        <v>-25.46892212408584</v>
+      </c>
+      <c r="AIX3" t="n">
+        <v>-25.4688452528791</v>
+      </c>
+      <c r="AIY3" t="n">
+        <v>-25.46802640573855</v>
+      </c>
+      <c r="AIZ3" t="n">
+        <v>-25.46828968692952</v>
+      </c>
+      <c r="AJA3" t="n">
+        <v>-25.46661632665838</v>
+      </c>
+      <c r="AJB3" t="n">
+        <v>-25.46530988911623</v>
+      </c>
+      <c r="AJC3" t="n">
+        <v>-25.46537231236633</v>
+      </c>
+      <c r="AJD3" t="n">
+        <v>-25.46434560086849</v>
+      </c>
+      <c r="AJE3" t="n">
+        <v>-25.46508684847846</v>
+      </c>
+      <c r="AJF3" t="n">
+        <v>-25.44138746640142</v>
+      </c>
+      <c r="AJG3" t="n">
+        <v>-25.44269576750731</v>
+      </c>
+      <c r="AJH3" t="n">
+        <v>-25.44225403180205</v>
+      </c>
+      <c r="AJI3" t="n">
+        <v>-25.44412274984088</v>
+      </c>
+      <c r="AJJ3" t="n">
+        <v>-25.44410443449524</v>
+      </c>
+      <c r="AJK3" t="n">
+        <v>-25.44574495755827</v>
+      </c>
+      <c r="AJL3" t="n">
+        <v>-25.44673510726882</v>
+      </c>
+      <c r="AJM3" t="n">
+        <v>-25.44608432519937</v>
+      </c>
+      <c r="AJN3" t="n">
+        <v>-25.44741096708386</v>
+      </c>
+      <c r="AJO3" t="n">
+        <v>-25.44739785257971</v>
+      </c>
+      <c r="AJP3" t="n">
+        <v>-25.44877947035707</v>
+      </c>
+      <c r="AJQ3" t="n">
+        <v>-25.45038399150212</v>
+      </c>
+      <c r="AJR3" t="n">
+        <v>-25.45194569253787</v>
+      </c>
+      <c r="AJS3" t="n">
+        <v>-25.45183447217388</v>
+      </c>
+      <c r="AJT3" t="n">
+        <v>-25.45275069357021</v>
+      </c>
+      <c r="AJU3" t="n">
+        <v>-25.42921201394317</v>
+      </c>
+      <c r="AJV3" t="n">
+        <v>-25.42966426203971</v>
+      </c>
+      <c r="AJW3" t="n">
+        <v>-25.42989701640952</v>
+      </c>
+      <c r="AJX3" t="n">
+        <v>-25.4317287414666</v>
+      </c>
+      <c r="AJY3" t="n">
+        <v>-25.46093470172235</v>
+      </c>
+      <c r="AJZ3" t="n">
+        <v>-25.46094591951461</v>
+      </c>
+      <c r="AKA3" t="n">
+        <v>-25.46067160272042</v>
+      </c>
+      <c r="AKB3" t="n">
+        <v>-25.46141279188904</v>
+      </c>
+      <c r="AKC3" t="n">
+        <v>-25.46137314125466</v>
+      </c>
+      <c r="AKD3" t="n">
+        <v>-25.46132849113847</v>
+      </c>
+      <c r="AKE3" t="n">
+        <v>-25.46264420860774</v>
+      </c>
+      <c r="AKF3" t="n">
+        <v>-25.46360357410776</v>
+      </c>
+      <c r="AKG3" t="n">
+        <v>-25.46319231130896</v>
+      </c>
+      <c r="AKH3" t="n">
+        <v>-25.46247211078909</v>
+      </c>
+      <c r="AKI3" t="n">
+        <v>-25.46177123532746</v>
+      </c>
+      <c r="AKJ3" t="n">
+        <v>-25.46109017262803</v>
+      </c>
+      <c r="AKK3" t="n">
+        <v>-25.46100934972146</v>
+      </c>
+      <c r="AKL3" t="n">
+        <v>-25.43624446260766</v>
+      </c>
+      <c r="AKM3" t="n">
+        <v>-25.43844579234696</v>
+      </c>
+      <c r="AKN3" t="n">
+        <v>-25.44085749568485</v>
+      </c>
+      <c r="AKO3" t="n">
+        <v>-25.44263816874472</v>
+      </c>
+      <c r="AKP3" t="n">
+        <v>-25.4427438690381</v>
+      </c>
+      <c r="AKQ3" t="n">
+        <v>-25.44284845682047</v>
+      </c>
+      <c r="AKR3" t="n">
+        <v>-25.44435223459995</v>
+      </c>
+      <c r="AKS3" t="n">
+        <v>-25.44412771555448</v>
+      </c>
+      <c r="AKT3" t="n">
+        <v>-25.44586969655516</v>
+      </c>
+      <c r="AKU3" t="n">
+        <v>-25.44754537817416</v>
+      </c>
+      <c r="AKV3" t="n">
+        <v>-25.44922800671014</v>
+      </c>
+      <c r="AKW3" t="n">
+        <v>-25.44916767764118</v>
+      </c>
+      <c r="AKX3" t="n">
+        <v>-25.45122198934428</v>
+      </c>
+      <c r="AKY3" t="n">
+        <v>-25.42873524942975</v>
+      </c>
+      <c r="AKZ3" t="n">
+        <v>-25.42967232652077</v>
+      </c>
+      <c r="ALA3" t="n">
+        <v>-25.43200068538792</v>
+      </c>
+      <c r="ALB3" t="n">
+        <v>-25.43297062529422</v>
+      </c>
+      <c r="ALC3" t="n">
+        <v>-25.43392922417929</v>
+      </c>
+      <c r="ALD3" t="n">
+        <v>-25.43527177675793</v>
+      </c>
+      <c r="ALE3" t="n">
+        <v>-25.43587189875651</v>
+      </c>
+      <c r="ALF3" t="n">
+        <v>-25.43811115687664</v>
+      </c>
+      <c r="ALG3" t="n">
+        <v>-25.43886170313693</v>
+      </c>
+      <c r="ALH3" t="n">
+        <v>-25.44179886874294</v>
+      </c>
+      <c r="ALI3" t="n">
+        <v>-25.44354280287368</v>
+      </c>
+      <c r="ALJ3" t="n">
+        <v>-25.44386634537571</v>
+      </c>
+      <c r="ALK3" t="n">
+        <v>-25.44607768266856</v>
+      </c>
+      <c r="ALL3" t="n">
+        <v>-25.44666725396441</v>
+      </c>
+      <c r="ALM3" t="n">
+        <v>-25.44750025725967</v>
       </c>
     </row>
   </sheetData>
